--- a/Formatos/Estudio_de_caso_nCOV_2020.xlsx
+++ b/Formatos/Estudio_de_caso_nCOV_2020.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosNET2020\OneProject.MedicalForms\OneProject.Medical.Forms\Formatos\Salidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\source\repos\OneProject.Medical.Forms\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE6224-3C57-4F24-BFDA-70779AA742D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QUWXMaeGjuUt4zZYobJ34740iStqnl0RVGXUprJ17ILmK1kNCmObGDVVeU06GYkJRAcZKQIy0ExsOiQwMD2ezw==" workbookSaltValue="nXkPjPfGI4aEBZ1SH2jd/A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudio de caso" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Estudio de caso'!$B$1:$T$189</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -690,9 +690,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1190,7 +1190,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1326,7 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,39 +1837,420 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1885,54 +2266,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1945,356 +2290,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2438,7 +2438,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,37 +2794,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:Y189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+      <selection activeCell="E46" sqref="E46:F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="12.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.453125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="18" customHeight="1">
@@ -2912,65 +2912,65 @@
       <c r="T4" s="67"/>
     </row>
     <row r="5" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B5" s="379" t="s">
+      <c r="B5" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="380"/>
-      <c r="D5" s="380"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="380"/>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380"/>
-      <c r="I5" s="380"/>
-      <c r="J5" s="380"/>
-      <c r="K5" s="380"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="380"/>
-      <c r="N5" s="380"/>
-      <c r="O5" s="380"/>
-      <c r="P5" s="380"/>
-      <c r="Q5" s="380"/>
-      <c r="R5" s="380"/>
-      <c r="S5" s="380"/>
-      <c r="T5" s="381"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="251"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="251"/>
+      <c r="S5" s="251"/>
+      <c r="T5" s="252"/>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B6" s="335" t="s">
+      <c r="B6" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="336"/>
-      <c r="P6" s="336"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="337"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="266"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="266"/>
+      <c r="P6" s="266"/>
+      <c r="Q6" s="266"/>
+      <c r="R6" s="266"/>
+      <c r="S6" s="266"/>
+      <c r="T6" s="267"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
       <c r="B7" s="68" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="51"/>
-      <c r="D7" s="396" t="s">
+      <c r="D7" s="279" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="396"/>
+      <c r="E7" s="279"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="397" t="s">
+      <c r="G7" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="396"/>
+      <c r="H7" s="279"/>
       <c r="I7" s="56"/>
       <c r="J7" s="57"/>
       <c r="K7" s="123" t="s">
@@ -2980,10 +2980,10 @@
       <c r="M7" s="123"/>
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
-      <c r="P7" s="392"/>
-      <c r="Q7" s="393"/>
-      <c r="R7" s="393"/>
-      <c r="S7" s="394"/>
+      <c r="P7" s="275"/>
+      <c r="Q7" s="276"/>
+      <c r="R7" s="276"/>
+      <c r="S7" s="277"/>
       <c r="T7" s="69"/>
     </row>
     <row r="8" spans="2:20" ht="9" customHeight="1">
@@ -3011,21 +3011,21 @@
       <c r="B9" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="398"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="400"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="283"/>
       <c r="F9" s="50"/>
       <c r="G9" s="234" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="398"/>
-      <c r="J9" s="399"/>
-      <c r="K9" s="399"/>
-      <c r="L9" s="399"/>
-      <c r="M9" s="399"/>
-      <c r="N9" s="399"/>
-      <c r="O9" s="400"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="283"/>
       <c r="P9" s="70"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="70"/>
@@ -3033,27 +3033,27 @@
       <c r="T9" s="69"/>
     </row>
     <row r="10" spans="2:20" ht="28.5" customHeight="1">
-      <c r="B10" s="335" t="s">
+      <c r="B10" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="336"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="336"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="336"/>
-      <c r="R10" s="336"/>
-      <c r="S10" s="336"/>
-      <c r="T10" s="337"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="266"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="266"/>
+      <c r="P10" s="266"/>
+      <c r="Q10" s="266"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="267"/>
     </row>
     <row r="11" spans="2:20" ht="24.75" customHeight="1">
       <c r="B11" s="239" t="s">
@@ -3061,9 +3061,9 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="307"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="307"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -3082,10 +3082,10 @@
       <c r="B12" s="12"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="395" t="s">
+      <c r="E12" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="395"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="203"/>
       <c r="H12" s="203"/>
       <c r="I12" s="203"/>
@@ -3123,32 +3123,32 @@
       <c r="T13" s="72"/>
     </row>
     <row r="14" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B14" s="314" t="s">
+      <c r="B14" s="260" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="315"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="389" t="s">
+      <c r="C14" s="261"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="271" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="390"/>
-      <c r="G14" s="391"/>
-      <c r="H14" s="314" t="s">
+      <c r="F14" s="272"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="260" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="315"/>
-      <c r="J14" s="316"/>
-      <c r="K14" s="317"/>
-      <c r="L14" s="318"/>
-      <c r="M14" s="318"/>
-      <c r="N14" s="319"/>
-      <c r="O14" s="314" t="s">
+      <c r="I14" s="261"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="269"/>
+      <c r="N14" s="270"/>
+      <c r="O14" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="316"/>
-      <c r="Q14" s="317"/>
-      <c r="R14" s="318"/>
-      <c r="S14" s="319"/>
+      <c r="P14" s="262"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="270"/>
       <c r="T14" s="67"/>
     </row>
     <row r="15" spans="2:20" ht="9.75" customHeight="1">
@@ -3197,12 +3197,12 @@
       <c r="M16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="349"/>
-      <c r="O16" s="383"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="383"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="350"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="255"/>
+      <c r="P16" s="255"/>
+      <c r="Q16" s="255"/>
+      <c r="R16" s="255"/>
+      <c r="S16" s="256"/>
       <c r="T16" s="71"/>
     </row>
     <row r="17" spans="2:20" ht="9.75" customHeight="1">
@@ -3227,66 +3227,66 @@
       <c r="T17" s="71"/>
     </row>
     <row r="18" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="258" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="191"/>
-      <c r="E18" s="386" t="s">
+      <c r="E18" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="382"/>
+      <c r="F18" s="253"/>
       <c r="G18" s="208" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="382" t="s">
+      <c r="I18" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="382"/>
+      <c r="J18" s="253"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="382" t="s">
+      <c r="M18" s="253" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="382"/>
-      <c r="O18" s="382"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="253"/>
       <c r="P18" s="208" t="s">
         <v>165</v>
       </c>
       <c r="Q18" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="384" t="s">
+      <c r="R18" s="257" t="s">
         <v>166</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="73"/>
     </row>
     <row r="19" spans="2:20" ht="23.25" customHeight="1">
-      <c r="B19" s="385"/>
+      <c r="B19" s="258"/>
       <c r="C19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="191"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="382"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="253"/>
       <c r="G19" s="191"/>
       <c r="H19" s="191"/>
-      <c r="I19" s="382"/>
-      <c r="J19" s="382"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
       <c r="K19" s="191"/>
       <c r="L19" s="208"/>
-      <c r="M19" s="382"/>
-      <c r="N19" s="382"/>
-      <c r="O19" s="382"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="253"/>
       <c r="P19" s="191"/>
       <c r="Q19" s="191"/>
-      <c r="R19" s="384"/>
+      <c r="R19" s="257"/>
       <c r="S19" s="191"/>
       <c r="T19" s="73"/>
     </row>
@@ -3322,22 +3322,22 @@
       <c r="E21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="349"/>
-      <c r="G21" s="350"/>
-      <c r="H21" s="325" t="s">
+      <c r="F21" s="254"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="326" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="351"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="350"/>
+      <c r="I21" s="327"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="256"/>
       <c r="L21" s="208"/>
       <c r="M21" s="186"/>
-      <c r="N21" s="352" t="s">
+      <c r="N21" s="328" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="352"/>
-      <c r="P21" s="352"/>
-      <c r="Q21" s="352"/>
+      <c r="O21" s="328"/>
+      <c r="P21" s="328"/>
+      <c r="Q21" s="328"/>
       <c r="R21" s="52"/>
       <c r="S21" s="53"/>
       <c r="T21" s="73"/>
@@ -3364,14 +3364,14 @@
       <c r="T22" s="73"/>
     </row>
     <row r="23" spans="2:20" ht="30.75" customHeight="1">
-      <c r="B23" s="332" t="s">
+      <c r="B23" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="333"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="334"/>
-      <c r="F23" s="334"/>
-      <c r="G23" s="334"/>
+      <c r="C23" s="335"/>
+      <c r="D23" s="335"/>
+      <c r="E23" s="336"/>
+      <c r="F23" s="336"/>
+      <c r="G23" s="336"/>
       <c r="H23" s="13"/>
       <c r="I23" s="3" t="s">
         <v>106</v>
@@ -3381,12 +3381,12 @@
       <c r="L23" s="14"/>
       <c r="M23" s="54"/>
       <c r="N23" s="54"/>
-      <c r="O23" s="401"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="402"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="388"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="263"/>
+      <c r="S23" s="263"/>
+      <c r="T23" s="264"/>
     </row>
     <row r="24" spans="2:20" s="16" customFormat="1" ht="9.75" customHeight="1">
       <c r="B24" s="211"/>
@@ -3415,9 +3415,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="310"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="310"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="274"/>
       <c r="H25" s="13"/>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3425,10 +3425,10 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="310"/>
-      <c r="N25" s="310"/>
-      <c r="O25" s="310"/>
-      <c r="P25" s="310"/>
+      <c r="M25" s="274"/>
+      <c r="N25" s="274"/>
+      <c r="O25" s="274"/>
+      <c r="P25" s="274"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3461,25 +3461,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="319"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="269"/>
+      <c r="H27" s="270"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="317"/>
-      <c r="N27" s="319"/>
+      <c r="M27" s="268"/>
+      <c r="N27" s="270"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="315" t="s">
+      <c r="P27" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="316"/>
-      <c r="R27" s="317"/>
-      <c r="S27" s="319"/>
+      <c r="Q27" s="262"/>
+      <c r="R27" s="268"/>
+      <c r="S27" s="270"/>
       <c r="T27" s="71"/>
     </row>
     <row r="28" spans="2:20" ht="11.25" customHeight="1">
@@ -3509,23 +3509,23 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="318"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="319"/>
-      <c r="K29" s="314" t="s">
+      <c r="E29" s="268"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="269"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="270"/>
+      <c r="K29" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="315"/>
-      <c r="M29" s="316"/>
-      <c r="N29" s="317"/>
-      <c r="O29" s="318"/>
-      <c r="P29" s="318"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="318"/>
-      <c r="S29" s="319"/>
+      <c r="L29" s="261"/>
+      <c r="M29" s="262"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="269"/>
+      <c r="P29" s="269"/>
+      <c r="Q29" s="269"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="270"/>
       <c r="T29" s="71"/>
     </row>
     <row r="30" spans="2:20" s="16" customFormat="1" ht="11.25" customHeight="1">
@@ -3555,25 +3555,25 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="317"/>
-      <c r="F31" s="318"/>
-      <c r="G31" s="319"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="270"/>
       <c r="H31" s="201"/>
       <c r="I31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="317"/>
-      <c r="K31" s="319"/>
+      <c r="J31" s="268"/>
+      <c r="K31" s="270"/>
       <c r="L31" s="203"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="315" t="s">
+      <c r="N31" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="316"/>
-      <c r="P31" s="310"/>
-      <c r="Q31" s="310"/>
-      <c r="R31" s="310"/>
-      <c r="S31" s="310"/>
+      <c r="O31" s="262"/>
+      <c r="P31" s="274"/>
+      <c r="Q31" s="274"/>
+      <c r="R31" s="274"/>
+      <c r="S31" s="274"/>
       <c r="T31" s="71"/>
     </row>
     <row r="32" spans="2:20" ht="24.75" customHeight="1">
@@ -3614,14 +3614,14 @@
       <c r="E33" s="17"/>
       <c r="F33" s="202"/>
       <c r="G33" s="202"/>
-      <c r="H33" s="314" t="s">
+      <c r="H33" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="315"/>
-      <c r="J33" s="315"/>
-      <c r="K33" s="315"/>
-      <c r="L33" s="315"/>
-      <c r="M33" s="316"/>
+      <c r="I33" s="261"/>
+      <c r="J33" s="261"/>
+      <c r="K33" s="261"/>
+      <c r="L33" s="261"/>
+      <c r="M33" s="262"/>
       <c r="N33" s="202"/>
       <c r="O33" s="202"/>
       <c r="P33" s="3"/>
@@ -3681,10 +3681,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
       <c r="H36" s="76"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -3702,39 +3702,39 @@
       <c r="T36" s="78"/>
     </row>
     <row r="37" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B37" s="335" t="s">
+      <c r="B37" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="336"/>
-      <c r="D37" s="336"/>
-      <c r="E37" s="336"/>
-      <c r="F37" s="336"/>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="336"/>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
-      <c r="S37" s="336"/>
-      <c r="T37" s="337"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
+      <c r="G37" s="266"/>
+      <c r="H37" s="266"/>
+      <c r="I37" s="266"/>
+      <c r="J37" s="266"/>
+      <c r="K37" s="266"/>
+      <c r="L37" s="266"/>
+      <c r="M37" s="266"/>
+      <c r="N37" s="266"/>
+      <c r="O37" s="266"/>
+      <c r="P37" s="266"/>
+      <c r="Q37" s="266"/>
+      <c r="R37" s="266"/>
+      <c r="S37" s="266"/>
+      <c r="T37" s="267"/>
     </row>
     <row r="38" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B38" s="338" t="s">
+      <c r="B38" s="337" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="339"/>
-      <c r="D38" s="339"/>
-      <c r="E38" s="339"/>
-      <c r="F38" s="339"/>
-      <c r="G38" s="339"/>
-      <c r="H38" s="339"/>
-      <c r="I38" s="339"/>
+      <c r="C38" s="338"/>
+      <c r="D38" s="338"/>
+      <c r="E38" s="338"/>
+      <c r="F38" s="338"/>
+      <c r="G38" s="338"/>
+      <c r="H38" s="338"/>
+      <c r="I38" s="338"/>
       <c r="J38" s="203" t="s">
         <v>165</v>
       </c>
@@ -3742,13 +3742,13 @@
         <v>62</v>
       </c>
       <c r="L38" s="203"/>
-      <c r="M38" s="341" t="s">
+      <c r="M38" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="341"/>
-      <c r="O38" s="341"/>
-      <c r="P38" s="341"/>
-      <c r="Q38" s="341"/>
+      <c r="N38" s="340"/>
+      <c r="O38" s="340"/>
+      <c r="P38" s="340"/>
+      <c r="Q38" s="340"/>
       <c r="R38" s="203" t="s">
         <v>165</v>
       </c>
@@ -3758,22 +3758,22 @@
       <c r="T38" s="69"/>
     </row>
     <row r="39" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B39" s="338"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="339"/>
-      <c r="E39" s="339"/>
-      <c r="F39" s="339"/>
-      <c r="G39" s="339"/>
-      <c r="H39" s="339"/>
-      <c r="I39" s="339"/>
+      <c r="B39" s="337"/>
+      <c r="C39" s="338"/>
+      <c r="D39" s="338"/>
+      <c r="E39" s="338"/>
+      <c r="F39" s="338"/>
+      <c r="G39" s="338"/>
+      <c r="H39" s="338"/>
+      <c r="I39" s="338"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="43"/>
-      <c r="M39" s="341"/>
-      <c r="N39" s="341"/>
-      <c r="O39" s="341"/>
-      <c r="P39" s="341"/>
-      <c r="Q39" s="341"/>
+      <c r="M39" s="340"/>
+      <c r="N39" s="340"/>
+      <c r="O39" s="340"/>
+      <c r="P39" s="340"/>
+      <c r="Q39" s="340"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="69"/>
@@ -3800,12 +3800,12 @@
       <c r="T40" s="69"/>
     </row>
     <row r="41" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B41" s="323" t="s">
+      <c r="B41" s="341" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="324"/>
-      <c r="D41" s="324"/>
-      <c r="E41" s="324"/>
+      <c r="C41" s="342"/>
+      <c r="D41" s="342"/>
+      <c r="E41" s="342"/>
       <c r="F41" s="233"/>
       <c r="G41" s="233"/>
       <c r="H41" s="46"/>
@@ -3836,12 +3836,12 @@
       <c r="J42" s="208"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="340"/>
-      <c r="N42" s="340"/>
-      <c r="O42" s="340"/>
-      <c r="P42" s="340"/>
-      <c r="Q42" s="340"/>
-      <c r="R42" s="340"/>
+      <c r="M42" s="339"/>
+      <c r="N42" s="339"/>
+      <c r="O42" s="339"/>
+      <c r="P42" s="339"/>
+      <c r="Q42" s="339"/>
+      <c r="R42" s="339"/>
       <c r="S42" s="213"/>
       <c r="T42" s="75"/>
     </row>
@@ -3854,19 +3854,19 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="179"/>
-      <c r="H43" s="342" t="s">
+      <c r="H43" s="343" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
-      <c r="K43" s="342"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="343"/>
       <c r="L43" s="214"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="344"/>
-      <c r="O43" s="344"/>
-      <c r="P43" s="344"/>
-      <c r="Q43" s="344"/>
-      <c r="R43" s="345"/>
+      <c r="M43" s="344"/>
+      <c r="N43" s="345"/>
+      <c r="O43" s="345"/>
+      <c r="P43" s="345"/>
+      <c r="Q43" s="345"/>
+      <c r="R43" s="346"/>
       <c r="S43" s="6"/>
       <c r="T43" s="73"/>
     </row>
@@ -3877,17 +3877,17 @@
       <c r="E44" s="203"/>
       <c r="F44" s="203"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="342"/>
-      <c r="I44" s="342"/>
-      <c r="J44" s="342"/>
-      <c r="K44" s="342"/>
+      <c r="H44" s="343"/>
+      <c r="I44" s="343"/>
+      <c r="J44" s="343"/>
+      <c r="K44" s="343"/>
       <c r="L44" s="214"/>
-      <c r="M44" s="346"/>
-      <c r="N44" s="347"/>
-      <c r="O44" s="347"/>
-      <c r="P44" s="347"/>
-      <c r="Q44" s="347"/>
-      <c r="R44" s="348"/>
+      <c r="M44" s="347"/>
+      <c r="N44" s="348"/>
+      <c r="O44" s="348"/>
+      <c r="P44" s="348"/>
+      <c r="Q44" s="348"/>
+      <c r="R44" s="349"/>
       <c r="S44" s="6"/>
       <c r="T44" s="73"/>
     </row>
@@ -3895,52 +3895,52 @@
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="203"/>
-      <c r="E45" s="326" t="s">
+      <c r="E45" s="359" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="326"/>
+      <c r="F45" s="359"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="325"/>
-      <c r="N45" s="325"/>
-      <c r="O45" s="325"/>
-      <c r="P45" s="325"/>
-      <c r="Q45" s="325"/>
-      <c r="R45" s="325"/>
+      <c r="M45" s="326"/>
+      <c r="N45" s="326"/>
+      <c r="O45" s="326"/>
+      <c r="P45" s="326"/>
+      <c r="Q45" s="326"/>
+      <c r="R45" s="326"/>
       <c r="S45" s="6"/>
       <c r="T45" s="73"/>
     </row>
     <row r="46" spans="2:20" ht="21" customHeight="1">
-      <c r="B46" s="308" t="s">
+      <c r="B46" s="355" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="309"/>
-      <c r="D46" s="309"/>
-      <c r="E46" s="310"/>
-      <c r="F46" s="310"/>
+      <c r="C46" s="356"/>
+      <c r="D46" s="356"/>
+      <c r="E46" s="274"/>
+      <c r="F46" s="274"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="325"/>
-      <c r="N46" s="325"/>
-      <c r="O46" s="325"/>
-      <c r="P46" s="325"/>
-      <c r="Q46" s="325"/>
-      <c r="R46" s="325"/>
+      <c r="M46" s="326"/>
+      <c r="N46" s="326"/>
+      <c r="O46" s="326"/>
+      <c r="P46" s="326"/>
+      <c r="Q46" s="326"/>
+      <c r="R46" s="326"/>
       <c r="S46" s="6"/>
       <c r="T46" s="73"/>
     </row>
     <row r="47" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B47" s="329"/>
-      <c r="C47" s="330"/>
-      <c r="D47" s="330"/>
+      <c r="B47" s="331"/>
+      <c r="C47" s="332"/>
+      <c r="D47" s="332"/>
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
       <c r="G47" s="46"/>
@@ -3974,10 +3974,10 @@
       <c r="J48" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="370" t="s">
+      <c r="K48" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="370"/>
+      <c r="L48" s="299"/>
       <c r="M48" s="164"/>
       <c r="N48" s="164"/>
       <c r="O48" s="41"/>
@@ -3999,8 +3999,8 @@
       <c r="H49" s="31"/>
       <c r="I49" s="39"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="320"/>
-      <c r="L49" s="320"/>
+      <c r="K49" s="357"/>
+      <c r="L49" s="357"/>
       <c r="M49" s="14"/>
       <c r="N49" s="41"/>
       <c r="O49" s="14"/>
@@ -4060,8 +4060,8 @@
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="167"/>
-      <c r="G52" s="331"/>
-      <c r="H52" s="331"/>
+      <c r="G52" s="333"/>
+      <c r="H52" s="333"/>
       <c r="I52" s="205" t="s">
         <v>94</v>
       </c>
@@ -4170,11 +4170,11 @@
       <c r="T56" s="69"/>
     </row>
     <row r="57" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B57" s="321" t="s">
+      <c r="B57" s="358" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="322"/>
-      <c r="D57" s="322"/>
+      <c r="C57" s="302"/>
+      <c r="D57" s="302"/>
       <c r="E57" s="218"/>
       <c r="F57" s="205"/>
       <c r="G57" s="31"/>
@@ -4237,10 +4237,10 @@
       <c r="N59" s="225"/>
       <c r="O59" s="32"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="373" t="s">
+      <c r="Q59" s="303" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="373"/>
+      <c r="R59" s="303"/>
       <c r="S59" s="31"/>
       <c r="T59" s="69"/>
     </row>
@@ -4256,10 +4256,10 @@
       <c r="J60" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="364"/>
-      <c r="L60" s="365"/>
-      <c r="M60" s="365"/>
-      <c r="N60" s="366"/>
+      <c r="K60" s="292"/>
+      <c r="L60" s="293"/>
+      <c r="M60" s="293"/>
+      <c r="N60" s="294"/>
       <c r="O60" s="32"/>
       <c r="P60" s="32" t="s">
         <v>112</v>
@@ -4291,18 +4291,18 @@
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B62" s="327" t="s">
+      <c r="B62" s="329" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="328"/>
-      <c r="D62" s="328"/>
-      <c r="E62" s="328"/>
-      <c r="F62" s="328"/>
-      <c r="G62" s="328"/>
-      <c r="H62" s="328"/>
-      <c r="I62" s="328"/>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
+      <c r="C62" s="330"/>
+      <c r="D62" s="330"/>
+      <c r="E62" s="330"/>
+      <c r="F62" s="330"/>
+      <c r="G62" s="330"/>
+      <c r="H62" s="330"/>
+      <c r="I62" s="330"/>
+      <c r="J62" s="330"/>
+      <c r="K62" s="330"/>
       <c r="L62" s="209"/>
       <c r="M62" s="177"/>
       <c r="N62" s="208"/>
@@ -4314,16 +4314,16 @@
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:20" ht="24" customHeight="1">
-      <c r="B63" s="327"/>
-      <c r="C63" s="328"/>
-      <c r="D63" s="328"/>
-      <c r="E63" s="328"/>
-      <c r="F63" s="328"/>
-      <c r="G63" s="328"/>
-      <c r="H63" s="328"/>
-      <c r="I63" s="328"/>
-      <c r="J63" s="328"/>
-      <c r="K63" s="328"/>
+      <c r="B63" s="329"/>
+      <c r="C63" s="330"/>
+      <c r="D63" s="330"/>
+      <c r="E63" s="330"/>
+      <c r="F63" s="330"/>
+      <c r="G63" s="330"/>
+      <c r="H63" s="330"/>
+      <c r="I63" s="330"/>
+      <c r="J63" s="330"/>
+      <c r="K63" s="330"/>
       <c r="L63" s="209"/>
       <c r="M63" s="170"/>
       <c r="N63" s="170"/>
@@ -4335,36 +4335,36 @@
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:20" ht="37.5" customHeight="1">
-      <c r="B64" s="323" t="s">
+      <c r="B64" s="341" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="324"/>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="259" t="s">
+      <c r="C64" s="342"/>
+      <c r="D64" s="342"/>
+      <c r="E64" s="342"/>
+      <c r="F64" s="317" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="259"/>
-      <c r="H64" s="260" t="s">
+      <c r="G64" s="317"/>
+      <c r="H64" s="318" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="260"/>
-      <c r="J64" s="260"/>
-      <c r="K64" s="260" t="s">
+      <c r="I64" s="318"/>
+      <c r="J64" s="318"/>
+      <c r="K64" s="318" t="s">
         <v>190</v>
       </c>
-      <c r="L64" s="260"/>
-      <c r="M64" s="259"/>
-      <c r="N64" s="259"/>
-      <c r="O64" s="311" t="s">
+      <c r="L64" s="318"/>
+      <c r="M64" s="317"/>
+      <c r="N64" s="317"/>
+      <c r="O64" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="312"/>
-      <c r="Q64" s="313"/>
-      <c r="R64" s="311" t="s">
+      <c r="P64" s="324"/>
+      <c r="Q64" s="325"/>
+      <c r="R64" s="323" t="s">
         <v>188</v>
       </c>
-      <c r="S64" s="313"/>
+      <c r="S64" s="325"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="2:20" ht="31.5" customHeight="1">
@@ -4372,20 +4372,20 @@
       <c r="C65" s="207"/>
       <c r="D65" s="207"/>
       <c r="E65" s="207"/>
-      <c r="F65" s="259"/>
-      <c r="G65" s="259"/>
-      <c r="H65" s="260"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="260"/>
-      <c r="K65" s="259"/>
-      <c r="L65" s="259"/>
-      <c r="M65" s="259"/>
-      <c r="N65" s="259"/>
-      <c r="O65" s="311"/>
-      <c r="P65" s="312"/>
-      <c r="Q65" s="313"/>
-      <c r="R65" s="311"/>
-      <c r="S65" s="313"/>
+      <c r="F65" s="317"/>
+      <c r="G65" s="317"/>
+      <c r="H65" s="318"/>
+      <c r="I65" s="318"/>
+      <c r="J65" s="318"/>
+      <c r="K65" s="317"/>
+      <c r="L65" s="317"/>
+      <c r="M65" s="317"/>
+      <c r="N65" s="317"/>
+      <c r="O65" s="323"/>
+      <c r="P65" s="324"/>
+      <c r="Q65" s="325"/>
+      <c r="R65" s="323"/>
+      <c r="S65" s="325"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="2:20" ht="27.75" customHeight="1">
@@ -4393,20 +4393,20 @@
       <c r="C66" s="207"/>
       <c r="D66" s="207"/>
       <c r="E66" s="207"/>
-      <c r="F66" s="259"/>
-      <c r="G66" s="259"/>
-      <c r="H66" s="260"/>
-      <c r="I66" s="260"/>
-      <c r="J66" s="260"/>
-      <c r="K66" s="259"/>
-      <c r="L66" s="259"/>
-      <c r="M66" s="259"/>
-      <c r="N66" s="259"/>
-      <c r="O66" s="311"/>
-      <c r="P66" s="312"/>
-      <c r="Q66" s="313"/>
-      <c r="R66" s="311"/>
-      <c r="S66" s="313"/>
+      <c r="F66" s="317"/>
+      <c r="G66" s="317"/>
+      <c r="H66" s="318"/>
+      <c r="I66" s="318"/>
+      <c r="J66" s="318"/>
+      <c r="K66" s="317"/>
+      <c r="L66" s="317"/>
+      <c r="M66" s="317"/>
+      <c r="N66" s="317"/>
+      <c r="O66" s="323"/>
+      <c r="P66" s="324"/>
+      <c r="Q66" s="325"/>
+      <c r="R66" s="323"/>
+      <c r="S66" s="325"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="2:20" ht="27.75" customHeight="1">
@@ -4414,20 +4414,20 @@
       <c r="C67" s="83"/>
       <c r="D67" s="83"/>
       <c r="E67" s="83"/>
-      <c r="F67" s="259"/>
-      <c r="G67" s="259"/>
-      <c r="H67" s="260"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="260"/>
-      <c r="K67" s="259"/>
-      <c r="L67" s="259"/>
-      <c r="M67" s="259"/>
-      <c r="N67" s="259"/>
-      <c r="O67" s="311"/>
-      <c r="P67" s="312"/>
-      <c r="Q67" s="313"/>
-      <c r="R67" s="311"/>
-      <c r="S67" s="313"/>
+      <c r="F67" s="317"/>
+      <c r="G67" s="317"/>
+      <c r="H67" s="318"/>
+      <c r="I67" s="318"/>
+      <c r="J67" s="318"/>
+      <c r="K67" s="317"/>
+      <c r="L67" s="317"/>
+      <c r="M67" s="317"/>
+      <c r="N67" s="317"/>
+      <c r="O67" s="323"/>
+      <c r="P67" s="324"/>
+      <c r="Q67" s="325"/>
+      <c r="R67" s="323"/>
+      <c r="S67" s="325"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="2:20" ht="27.75" customHeight="1">
@@ -4435,20 +4435,20 @@
       <c r="C68" s="83"/>
       <c r="D68" s="83"/>
       <c r="E68" s="83"/>
-      <c r="F68" s="259"/>
-      <c r="G68" s="259"/>
-      <c r="H68" s="260"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
-      <c r="K68" s="259"/>
-      <c r="L68" s="259"/>
-      <c r="M68" s="259"/>
-      <c r="N68" s="259"/>
-      <c r="O68" s="311"/>
-      <c r="P68" s="312"/>
-      <c r="Q68" s="313"/>
-      <c r="R68" s="311"/>
-      <c r="S68" s="313"/>
+      <c r="F68" s="317"/>
+      <c r="G68" s="317"/>
+      <c r="H68" s="318"/>
+      <c r="I68" s="318"/>
+      <c r="J68" s="318"/>
+      <c r="K68" s="317"/>
+      <c r="L68" s="317"/>
+      <c r="M68" s="317"/>
+      <c r="N68" s="317"/>
+      <c r="O68" s="323"/>
+      <c r="P68" s="324"/>
+      <c r="Q68" s="325"/>
+      <c r="R68" s="323"/>
+      <c r="S68" s="325"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="2:20" ht="27.75" customHeight="1">
@@ -4456,20 +4456,20 @@
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
       <c r="E69" s="83"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="260"/>
-      <c r="I69" s="260"/>
-      <c r="J69" s="260"/>
-      <c r="K69" s="259"/>
-      <c r="L69" s="259"/>
-      <c r="M69" s="259"/>
-      <c r="N69" s="259"/>
-      <c r="O69" s="311"/>
-      <c r="P69" s="312"/>
-      <c r="Q69" s="313"/>
-      <c r="R69" s="311"/>
-      <c r="S69" s="313"/>
+      <c r="F69" s="317"/>
+      <c r="G69" s="317"/>
+      <c r="H69" s="318"/>
+      <c r="I69" s="318"/>
+      <c r="J69" s="318"/>
+      <c r="K69" s="317"/>
+      <c r="L69" s="317"/>
+      <c r="M69" s="317"/>
+      <c r="N69" s="317"/>
+      <c r="O69" s="323"/>
+      <c r="P69" s="324"/>
+      <c r="Q69" s="325"/>
+      <c r="R69" s="323"/>
+      <c r="S69" s="325"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="2:20" ht="11.25" customHeight="1">
@@ -4544,21 +4544,21 @@
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="2:20" ht="27" customHeight="1">
-      <c r="B73" s="367" t="s">
+      <c r="B73" s="295" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="353"/>
-      <c r="D73" s="353"/>
-      <c r="E73" s="353"/>
-      <c r="F73" s="353"/>
-      <c r="G73" s="353"/>
-      <c r="H73" s="353"/>
-      <c r="I73" s="353"/>
-      <c r="J73" s="353"/>
-      <c r="K73" s="353"/>
-      <c r="L73" s="353"/>
-      <c r="M73" s="353"/>
-      <c r="N73" s="353"/>
+      <c r="C73" s="296"/>
+      <c r="D73" s="296"/>
+      <c r="E73" s="296"/>
+      <c r="F73" s="296"/>
+      <c r="G73" s="296"/>
+      <c r="H73" s="296"/>
+      <c r="I73" s="296"/>
+      <c r="J73" s="296"/>
+      <c r="K73" s="296"/>
+      <c r="L73" s="296"/>
+      <c r="M73" s="296"/>
+      <c r="N73" s="296"/>
       <c r="O73" s="203" t="s">
         <v>165</v>
       </c>
@@ -4573,21 +4573,21 @@
       <c r="T73" s="84"/>
     </row>
     <row r="74" spans="2:20" s="44" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B74" s="368" t="s">
+      <c r="B74" s="297" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="369"/>
-      <c r="D74" s="369"/>
-      <c r="E74" s="369"/>
-      <c r="F74" s="369"/>
-      <c r="G74" s="369"/>
-      <c r="H74" s="369"/>
-      <c r="I74" s="369"/>
-      <c r="J74" s="369"/>
-      <c r="K74" s="369"/>
-      <c r="L74" s="369"/>
-      <c r="M74" s="369"/>
-      <c r="N74" s="369"/>
+      <c r="C74" s="298"/>
+      <c r="D74" s="298"/>
+      <c r="E74" s="298"/>
+      <c r="F74" s="298"/>
+      <c r="G74" s="298"/>
+      <c r="H74" s="298"/>
+      <c r="I74" s="298"/>
+      <c r="J74" s="298"/>
+      <c r="K74" s="298"/>
+      <c r="L74" s="298"/>
+      <c r="M74" s="298"/>
+      <c r="N74" s="298"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="41"/>
@@ -4596,17 +4596,17 @@
       <c r="T74" s="85"/>
     </row>
     <row r="75" spans="2:20" s="44" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B75" s="371" t="s">
+      <c r="B75" s="300" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="372"/>
-      <c r="D75" s="372"/>
-      <c r="E75" s="372"/>
-      <c r="F75" s="372"/>
-      <c r="G75" s="372"/>
-      <c r="H75" s="372"/>
-      <c r="I75" s="372"/>
-      <c r="J75" s="372"/>
+      <c r="C75" s="301"/>
+      <c r="D75" s="301"/>
+      <c r="E75" s="301"/>
+      <c r="F75" s="301"/>
+      <c r="G75" s="301"/>
+      <c r="H75" s="301"/>
+      <c r="I75" s="301"/>
+      <c r="J75" s="301"/>
       <c r="K75" s="247"/>
       <c r="L75" s="247"/>
       <c r="M75" s="208" t="s">
@@ -4618,20 +4618,20 @@
       <c r="O75" s="247"/>
       <c r="P75" s="247"/>
       <c r="Q75" s="41"/>
-      <c r="R75" s="362"/>
-      <c r="S75" s="362"/>
-      <c r="T75" s="363"/>
+      <c r="R75" s="290"/>
+      <c r="S75" s="290"/>
+      <c r="T75" s="291"/>
     </row>
     <row r="76" spans="2:20" ht="30" customHeight="1">
-      <c r="B76" s="371"/>
-      <c r="C76" s="372"/>
-      <c r="D76" s="372"/>
-      <c r="E76" s="372"/>
-      <c r="F76" s="372"/>
-      <c r="G76" s="372"/>
-      <c r="H76" s="372"/>
-      <c r="I76" s="372"/>
-      <c r="J76" s="372"/>
+      <c r="B76" s="300"/>
+      <c r="C76" s="301"/>
+      <c r="D76" s="301"/>
+      <c r="E76" s="301"/>
+      <c r="F76" s="301"/>
+      <c r="G76" s="301"/>
+      <c r="H76" s="301"/>
+      <c r="I76" s="301"/>
+      <c r="J76" s="301"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="39"/>
@@ -4686,36 +4686,36 @@
       <c r="T78" s="215"/>
     </row>
     <row r="79" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B79" s="335" t="s">
+      <c r="B79" s="265" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="336"/>
-      <c r="D79" s="336"/>
-      <c r="E79" s="336"/>
-      <c r="F79" s="336"/>
-      <c r="G79" s="336"/>
-      <c r="H79" s="336"/>
-      <c r="I79" s="336"/>
-      <c r="J79" s="336"/>
-      <c r="K79" s="336"/>
-      <c r="L79" s="336"/>
-      <c r="M79" s="336"/>
-      <c r="N79" s="336"/>
-      <c r="O79" s="336"/>
-      <c r="P79" s="336"/>
-      <c r="Q79" s="336"/>
-      <c r="R79" s="336"/>
-      <c r="S79" s="336"/>
-      <c r="T79" s="337"/>
+      <c r="C79" s="266"/>
+      <c r="D79" s="266"/>
+      <c r="E79" s="266"/>
+      <c r="F79" s="266"/>
+      <c r="G79" s="266"/>
+      <c r="H79" s="266"/>
+      <c r="I79" s="266"/>
+      <c r="J79" s="266"/>
+      <c r="K79" s="266"/>
+      <c r="L79" s="266"/>
+      <c r="M79" s="266"/>
+      <c r="N79" s="266"/>
+      <c r="O79" s="266"/>
+      <c r="P79" s="266"/>
+      <c r="Q79" s="266"/>
+      <c r="R79" s="266"/>
+      <c r="S79" s="266"/>
+      <c r="T79" s="267"/>
     </row>
     <row r="80" spans="2:20" ht="27.75" customHeight="1">
       <c r="B80" s="146"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147"/>
-      <c r="E80" s="359" t="s">
+      <c r="E80" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="359"/>
+      <c r="F80" s="305"/>
       <c r="G80" s="147"/>
       <c r="H80" s="147"/>
       <c r="I80" s="147"/>
@@ -4737,8 +4737,8 @@
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="377"/>
-      <c r="F81" s="378"/>
+      <c r="E81" s="312"/>
+      <c r="F81" s="313"/>
       <c r="G81" s="197"/>
       <c r="H81" s="147"/>
       <c r="I81" s="147"/>
@@ -4767,10 +4767,10 @@
       <c r="K82" s="147"/>
       <c r="L82" s="147"/>
       <c r="M82" s="147"/>
-      <c r="N82" s="360" t="s">
+      <c r="N82" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="360"/>
+      <c r="O82" s="306"/>
       <c r="P82" s="25"/>
       <c r="Q82" s="25"/>
       <c r="R82" s="197" t="s">
@@ -4844,8 +4844,8 @@
       <c r="C85" s="25"/>
       <c r="D85" s="143"/>
       <c r="E85" s="143"/>
-      <c r="F85" s="281"/>
-      <c r="G85" s="281"/>
+      <c r="F85" s="309"/>
+      <c r="G85" s="309"/>
       <c r="H85" s="25" t="s">
         <v>6</v>
       </c>
@@ -5114,9 +5114,9 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
       <c r="Q95" s="25"/>
-      <c r="R95" s="281"/>
-      <c r="S95" s="281"/>
-      <c r="T95" s="289"/>
+      <c r="R95" s="309"/>
+      <c r="S95" s="309"/>
+      <c r="T95" s="316"/>
     </row>
     <row r="96" spans="2:20" s="18" customFormat="1" ht="25.5" customHeight="1">
       <c r="B96" s="115"/>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="I100" s="25"/>
       <c r="J100" s="26"/>
-      <c r="K100" s="359"/>
-      <c r="L100" s="359"/>
-      <c r="M100" s="359"/>
-      <c r="N100" s="359"/>
-      <c r="O100" s="359"/>
+      <c r="K100" s="305"/>
+      <c r="L100" s="305"/>
+      <c r="M100" s="305"/>
+      <c r="N100" s="305"/>
+      <c r="O100" s="305"/>
       <c r="P100" s="25"/>
       <c r="Q100" s="25"/>
       <c r="R100" s="26"/>
@@ -5257,7 +5257,7 @@
       <c r="T101" s="245"/>
       <c r="Y101" s="20"/>
     </row>
-    <row r="102" spans="2:25" ht="20.25">
+    <row r="102" spans="2:25" ht="20">
       <c r="B102" s="93"/>
       <c r="C102" s="94"/>
       <c r="D102" s="94"/>
@@ -5280,7 +5280,7 @@
       <c r="S102" s="94"/>
       <c r="T102" s="97"/>
     </row>
-    <row r="103" spans="2:25" ht="19.5">
+    <row r="103" spans="2:25" ht="19">
       <c r="B103" s="149"/>
       <c r="C103" s="150"/>
       <c r="D103" s="150"/>
@@ -5301,21 +5301,21 @@
       <c r="S103" s="150"/>
       <c r="T103" s="151"/>
     </row>
-    <row r="104" spans="2:25" ht="18.75">
+    <row r="104" spans="2:25" ht="19">
       <c r="B104" s="98" t="s">
         <v>59</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
-      <c r="E104" s="278"/>
-      <c r="F104" s="279"/>
-      <c r="G104" s="280"/>
+      <c r="E104" s="307"/>
+      <c r="F104" s="314"/>
+      <c r="G104" s="308"/>
       <c r="H104" s="228"/>
-      <c r="I104" s="353" t="s">
+      <c r="I104" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="353"/>
-      <c r="K104" s="353"/>
+      <c r="J104" s="296"/>
+      <c r="K104" s="296"/>
       <c r="L104" s="216"/>
       <c r="M104" s="228" t="s">
         <v>60</v>
@@ -5330,7 +5330,7 @@
       <c r="S104" s="197"/>
       <c r="T104" s="59"/>
     </row>
-    <row r="105" spans="2:25" ht="18.75">
+    <row r="105" spans="2:25" ht="19">
       <c r="B105" s="98"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -5351,15 +5351,15 @@
       <c r="S105" s="25"/>
       <c r="T105" s="59"/>
     </row>
-    <row r="106" spans="2:25" ht="19.5">
+    <row r="106" spans="2:25" ht="19">
       <c r="B106" s="98" t="s">
         <v>54</v>
       </c>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="62"/>
-      <c r="F106" s="278"/>
-      <c r="G106" s="280"/>
+      <c r="F106" s="307"/>
+      <c r="G106" s="308"/>
       <c r="H106" s="25" t="s">
         <v>3</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="S106" s="141"/>
       <c r="T106" s="59"/>
     </row>
-    <row r="107" spans="2:25" ht="18.75">
+    <row r="107" spans="2:25" ht="19">
       <c r="B107" s="98"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
@@ -5405,7 +5405,7 @@
       <c r="S107" s="25"/>
       <c r="T107" s="59"/>
     </row>
-    <row r="108" spans="2:25" ht="19.5">
+    <row r="108" spans="2:25" ht="19">
       <c r="B108" s="98"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
@@ -5434,7 +5434,7 @@
       <c r="S108" s="25"/>
       <c r="T108" s="59"/>
     </row>
-    <row r="109" spans="2:25" ht="19.5">
+    <row r="109" spans="2:25" ht="19">
       <c r="B109" s="98"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
@@ -5442,15 +5442,15 @@
       <c r="F109" s="228"/>
       <c r="G109" s="25"/>
       <c r="H109" s="228"/>
-      <c r="I109" s="276" t="s">
+      <c r="I109" s="315" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="276"/>
-      <c r="K109" s="276"/>
-      <c r="L109" s="276"/>
-      <c r="M109" s="276"/>
-      <c r="N109" s="276"/>
-      <c r="O109" s="276"/>
+      <c r="J109" s="315"/>
+      <c r="K109" s="315"/>
+      <c r="L109" s="315"/>
+      <c r="M109" s="315"/>
+      <c r="N109" s="315"/>
+      <c r="O109" s="315"/>
       <c r="P109" s="216" t="s">
         <v>81</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="T109" s="140"/>
     </row>
-    <row r="110" spans="2:25" ht="19.5">
+    <row r="110" spans="2:25" ht="19">
       <c r="B110" s="98"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
@@ -5484,7 +5484,7 @@
       <c r="S110" s="220"/>
       <c r="T110" s="140"/>
     </row>
-    <row r="111" spans="2:25" ht="19.5">
+    <row r="111" spans="2:25" ht="19">
       <c r="B111" s="98"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="T111" s="140"/>
     </row>
-    <row r="112" spans="2:25" ht="18.75">
+    <row r="112" spans="2:25" ht="19">
       <c r="B112" s="98"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -5532,7 +5532,7 @@
       <c r="S112" s="28"/>
       <c r="T112" s="59"/>
     </row>
-    <row r="113" spans="2:20" ht="18.75">
+    <row r="113" spans="2:20" ht="19">
       <c r="B113" s="98"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
@@ -5553,36 +5553,36 @@
       <c r="S113" s="25"/>
       <c r="T113" s="59"/>
     </row>
-    <row r="114" spans="2:20" ht="20.25">
-      <c r="B114" s="335" t="s">
+    <row r="114" spans="2:20" ht="20">
+      <c r="B114" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="336"/>
-      <c r="D114" s="336"/>
-      <c r="E114" s="336"/>
-      <c r="F114" s="336"/>
-      <c r="G114" s="336"/>
-      <c r="H114" s="336"/>
-      <c r="I114" s="336"/>
-      <c r="J114" s="336"/>
-      <c r="K114" s="336"/>
-      <c r="L114" s="336"/>
-      <c r="M114" s="336"/>
-      <c r="N114" s="336"/>
-      <c r="O114" s="336"/>
-      <c r="P114" s="336"/>
-      <c r="Q114" s="336"/>
-      <c r="R114" s="336"/>
-      <c r="S114" s="336"/>
-      <c r="T114" s="337"/>
-    </row>
-    <row r="115" spans="2:20" ht="19.5">
+      <c r="C114" s="266"/>
+      <c r="D114" s="266"/>
+      <c r="E114" s="266"/>
+      <c r="F114" s="266"/>
+      <c r="G114" s="266"/>
+      <c r="H114" s="266"/>
+      <c r="I114" s="266"/>
+      <c r="J114" s="266"/>
+      <c r="K114" s="266"/>
+      <c r="L114" s="266"/>
+      <c r="M114" s="266"/>
+      <c r="N114" s="266"/>
+      <c r="O114" s="266"/>
+      <c r="P114" s="266"/>
+      <c r="Q114" s="266"/>
+      <c r="R114" s="266"/>
+      <c r="S114" s="266"/>
+      <c r="T114" s="267"/>
+    </row>
+    <row r="115" spans="2:20" ht="19">
       <c r="B115" s="98"/>
-      <c r="C115" s="374"/>
-      <c r="D115" s="374"/>
-      <c r="E115" s="374"/>
-      <c r="F115" s="374"/>
-      <c r="G115" s="374"/>
+      <c r="C115" s="304"/>
+      <c r="D115" s="304"/>
+      <c r="E115" s="304"/>
+      <c r="F115" s="304"/>
+      <c r="G115" s="304"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
@@ -5592,10 +5592,10 @@
       <c r="L115" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="M115" s="359" t="s">
+      <c r="M115" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="359"/>
+      <c r="N115" s="305"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
       <c r="Q115" s="26"/>
@@ -5603,22 +5603,22 @@
       <c r="S115" s="25"/>
       <c r="T115" s="59"/>
     </row>
-    <row r="116" spans="2:20" ht="19.5">
+    <row r="116" spans="2:20" ht="19">
       <c r="B116" s="99"/>
-      <c r="C116" s="360" t="s">
+      <c r="C116" s="306" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="360"/>
-      <c r="E116" s="360"/>
-      <c r="F116" s="360"/>
-      <c r="G116" s="360"/>
-      <c r="H116" s="360"/>
+      <c r="D116" s="306"/>
+      <c r="E116" s="306"/>
+      <c r="F116" s="306"/>
+      <c r="G116" s="306"/>
+      <c r="H116" s="306"/>
       <c r="I116" s="100"/>
       <c r="J116" s="38"/>
       <c r="K116" s="220"/>
       <c r="L116" s="220"/>
-      <c r="M116" s="278"/>
-      <c r="N116" s="280"/>
+      <c r="M116" s="307"/>
+      <c r="N116" s="308"/>
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
       <c r="Q116" s="25"/>
@@ -5626,13 +5626,13 @@
       <c r="S116" s="25"/>
       <c r="T116" s="59"/>
     </row>
-    <row r="117" spans="2:20" ht="18.75">
+    <row r="117" spans="2:20" ht="19">
       <c r="B117" s="198"/>
-      <c r="C117" s="360"/>
-      <c r="D117" s="360"/>
-      <c r="E117" s="360"/>
-      <c r="F117" s="360"/>
-      <c r="G117" s="360"/>
+      <c r="C117" s="306"/>
+      <c r="D117" s="306"/>
+      <c r="E117" s="306"/>
+      <c r="F117" s="306"/>
+      <c r="G117" s="306"/>
       <c r="H117" s="197"/>
       <c r="I117" s="197"/>
       <c r="J117" s="197"/>
@@ -5647,7 +5647,7 @@
       <c r="S117" s="25"/>
       <c r="T117" s="59"/>
     </row>
-    <row r="118" spans="2:20" ht="18.75">
+    <row r="118" spans="2:20" ht="19">
       <c r="B118" s="198"/>
       <c r="C118" s="25" t="s">
         <v>176</v>
@@ -5655,26 +5655,26 @@
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
-      <c r="G118" s="281"/>
-      <c r="H118" s="281"/>
-      <c r="I118" s="375" t="s">
+      <c r="G118" s="309"/>
+      <c r="H118" s="309"/>
+      <c r="I118" s="310" t="s">
         <v>175</v>
       </c>
-      <c r="J118" s="375"/>
-      <c r="K118" s="375"/>
-      <c r="L118" s="375"/>
-      <c r="M118" s="375"/>
-      <c r="N118" s="375"/>
-      <c r="O118" s="376"/>
-      <c r="P118" s="356"/>
-      <c r="Q118" s="357"/>
-      <c r="R118" s="288" t="s">
+      <c r="J118" s="310"/>
+      <c r="K118" s="310"/>
+      <c r="L118" s="310"/>
+      <c r="M118" s="310"/>
+      <c r="N118" s="310"/>
+      <c r="O118" s="311"/>
+      <c r="P118" s="320"/>
+      <c r="Q118" s="321"/>
+      <c r="R118" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="S118" s="281"/>
+      <c r="S118" s="309"/>
       <c r="T118" s="59"/>
     </row>
-    <row r="119" spans="2:20" ht="19.5">
+    <row r="119" spans="2:20" ht="19">
       <c r="B119" s="198"/>
       <c r="C119" s="155" t="s">
         <v>177</v>
@@ -5697,7 +5697,7 @@
       <c r="S119" s="197"/>
       <c r="T119" s="59"/>
     </row>
-    <row r="120" spans="2:20" ht="18.75">
+    <row r="120" spans="2:20" ht="19">
       <c r="B120" s="198"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -5718,7 +5718,7 @@
       <c r="S120" s="197"/>
       <c r="T120" s="59"/>
     </row>
-    <row r="121" spans="2:20" ht="18.75">
+    <row r="121" spans="2:20" ht="19">
       <c r="B121" s="198"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25" t="s">
@@ -5745,7 +5745,7 @@
       <c r="S121" s="197"/>
       <c r="T121" s="59"/>
     </row>
-    <row r="122" spans="2:20" ht="18.75">
+    <row r="122" spans="2:20" ht="19">
       <c r="B122" s="198"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25" t="s">
@@ -5772,7 +5772,7 @@
       <c r="S122" s="197"/>
       <c r="T122" s="59"/>
     </row>
-    <row r="123" spans="2:20" ht="18.75">
+    <row r="123" spans="2:20" ht="19">
       <c r="B123" s="198"/>
       <c r="C123" s="25"/>
       <c r="D123" s="27" t="s">
@@ -5799,7 +5799,7 @@
       <c r="S123" s="197"/>
       <c r="T123" s="59"/>
     </row>
-    <row r="124" spans="2:20" ht="18.75">
+    <row r="124" spans="2:20" ht="19">
       <c r="B124" s="198"/>
       <c r="C124" s="101"/>
       <c r="D124" s="25" t="s">
@@ -5809,8 +5809,8 @@
       <c r="F124" s="126"/>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
-      <c r="I124" s="358"/>
-      <c r="J124" s="358"/>
+      <c r="I124" s="322"/>
+      <c r="J124" s="322"/>
       <c r="K124" s="108"/>
       <c r="L124" s="108"/>
       <c r="M124" s="108"/>
@@ -5822,7 +5822,7 @@
       <c r="S124" s="25"/>
       <c r="T124" s="59"/>
     </row>
-    <row r="125" spans="2:20" ht="18.75">
+    <row r="125" spans="2:20" ht="19">
       <c r="B125" s="198"/>
       <c r="C125" s="101"/>
       <c r="D125" s="25"/>
@@ -5838,10 +5838,10 @@
       <c r="L125" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="266" t="s">
+      <c r="M125" s="362" t="s">
         <v>83</v>
       </c>
-      <c r="N125" s="266"/>
+      <c r="N125" s="362"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
       <c r="Q125" s="31"/>
@@ -5849,7 +5849,7 @@
       <c r="S125" s="25"/>
       <c r="T125" s="59"/>
     </row>
-    <row r="126" spans="2:20" ht="19.5">
+    <row r="126" spans="2:20" ht="19">
       <c r="B126" s="99"/>
       <c r="C126" s="25" t="s">
         <v>115</v>
@@ -5863,8 +5863,8 @@
       <c r="J126" s="30"/>
       <c r="K126" s="128"/>
       <c r="L126" s="128"/>
-      <c r="M126" s="267"/>
-      <c r="N126" s="268"/>
+      <c r="M126" s="393"/>
+      <c r="N126" s="394"/>
       <c r="O126" s="14"/>
       <c r="P126" s="14"/>
       <c r="Q126" s="31"/>
@@ -5893,34 +5893,34 @@
       <c r="S127" s="31"/>
       <c r="T127" s="103"/>
     </row>
-    <row r="128" spans="2:20" ht="18.75">
+    <row r="128" spans="2:20" ht="19">
       <c r="B128" s="102"/>
-      <c r="C128" s="322" t="s">
+      <c r="C128" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="322"/>
-      <c r="E128" s="322"/>
-      <c r="F128" s="355"/>
-      <c r="G128" s="355"/>
+      <c r="D128" s="302"/>
+      <c r="E128" s="302"/>
+      <c r="F128" s="289"/>
+      <c r="G128" s="289"/>
       <c r="H128" s="104"/>
-      <c r="I128" s="269" t="s">
+      <c r="I128" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="J128" s="269"/>
-      <c r="K128" s="269"/>
-      <c r="L128" s="269"/>
-      <c r="M128" s="269"/>
-      <c r="N128" s="269"/>
-      <c r="O128" s="270"/>
-      <c r="P128" s="364"/>
-      <c r="Q128" s="366"/>
-      <c r="R128" s="354" t="s">
+      <c r="J128" s="363"/>
+      <c r="K128" s="363"/>
+      <c r="L128" s="363"/>
+      <c r="M128" s="363"/>
+      <c r="N128" s="363"/>
+      <c r="O128" s="364"/>
+      <c r="P128" s="292"/>
+      <c r="Q128" s="294"/>
+      <c r="R128" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="S128" s="355"/>
+      <c r="S128" s="289"/>
       <c r="T128" s="103"/>
     </row>
-    <row r="129" spans="2:20" ht="19.5">
+    <row r="129" spans="2:20" ht="19">
       <c r="B129" s="102"/>
       <c r="C129" s="157" t="s">
         <v>179</v>
@@ -5964,7 +5964,7 @@
       <c r="S130" s="218"/>
       <c r="T130" s="103"/>
     </row>
-    <row r="131" spans="2:20" ht="18.75">
+    <row r="131" spans="2:20" ht="19">
       <c r="B131" s="102"/>
       <c r="C131" s="218"/>
       <c r="D131" s="205" t="s">
@@ -5980,10 +5980,10 @@
       <c r="J131" s="129"/>
       <c r="K131" s="192"/>
       <c r="L131" s="192"/>
-      <c r="M131" s="266" t="s">
+      <c r="M131" s="362" t="s">
         <v>193</v>
       </c>
-      <c r="N131" s="266"/>
+      <c r="N131" s="362"/>
       <c r="O131" s="129"/>
       <c r="P131" s="227"/>
       <c r="Q131" s="227"/>
@@ -5991,7 +5991,7 @@
       <c r="S131" s="218"/>
       <c r="T131" s="103"/>
     </row>
-    <row r="132" spans="2:20" ht="18.75">
+    <row r="132" spans="2:20" ht="19">
       <c r="B132" s="102"/>
       <c r="C132" s="218"/>
       <c r="D132" s="205" t="s">
@@ -6007,10 +6007,10 @@
       <c r="J132" s="129"/>
       <c r="K132" s="192"/>
       <c r="L132" s="192"/>
-      <c r="M132" s="266" t="s">
+      <c r="M132" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="N132" s="266"/>
+      <c r="N132" s="362"/>
       <c r="O132" s="161"/>
       <c r="P132" s="162"/>
       <c r="Q132" s="162"/>
@@ -6018,7 +6018,7 @@
       <c r="S132" s="218"/>
       <c r="T132" s="103"/>
     </row>
-    <row r="133" spans="2:20" ht="18.75">
+    <row r="133" spans="2:20" ht="19">
       <c r="B133" s="102"/>
       <c r="C133" s="105"/>
       <c r="D133" s="205" t="s">
@@ -6041,7 +6041,7 @@
       <c r="S133" s="31"/>
       <c r="T133" s="103"/>
     </row>
-    <row r="134" spans="2:20" ht="18.75">
+    <row r="134" spans="2:20" ht="19">
       <c r="B134" s="102"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
@@ -6057,10 +6057,10 @@
       <c r="L134" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="271" t="s">
+      <c r="M134" s="395" t="s">
         <v>83</v>
       </c>
-      <c r="N134" s="271"/>
+      <c r="N134" s="395"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
       <c r="Q134" s="31"/>
@@ -6068,7 +6068,7 @@
       <c r="S134" s="31"/>
       <c r="T134" s="103"/>
     </row>
-    <row r="135" spans="2:20" ht="19.5">
+    <row r="135" spans="2:20" ht="19">
       <c r="B135" s="106"/>
       <c r="C135" s="25" t="s">
         <v>180</v>
@@ -6082,8 +6082,8 @@
       <c r="J135" s="31"/>
       <c r="K135" s="128"/>
       <c r="L135" s="128"/>
-      <c r="M135" s="263"/>
-      <c r="N135" s="265"/>
+      <c r="M135" s="390"/>
+      <c r="N135" s="392"/>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
       <c r="Q135" s="31"/>
@@ -6112,34 +6112,34 @@
       <c r="S136" s="30"/>
       <c r="T136" s="103"/>
     </row>
-    <row r="137" spans="2:20" ht="18.75">
+    <row r="137" spans="2:20" ht="19">
       <c r="B137" s="102"/>
-      <c r="C137" s="361" t="s">
+      <c r="C137" s="287" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="361"/>
-      <c r="E137" s="361"/>
-      <c r="F137" s="355"/>
-      <c r="G137" s="355"/>
+      <c r="D137" s="287"/>
+      <c r="E137" s="287"/>
+      <c r="F137" s="289"/>
+      <c r="G137" s="289"/>
       <c r="H137" s="104"/>
       <c r="I137" s="31"/>
-      <c r="J137" s="269" t="s">
+      <c r="J137" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="K137" s="269"/>
-      <c r="L137" s="269"/>
-      <c r="M137" s="269"/>
-      <c r="N137" s="269"/>
-      <c r="O137" s="270"/>
+      <c r="K137" s="363"/>
+      <c r="L137" s="363"/>
+      <c r="M137" s="363"/>
+      <c r="N137" s="363"/>
+      <c r="O137" s="364"/>
       <c r="P137" s="33"/>
       <c r="Q137" s="34"/>
-      <c r="R137" s="354" t="s">
+      <c r="R137" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="S137" s="355"/>
+      <c r="S137" s="289"/>
       <c r="T137" s="103"/>
     </row>
-    <row r="138" spans="2:20" ht="19.5">
+    <row r="138" spans="2:20" ht="19">
       <c r="B138" s="102"/>
       <c r="C138" s="158" t="s">
         <v>179</v>
@@ -6162,7 +6162,7 @@
       <c r="S138" s="218"/>
       <c r="T138" s="103"/>
     </row>
-    <row r="139" spans="2:20" ht="19.5">
+    <row r="139" spans="2:20" ht="19">
       <c r="B139" s="102"/>
       <c r="C139" s="158"/>
       <c r="D139" s="158"/>
@@ -6183,7 +6183,7 @@
       <c r="S139" s="218"/>
       <c r="T139" s="103"/>
     </row>
-    <row r="140" spans="2:20" ht="19.5">
+    <row r="140" spans="2:20" ht="19">
       <c r="B140" s="102"/>
       <c r="C140" s="158"/>
       <c r="D140" s="221" t="s">
@@ -6210,7 +6210,7 @@
       <c r="S140" s="218"/>
       <c r="T140" s="103"/>
     </row>
-    <row r="141" spans="2:20" ht="18.75">
+    <row r="141" spans="2:20" ht="19">
       <c r="B141" s="102"/>
       <c r="C141" s="221"/>
       <c r="D141" s="108" t="s">
@@ -6237,7 +6237,7 @@
       <c r="S141" s="30"/>
       <c r="T141" s="103"/>
     </row>
-    <row r="142" spans="2:20" ht="18.75">
+    <row r="142" spans="2:20" ht="19">
       <c r="B142" s="102"/>
       <c r="C142" s="221"/>
       <c r="D142" s="108" t="s">
@@ -6262,7 +6262,7 @@
       <c r="S142" s="30"/>
       <c r="T142" s="103"/>
     </row>
-    <row r="143" spans="2:20" ht="18.75">
+    <row r="143" spans="2:20" ht="19">
       <c r="B143" s="102"/>
       <c r="C143" s="221"/>
       <c r="D143" s="108" t="s">
@@ -6287,7 +6287,7 @@
       <c r="S143" s="30"/>
       <c r="T143" s="103"/>
     </row>
-    <row r="144" spans="2:20" ht="18.75">
+    <row r="144" spans="2:20" ht="19">
       <c r="B144" s="102"/>
       <c r="C144" s="221"/>
       <c r="D144" s="108" t="s">
@@ -6312,7 +6312,7 @@
       <c r="S144" s="30"/>
       <c r="T144" s="103"/>
     </row>
-    <row r="145" spans="2:20" ht="18.75">
+    <row r="145" spans="2:20" ht="19">
       <c r="B145" s="102"/>
       <c r="C145" s="221"/>
       <c r="D145" s="108" t="s">
@@ -6356,30 +6356,30 @@
       <c r="S146" s="25"/>
       <c r="T146" s="59"/>
     </row>
-    <row r="147" spans="2:20" ht="19.5">
-      <c r="B147" s="273" t="s">
+    <row r="147" spans="2:20" ht="19">
+      <c r="B147" s="374" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="274"/>
-      <c r="D147" s="274"/>
-      <c r="E147" s="274"/>
-      <c r="F147" s="274"/>
-      <c r="G147" s="274"/>
-      <c r="H147" s="274"/>
-      <c r="I147" s="274"/>
-      <c r="J147" s="274"/>
-      <c r="K147" s="274"/>
-      <c r="L147" s="274"/>
-      <c r="M147" s="274"/>
-      <c r="N147" s="274"/>
-      <c r="O147" s="274"/>
-      <c r="P147" s="274"/>
-      <c r="Q147" s="274"/>
-      <c r="R147" s="274"/>
-      <c r="S147" s="274"/>
-      <c r="T147" s="275"/>
-    </row>
-    <row r="148" spans="2:20" ht="18.75">
+      <c r="C147" s="375"/>
+      <c r="D147" s="375"/>
+      <c r="E147" s="375"/>
+      <c r="F147" s="375"/>
+      <c r="G147" s="375"/>
+      <c r="H147" s="375"/>
+      <c r="I147" s="375"/>
+      <c r="J147" s="375"/>
+      <c r="K147" s="375"/>
+      <c r="L147" s="375"/>
+      <c r="M147" s="375"/>
+      <c r="N147" s="375"/>
+      <c r="O147" s="375"/>
+      <c r="P147" s="375"/>
+      <c r="Q147" s="375"/>
+      <c r="R147" s="375"/>
+      <c r="S147" s="375"/>
+      <c r="T147" s="376"/>
+    </row>
+    <row r="148" spans="2:20" ht="19">
       <c r="B148" s="98"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
@@ -6404,7 +6404,7 @@
       <c r="S148" s="25"/>
       <c r="T148" s="59"/>
     </row>
-    <row r="149" spans="2:20" ht="18.75">
+    <row r="149" spans="2:20" ht="19">
       <c r="B149" s="98" t="s">
         <v>55</v>
       </c>
@@ -6420,12 +6420,12 @@
       <c r="J149" s="132"/>
       <c r="K149" s="132"/>
       <c r="L149" s="132"/>
-      <c r="M149" s="263"/>
-      <c r="N149" s="264"/>
-      <c r="O149" s="264"/>
-      <c r="P149" s="264"/>
-      <c r="Q149" s="264"/>
-      <c r="R149" s="265"/>
+      <c r="M149" s="390"/>
+      <c r="N149" s="391"/>
+      <c r="O149" s="391"/>
+      <c r="P149" s="391"/>
+      <c r="Q149" s="391"/>
+      <c r="R149" s="392"/>
       <c r="S149" s="25"/>
       <c r="T149" s="59"/>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="S150" s="25"/>
       <c r="T150" s="59"/>
     </row>
-    <row r="151" spans="2:20" ht="18.75">
+    <row r="151" spans="2:20" ht="19">
       <c r="B151" s="98"/>
       <c r="C151" s="25" t="s">
         <v>162</v>
@@ -6473,7 +6473,7 @@
       <c r="S151" s="25"/>
       <c r="T151" s="59"/>
     </row>
-    <row r="152" spans="2:20" ht="18.75">
+    <row r="152" spans="2:20" ht="19">
       <c r="B152" s="98"/>
       <c r="C152" s="127" t="s">
         <v>179</v>
@@ -6517,7 +6517,7 @@
       <c r="S153" s="25"/>
       <c r="T153" s="59"/>
     </row>
-    <row r="154" spans="2:20" ht="18.75">
+    <row r="154" spans="2:20" ht="19">
       <c r="B154" s="98"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25" t="s">
@@ -6542,7 +6542,7 @@
       <c r="S154" s="25"/>
       <c r="T154" s="59"/>
     </row>
-    <row r="155" spans="2:20" ht="18.75">
+    <row r="155" spans="2:20" ht="19">
       <c r="B155" s="98"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25" t="s">
@@ -6588,7 +6588,7 @@
       <c r="S156" s="25"/>
       <c r="T156" s="59"/>
     </row>
-    <row r="157" spans="2:20" ht="18.75">
+    <row r="157" spans="2:20" ht="19">
       <c r="B157" s="110" t="s">
         <v>56</v>
       </c>
@@ -6601,13 +6601,13 @@
       </c>
       <c r="H157" s="228"/>
       <c r="I157" s="111"/>
-      <c r="J157" s="276" t="s">
+      <c r="J157" s="315" t="s">
         <v>116</v>
       </c>
-      <c r="K157" s="276"/>
-      <c r="L157" s="276"/>
-      <c r="M157" s="276"/>
-      <c r="N157" s="277"/>
+      <c r="K157" s="315"/>
+      <c r="L157" s="315"/>
+      <c r="M157" s="315"/>
+      <c r="N157" s="396"/>
       <c r="O157" s="60"/>
       <c r="P157" s="61"/>
       <c r="Q157" s="25" t="s">
@@ -6638,7 +6638,7 @@
       <c r="S158" s="25"/>
       <c r="T158" s="59"/>
     </row>
-    <row r="159" spans="2:20" ht="18.75">
+    <row r="159" spans="2:20" ht="19">
       <c r="B159" s="110" t="s">
         <v>204</v>
       </c>
@@ -6650,11 +6650,11 @@
         <v>3</v>
       </c>
       <c r="H159" s="13"/>
-      <c r="I159" s="250" t="s">
+      <c r="I159" s="401" t="s">
         <v>200</v>
       </c>
-      <c r="J159" s="250"/>
-      <c r="K159" s="251"/>
+      <c r="J159" s="401"/>
+      <c r="K159" s="402"/>
       <c r="L159" s="47"/>
       <c r="M159" s="48"/>
       <c r="N159" s="228" t="s">
@@ -6690,28 +6690,28 @@
       <c r="S160" s="25"/>
       <c r="T160" s="59"/>
     </row>
-    <row r="161" spans="2:20" ht="19.5">
-      <c r="B161" s="273" t="s">
+    <row r="161" spans="2:20" ht="19">
+      <c r="B161" s="374" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="274"/>
-      <c r="D161" s="274"/>
-      <c r="E161" s="274"/>
-      <c r="F161" s="274"/>
-      <c r="G161" s="274"/>
-      <c r="H161" s="274"/>
-      <c r="I161" s="274"/>
-      <c r="J161" s="274"/>
-      <c r="K161" s="274"/>
-      <c r="L161" s="274"/>
-      <c r="M161" s="274"/>
-      <c r="N161" s="274"/>
-      <c r="O161" s="274"/>
-      <c r="P161" s="274"/>
-      <c r="Q161" s="274"/>
-      <c r="R161" s="274"/>
-      <c r="S161" s="274"/>
-      <c r="T161" s="275"/>
+      <c r="C161" s="375"/>
+      <c r="D161" s="375"/>
+      <c r="E161" s="375"/>
+      <c r="F161" s="375"/>
+      <c r="G161" s="375"/>
+      <c r="H161" s="375"/>
+      <c r="I161" s="375"/>
+      <c r="J161" s="375"/>
+      <c r="K161" s="375"/>
+      <c r="L161" s="375"/>
+      <c r="M161" s="375"/>
+      <c r="N161" s="375"/>
+      <c r="O161" s="375"/>
+      <c r="P161" s="375"/>
+      <c r="Q161" s="375"/>
+      <c r="R161" s="375"/>
+      <c r="S161" s="375"/>
+      <c r="T161" s="376"/>
     </row>
     <row r="162" spans="2:20" ht="9" customHeight="1">
       <c r="B162" s="98"/>
@@ -6734,14 +6734,14 @@
       <c r="S162" s="25"/>
       <c r="T162" s="59"/>
     </row>
-    <row r="163" spans="2:20" ht="18.75">
+    <row r="163" spans="2:20" ht="19">
       <c r="B163" s="98" t="s">
         <v>90</v>
       </c>
       <c r="C163" s="25"/>
-      <c r="D163" s="278"/>
-      <c r="E163" s="279"/>
-      <c r="F163" s="280"/>
+      <c r="D163" s="307"/>
+      <c r="E163" s="314"/>
+      <c r="F163" s="308"/>
       <c r="G163" s="25" t="s">
         <v>88</v>
       </c>
@@ -6761,10 +6761,10 @@
         <v>65</v>
       </c>
       <c r="Q163" s="62"/>
-      <c r="R163" s="281" t="s">
+      <c r="R163" s="309" t="s">
         <v>66</v>
       </c>
-      <c r="S163" s="281"/>
+      <c r="S163" s="309"/>
       <c r="T163" s="112"/>
     </row>
     <row r="164" spans="2:20" ht="12" customHeight="1">
@@ -6788,14 +6788,14 @@
       <c r="S164" s="197"/>
       <c r="T164" s="112"/>
     </row>
-    <row r="165" spans="2:20" ht="18.75">
+    <row r="165" spans="2:20" ht="19">
       <c r="B165" s="113" t="s">
         <v>46</v>
       </c>
       <c r="C165" s="114"/>
       <c r="D165" s="62"/>
-      <c r="E165" s="278"/>
-      <c r="F165" s="280"/>
+      <c r="E165" s="307"/>
+      <c r="F165" s="308"/>
       <c r="G165" s="228" t="s">
         <v>3</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="S166" s="25"/>
       <c r="T166" s="59"/>
     </row>
-    <row r="167" spans="2:20" ht="18.75">
+    <row r="167" spans="2:20" ht="19">
       <c r="B167" s="98" t="s">
         <v>48</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="S168" s="25"/>
       <c r="T168" s="59"/>
     </row>
-    <row r="169" spans="2:20" ht="18.75">
+    <row r="169" spans="2:20" ht="19">
       <c r="B169" s="98"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25" t="s">
@@ -6893,15 +6893,15 @@
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
       <c r="G169" s="25"/>
-      <c r="H169" s="278"/>
-      <c r="I169" s="280"/>
-      <c r="J169" s="288" t="s">
+      <c r="H169" s="307"/>
+      <c r="I169" s="308"/>
+      <c r="J169" s="319" t="s">
         <v>125</v>
       </c>
-      <c r="K169" s="281"/>
-      <c r="L169" s="281"/>
-      <c r="M169" s="281"/>
-      <c r="N169" s="289"/>
+      <c r="K169" s="309"/>
+      <c r="L169" s="309"/>
+      <c r="M169" s="309"/>
+      <c r="N169" s="316"/>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
       <c r="Q169" s="62"/>
@@ -6930,7 +6930,7 @@
       <c r="S170" s="25"/>
       <c r="T170" s="59"/>
     </row>
-    <row r="171" spans="2:20" ht="18.75">
+    <row r="171" spans="2:20" ht="19">
       <c r="B171" s="115"/>
       <c r="C171" s="26"/>
       <c r="D171" s="228" t="s">
@@ -6953,239 +6953,239 @@
       <c r="S171" s="26"/>
       <c r="T171" s="116"/>
     </row>
-    <row r="172" spans="2:20" ht="19.5">
-      <c r="B172" s="273" t="s">
+    <row r="172" spans="2:20" ht="19">
+      <c r="B172" s="374" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="274"/>
-      <c r="D172" s="274"/>
-      <c r="E172" s="274"/>
-      <c r="F172" s="274"/>
-      <c r="G172" s="274"/>
-      <c r="H172" s="274"/>
-      <c r="I172" s="274"/>
-      <c r="J172" s="274"/>
-      <c r="K172" s="274"/>
-      <c r="L172" s="274"/>
-      <c r="M172" s="274"/>
-      <c r="N172" s="274"/>
-      <c r="O172" s="274"/>
-      <c r="P172" s="274"/>
-      <c r="Q172" s="274"/>
-      <c r="R172" s="274"/>
-      <c r="S172" s="274"/>
-      <c r="T172" s="275"/>
-    </row>
-    <row r="173" spans="2:20" ht="18.75">
-      <c r="B173" s="290" t="s">
+      <c r="C172" s="375"/>
+      <c r="D172" s="375"/>
+      <c r="E172" s="375"/>
+      <c r="F172" s="375"/>
+      <c r="G172" s="375"/>
+      <c r="H172" s="375"/>
+      <c r="I172" s="375"/>
+      <c r="J172" s="375"/>
+      <c r="K172" s="375"/>
+      <c r="L172" s="375"/>
+      <c r="M172" s="375"/>
+      <c r="N172" s="375"/>
+      <c r="O172" s="375"/>
+      <c r="P172" s="375"/>
+      <c r="Q172" s="375"/>
+      <c r="R172" s="375"/>
+      <c r="S172" s="375"/>
+      <c r="T172" s="376"/>
+    </row>
+    <row r="173" spans="2:20" ht="19">
+      <c r="B173" s="365" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="291"/>
-      <c r="D173" s="291"/>
-      <c r="E173" s="292"/>
-      <c r="F173" s="294" t="s">
+      <c r="C173" s="366"/>
+      <c r="D173" s="366"/>
+      <c r="E173" s="367"/>
+      <c r="F173" s="371" t="s">
         <v>118</v>
       </c>
-      <c r="G173" s="296"/>
-      <c r="H173" s="303" t="s">
+      <c r="G173" s="373"/>
+      <c r="H173" s="383" t="s">
         <v>77</v>
       </c>
-      <c r="I173" s="252" t="s">
+      <c r="I173" s="385" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="253"/>
-      <c r="K173" s="252" t="s">
+      <c r="J173" s="387"/>
+      <c r="K173" s="385" t="s">
         <v>201</v>
       </c>
-      <c r="L173" s="253"/>
-      <c r="M173" s="252" t="s">
+      <c r="L173" s="387"/>
+      <c r="M173" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="N173" s="305"/>
-      <c r="O173" s="305"/>
-      <c r="P173" s="305"/>
-      <c r="Q173" s="253"/>
-      <c r="R173" s="297" t="s">
+      <c r="N173" s="386"/>
+      <c r="O173" s="386"/>
+      <c r="P173" s="386"/>
+      <c r="Q173" s="387"/>
+      <c r="R173" s="377" t="s">
         <v>123</v>
       </c>
-      <c r="S173" s="298"/>
-      <c r="T173" s="299"/>
-    </row>
-    <row r="174" spans="2:20" ht="18.75">
-      <c r="B174" s="254"/>
-      <c r="C174" s="293"/>
-      <c r="D174" s="293"/>
-      <c r="E174" s="255"/>
+      <c r="S173" s="378"/>
+      <c r="T173" s="379"/>
+    </row>
+    <row r="174" spans="2:20" ht="19">
+      <c r="B174" s="368"/>
+      <c r="C174" s="369"/>
+      <c r="D174" s="369"/>
+      <c r="E174" s="370"/>
       <c r="F174" s="124" t="s">
         <v>119</v>
       </c>
       <c r="G174" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="H174" s="304"/>
-      <c r="I174" s="254"/>
-      <c r="J174" s="255"/>
-      <c r="K174" s="254"/>
-      <c r="L174" s="255"/>
-      <c r="M174" s="254"/>
-      <c r="N174" s="293"/>
-      <c r="O174" s="293"/>
-      <c r="P174" s="293"/>
-      <c r="Q174" s="255"/>
-      <c r="R174" s="300"/>
-      <c r="S174" s="301"/>
-      <c r="T174" s="302"/>
-    </row>
-    <row r="175" spans="2:20" ht="19.5">
-      <c r="B175" s="294"/>
-      <c r="C175" s="295"/>
-      <c r="D175" s="295"/>
-      <c r="E175" s="296"/>
+      <c r="H174" s="384"/>
+      <c r="I174" s="368"/>
+      <c r="J174" s="370"/>
+      <c r="K174" s="368"/>
+      <c r="L174" s="370"/>
+      <c r="M174" s="368"/>
+      <c r="N174" s="369"/>
+      <c r="O174" s="369"/>
+      <c r="P174" s="369"/>
+      <c r="Q174" s="370"/>
+      <c r="R174" s="380"/>
+      <c r="S174" s="381"/>
+      <c r="T174" s="382"/>
+    </row>
+    <row r="175" spans="2:20" ht="19">
+      <c r="B175" s="371"/>
+      <c r="C175" s="372"/>
+      <c r="D175" s="372"/>
+      <c r="E175" s="373"/>
       <c r="F175" s="63"/>
       <c r="G175" s="64"/>
       <c r="H175" s="200"/>
       <c r="I175" s="187"/>
       <c r="J175" s="188"/>
-      <c r="K175" s="256"/>
-      <c r="L175" s="257"/>
-      <c r="M175" s="306"/>
-      <c r="N175" s="306"/>
-      <c r="O175" s="306"/>
-      <c r="P175" s="306"/>
-      <c r="Q175" s="306"/>
-      <c r="R175" s="256"/>
-      <c r="S175" s="272"/>
-      <c r="T175" s="257"/>
-    </row>
-    <row r="176" spans="2:20" ht="19.5">
-      <c r="B176" s="256"/>
-      <c r="C176" s="272"/>
-      <c r="D176" s="272"/>
-      <c r="E176" s="257"/>
+      <c r="K175" s="350"/>
+      <c r="L175" s="352"/>
+      <c r="M175" s="353"/>
+      <c r="N175" s="353"/>
+      <c r="O175" s="353"/>
+      <c r="P175" s="353"/>
+      <c r="Q175" s="353"/>
+      <c r="R175" s="350"/>
+      <c r="S175" s="351"/>
+      <c r="T175" s="352"/>
+    </row>
+    <row r="176" spans="2:20" ht="19">
+      <c r="B176" s="350"/>
+      <c r="C176" s="351"/>
+      <c r="D176" s="351"/>
+      <c r="E176" s="352"/>
       <c r="F176" s="200"/>
       <c r="G176" s="200"/>
       <c r="H176" s="200"/>
       <c r="I176" s="187"/>
       <c r="J176" s="188"/>
-      <c r="K176" s="256"/>
-      <c r="L176" s="257"/>
-      <c r="M176" s="256"/>
-      <c r="N176" s="272"/>
-      <c r="O176" s="272"/>
-      <c r="P176" s="272"/>
-      <c r="Q176" s="257"/>
-      <c r="R176" s="256"/>
-      <c r="S176" s="272"/>
-      <c r="T176" s="257"/>
-    </row>
-    <row r="177" spans="2:20" ht="19.5">
-      <c r="B177" s="256"/>
-      <c r="C177" s="272"/>
-      <c r="D177" s="272"/>
-      <c r="E177" s="257"/>
+      <c r="K176" s="350"/>
+      <c r="L176" s="352"/>
+      <c r="M176" s="350"/>
+      <c r="N176" s="351"/>
+      <c r="O176" s="351"/>
+      <c r="P176" s="351"/>
+      <c r="Q176" s="352"/>
+      <c r="R176" s="350"/>
+      <c r="S176" s="351"/>
+      <c r="T176" s="352"/>
+    </row>
+    <row r="177" spans="2:20" ht="19">
+      <c r="B177" s="350"/>
+      <c r="C177" s="351"/>
+      <c r="D177" s="351"/>
+      <c r="E177" s="352"/>
       <c r="F177" s="200"/>
       <c r="G177" s="200"/>
       <c r="H177" s="200"/>
       <c r="I177" s="187"/>
       <c r="J177" s="188"/>
-      <c r="K177" s="256"/>
-      <c r="L177" s="257"/>
-      <c r="M177" s="256"/>
-      <c r="N177" s="272"/>
-      <c r="O177" s="272"/>
-      <c r="P177" s="272"/>
-      <c r="Q177" s="257"/>
-      <c r="R177" s="256"/>
-      <c r="S177" s="272"/>
-      <c r="T177" s="257"/>
-    </row>
-    <row r="178" spans="2:20" ht="19.5">
-      <c r="B178" s="256"/>
-      <c r="C178" s="272"/>
-      <c r="D178" s="272"/>
-      <c r="E178" s="257"/>
+      <c r="K177" s="350"/>
+      <c r="L177" s="352"/>
+      <c r="M177" s="350"/>
+      <c r="N177" s="351"/>
+      <c r="O177" s="351"/>
+      <c r="P177" s="351"/>
+      <c r="Q177" s="352"/>
+      <c r="R177" s="350"/>
+      <c r="S177" s="351"/>
+      <c r="T177" s="352"/>
+    </row>
+    <row r="178" spans="2:20" ht="19">
+      <c r="B178" s="350"/>
+      <c r="C178" s="351"/>
+      <c r="D178" s="351"/>
+      <c r="E178" s="352"/>
       <c r="F178" s="200"/>
       <c r="G178" s="200"/>
       <c r="H178" s="200"/>
       <c r="I178" s="187"/>
       <c r="J178" s="188"/>
-      <c r="K178" s="256"/>
-      <c r="L178" s="257"/>
-      <c r="M178" s="256"/>
-      <c r="N178" s="272"/>
-      <c r="O178" s="272"/>
-      <c r="P178" s="272"/>
-      <c r="Q178" s="257"/>
-      <c r="R178" s="256"/>
-      <c r="S178" s="272"/>
-      <c r="T178" s="257"/>
-    </row>
-    <row r="179" spans="2:20" ht="19.5">
-      <c r="B179" s="256"/>
-      <c r="C179" s="272"/>
-      <c r="D179" s="272"/>
-      <c r="E179" s="257"/>
+      <c r="K178" s="350"/>
+      <c r="L178" s="352"/>
+      <c r="M178" s="350"/>
+      <c r="N178" s="351"/>
+      <c r="O178" s="351"/>
+      <c r="P178" s="351"/>
+      <c r="Q178" s="352"/>
+      <c r="R178" s="350"/>
+      <c r="S178" s="351"/>
+      <c r="T178" s="352"/>
+    </row>
+    <row r="179" spans="2:20" ht="19">
+      <c r="B179" s="350"/>
+      <c r="C179" s="351"/>
+      <c r="D179" s="351"/>
+      <c r="E179" s="352"/>
       <c r="F179" s="200"/>
       <c r="G179" s="200"/>
       <c r="H179" s="200"/>
       <c r="I179" s="187"/>
       <c r="J179" s="188"/>
-      <c r="K179" s="256"/>
-      <c r="L179" s="257"/>
-      <c r="M179" s="256"/>
-      <c r="N179" s="272"/>
-      <c r="O179" s="272"/>
-      <c r="P179" s="272"/>
-      <c r="Q179" s="257"/>
-      <c r="R179" s="256"/>
-      <c r="S179" s="272"/>
-      <c r="T179" s="257"/>
-    </row>
-    <row r="180" spans="2:20" ht="19.5">
-      <c r="B180" s="256"/>
-      <c r="C180" s="272"/>
-      <c r="D180" s="272"/>
-      <c r="E180" s="257"/>
+      <c r="K179" s="350"/>
+      <c r="L179" s="352"/>
+      <c r="M179" s="350"/>
+      <c r="N179" s="351"/>
+      <c r="O179" s="351"/>
+      <c r="P179" s="351"/>
+      <c r="Q179" s="352"/>
+      <c r="R179" s="350"/>
+      <c r="S179" s="351"/>
+      <c r="T179" s="352"/>
+    </row>
+    <row r="180" spans="2:20" ht="19">
+      <c r="B180" s="350"/>
+      <c r="C180" s="351"/>
+      <c r="D180" s="351"/>
+      <c r="E180" s="352"/>
       <c r="F180" s="200"/>
       <c r="G180" s="200"/>
       <c r="H180" s="200"/>
       <c r="I180" s="187"/>
       <c r="J180" s="188"/>
-      <c r="K180" s="256"/>
-      <c r="L180" s="257"/>
-      <c r="M180" s="306"/>
-      <c r="N180" s="306"/>
-      <c r="O180" s="306"/>
-      <c r="P180" s="306"/>
-      <c r="Q180" s="306"/>
-      <c r="R180" s="256"/>
-      <c r="S180" s="272"/>
-      <c r="T180" s="257"/>
-    </row>
-    <row r="181" spans="2:20" ht="18">
-      <c r="B181" s="282" t="s">
+      <c r="K180" s="350"/>
+      <c r="L180" s="352"/>
+      <c r="M180" s="353"/>
+      <c r="N180" s="353"/>
+      <c r="O180" s="353"/>
+      <c r="P180" s="353"/>
+      <c r="Q180" s="353"/>
+      <c r="R180" s="350"/>
+      <c r="S180" s="351"/>
+      <c r="T180" s="352"/>
+    </row>
+    <row r="181" spans="2:20" ht="17.5">
+      <c r="B181" s="397" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="283"/>
-      <c r="D181" s="283"/>
-      <c r="E181" s="283"/>
-      <c r="F181" s="283"/>
-      <c r="G181" s="283"/>
-      <c r="H181" s="283"/>
-      <c r="I181" s="283"/>
-      <c r="J181" s="283"/>
-      <c r="K181" s="283"/>
-      <c r="L181" s="283"/>
-      <c r="M181" s="283"/>
-      <c r="N181" s="283"/>
-      <c r="O181" s="283"/>
-      <c r="P181" s="283"/>
-      <c r="Q181" s="283"/>
-      <c r="R181" s="283"/>
-      <c r="S181" s="283"/>
-      <c r="T181" s="284"/>
-    </row>
-    <row r="182" spans="2:20" ht="18">
+      <c r="C181" s="398"/>
+      <c r="D181" s="398"/>
+      <c r="E181" s="398"/>
+      <c r="F181" s="398"/>
+      <c r="G181" s="398"/>
+      <c r="H181" s="398"/>
+      <c r="I181" s="398"/>
+      <c r="J181" s="398"/>
+      <c r="K181" s="398"/>
+      <c r="L181" s="398"/>
+      <c r="M181" s="398"/>
+      <c r="N181" s="398"/>
+      <c r="O181" s="398"/>
+      <c r="P181" s="398"/>
+      <c r="Q181" s="398"/>
+      <c r="R181" s="398"/>
+      <c r="S181" s="398"/>
+      <c r="T181" s="399"/>
+    </row>
+    <row r="182" spans="2:20" ht="17.5">
       <c r="B182" s="135" t="s">
         <v>182</v>
       </c>
@@ -7229,14 +7229,14 @@
       <c r="S183" s="136"/>
       <c r="T183" s="137"/>
     </row>
-    <row r="184" spans="2:20" ht="20.25">
+    <row r="184" spans="2:20" ht="20">
       <c r="B184" s="66"/>
-      <c r="C184" s="285" t="s">
+      <c r="C184" s="400" t="s">
         <v>67</v>
       </c>
-      <c r="D184" s="285"/>
-      <c r="E184" s="285"/>
-      <c r="F184" s="285"/>
+      <c r="D184" s="400"/>
+      <c r="E184" s="400"/>
+      <c r="F184" s="400"/>
       <c r="G184" s="14"/>
       <c r="H184" s="13"/>
       <c r="I184" s="90" t="s">
@@ -7256,22 +7256,22 @@
     </row>
     <row r="185" spans="2:20" ht="26.25" customHeight="1">
       <c r="B185" s="66"/>
-      <c r="C185" s="262"/>
-      <c r="D185" s="262"/>
-      <c r="E185" s="262"/>
-      <c r="F185" s="262"/>
+      <c r="C185" s="389"/>
+      <c r="D185" s="389"/>
+      <c r="E185" s="389"/>
+      <c r="F185" s="389"/>
       <c r="G185" s="14"/>
       <c r="H185" s="13"/>
-      <c r="I185" s="262"/>
-      <c r="J185" s="262"/>
-      <c r="K185" s="262"/>
-      <c r="L185" s="262"/>
-      <c r="M185" s="262"/>
-      <c r="N185" s="286" t="s">
+      <c r="I185" s="389"/>
+      <c r="J185" s="389"/>
+      <c r="K185" s="389"/>
+      <c r="L185" s="389"/>
+      <c r="M185" s="389"/>
+      <c r="N185" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="286"/>
-      <c r="P185" s="287"/>
+      <c r="O185" s="360"/>
+      <c r="P185" s="361"/>
       <c r="Q185" s="4"/>
       <c r="R185" s="5"/>
       <c r="S185" s="201" t="s">
@@ -7281,17 +7281,17 @@
     </row>
     <row r="186" spans="2:20" ht="28.5" customHeight="1">
       <c r="B186" s="66"/>
-      <c r="C186" s="258"/>
-      <c r="D186" s="258"/>
-      <c r="E186" s="258"/>
-      <c r="F186" s="258"/>
+      <c r="C186" s="285"/>
+      <c r="D186" s="285"/>
+      <c r="E186" s="285"/>
+      <c r="F186" s="285"/>
       <c r="G186" s="14"/>
       <c r="H186" s="13"/>
-      <c r="I186" s="258"/>
-      <c r="J186" s="258"/>
-      <c r="K186" s="258"/>
-      <c r="L186" s="258"/>
-      <c r="M186" s="258"/>
+      <c r="I186" s="285"/>
+      <c r="J186" s="285"/>
+      <c r="K186" s="285"/>
+      <c r="L186" s="285"/>
+      <c r="M186" s="285"/>
       <c r="N186" s="14"/>
       <c r="O186" s="117"/>
       <c r="P186" s="117"/>
@@ -7308,13 +7308,13 @@
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="13"/>
-      <c r="I187" s="261" t="s">
+      <c r="I187" s="388" t="s">
         <v>183</v>
       </c>
-      <c r="J187" s="261"/>
-      <c r="K187" s="261"/>
-      <c r="L187" s="261"/>
-      <c r="M187" s="261"/>
+      <c r="J187" s="388"/>
+      <c r="K187" s="388"/>
+      <c r="L187" s="388"/>
+      <c r="M187" s="388"/>
       <c r="N187" s="14"/>
       <c r="O187" s="117"/>
       <c r="P187" s="117"/>
@@ -7331,11 +7331,11 @@
       <c r="F188" s="14"/>
       <c r="G188" s="54"/>
       <c r="H188" s="54"/>
-      <c r="I188" s="262"/>
-      <c r="J188" s="262"/>
-      <c r="K188" s="262"/>
-      <c r="L188" s="262"/>
-      <c r="M188" s="262"/>
+      <c r="I188" s="389"/>
+      <c r="J188" s="389"/>
+      <c r="K188" s="389"/>
+      <c r="L188" s="389"/>
+      <c r="M188" s="389"/>
       <c r="N188" s="54"/>
       <c r="O188" s="54"/>
       <c r="P188" s="117"/>
@@ -7344,7 +7344,7 @@
       <c r="S188" s="14"/>
       <c r="T188" s="67"/>
     </row>
-    <row r="189" spans="2:20" ht="15">
+    <row r="189" spans="2:20" ht="14.5">
       <c r="B189" s="118"/>
       <c r="C189" s="119"/>
       <c r="D189" s="119"/>
@@ -7367,6 +7367,176 @@
     </row>
   </sheetData>
   <mergeCells count="194">
+    <mergeCell ref="I159:K159"/>
+    <mergeCell ref="K173:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="M149:R149"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B147:T147"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="B161:T161"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="J137:O137"/>
+    <mergeCell ref="B173:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B172:T172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="R173:T174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="M173:Q174"/>
+    <mergeCell ref="I173:J174"/>
+    <mergeCell ref="R175:T175"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="R178:T178"/>
+    <mergeCell ref="R179:T179"/>
+    <mergeCell ref="R180:T180"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:I39"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M38:Q39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="M43:R44"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="B114:T114"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B75:J76"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:O118"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E104:G104"/>
     <mergeCell ref="B5:T5"/>
     <mergeCell ref="M18:O19"/>
     <mergeCell ref="N16:S16"/>
@@ -7391,176 +7561,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B75:J76"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:O118"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="B79:T79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I109:O109"/>
-    <mergeCell ref="B114:T114"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B37:T37"/>
-    <mergeCell ref="B38:I39"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M38:Q39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="M43:R44"/>
-    <mergeCell ref="R179:T179"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="M175:Q175"/>
-    <mergeCell ref="M180:Q180"/>
-    <mergeCell ref="M178:Q178"/>
-    <mergeCell ref="M177:Q177"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="M176:Q176"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="J137:O137"/>
-    <mergeCell ref="B173:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B172:T172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="R173:T174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="M173:Q174"/>
-    <mergeCell ref="I173:J174"/>
-    <mergeCell ref="R175:T175"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="R178:T178"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="M149:R149"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B147:T147"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="B161:T161"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="I159:K159"/>
-    <mergeCell ref="K173:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="I186:M186"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Formatos/Estudio_de_caso_nCOV_2020.xlsx
+++ b/Formatos/Estudio_de_caso_nCOV_2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosNET2020\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\source\repos\OneProject.Medical.Forms\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003AE375-3CB9-487D-9715-428C4D27DFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237FE0E-3F04-4497-B7F8-EB098EE61734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QUWXMaeGjuUt4zZYobJ34740iStqnl0RVGXUprJ17ILmK1kNCmObGDVVeU06GYkJRAcZKQIy0ExsOiQwMD2ezw==" workbookSaltValue="nXkPjPfGI4aEBZ1SH2jd/A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1732,43 +1732,451 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,414 +2187,6 @@
     </xf>
     <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2693,7 +2693,7 @@
   <dimension ref="B1:Y189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B161" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M180" sqref="M180:Q180"/>
+      <selection activeCell="B178" sqref="B178:E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2804,78 +2804,78 @@
       <c r="T4" s="45"/>
     </row>
     <row r="5" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
-      <c r="T5" s="359"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="214"/>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="315"/>
-      <c r="N6" s="315"/>
-      <c r="O6" s="315"/>
-      <c r="P6" s="315"/>
-      <c r="Q6" s="315"/>
-      <c r="R6" s="315"/>
-      <c r="S6" s="315"/>
-      <c r="T6" s="316"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="224"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
       <c r="B7" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="201"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="350"/>
+      <c r="E7" s="236"/>
       <c r="F7" s="201"/>
-      <c r="G7" s="351" t="s">
+      <c r="G7" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="350"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="354"/>
-      <c r="K7" s="350" t="s">
+      <c r="H7" s="236"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="350"/>
-      <c r="M7" s="350"/>
-      <c r="N7" s="350"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
       <c r="O7" s="101"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="348"/>
-      <c r="R7" s="348"/>
-      <c r="S7" s="240"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
       <c r="T7" s="47"/>
     </row>
     <row r="8" spans="2:20" ht="9" customHeight="1">
@@ -2903,21 +2903,21 @@
       <c r="B9" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="240"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="36"/>
       <c r="G9" s="184" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="348"/>
-      <c r="O9" s="240"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="234"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
@@ -2925,27 +2925,27 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="2:20" ht="28.5" customHeight="1">
-      <c r="B10" s="314" t="s">
+      <c r="B10" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="315"/>
-      <c r="K10" s="315"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="315"/>
-      <c r="N10" s="315"/>
-      <c r="O10" s="315"/>
-      <c r="P10" s="315"/>
-      <c r="Q10" s="315"/>
-      <c r="R10" s="315"/>
-      <c r="S10" s="315"/>
-      <c r="T10" s="316"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="223"/>
+      <c r="T10" s="224"/>
     </row>
     <row r="11" spans="2:20" ht="24.75" customHeight="1">
       <c r="B11" s="189" t="s">
@@ -2953,9 +2953,9 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="356"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2974,10 +2974,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="349" t="s">
+      <c r="E12" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="349"/>
+      <c r="F12" s="235"/>
       <c r="G12" s="157"/>
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
@@ -3015,32 +3015,32 @@
       <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B14" s="302" t="s">
+      <c r="B14" s="228" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="303"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="216" t="s">
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="225" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="273"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="302" t="s">
+      <c r="F14" s="226"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="303"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="273"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="302" t="s">
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="273"/>
-      <c r="S14" s="217"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="227"/>
       <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" ht="9.75" customHeight="1">
@@ -3089,12 +3089,12 @@
       <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="222"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="224"/>
+      <c r="N16" s="216"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="217"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="218"/>
       <c r="T16" s="49"/>
     </row>
     <row r="17" spans="2:20" ht="9.75" customHeight="1">
@@ -3119,66 +3119,66 @@
       <c r="T17" s="49"/>
     </row>
     <row r="18" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B18" s="362" t="s">
+      <c r="B18" s="220" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="148"/>
-      <c r="E18" s="363" t="s">
+      <c r="E18" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="360"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="360" t="s">
+      <c r="I18" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="360"/>
+      <c r="J18" s="215"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="360" t="s">
+      <c r="M18" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="360"/>
-      <c r="O18" s="360"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
       <c r="P18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="Q18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="361" t="s">
+      <c r="R18" s="219" t="s">
         <v>166</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" ht="23.25" customHeight="1">
-      <c r="B19" s="362"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="148"/>
-      <c r="E19" s="363"/>
-      <c r="F19" s="360"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="215"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="360"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
       <c r="K19" s="148"/>
       <c r="L19" s="162"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="360"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
       <c r="P19" s="148"/>
       <c r="Q19" s="148"/>
-      <c r="R19" s="361"/>
+      <c r="R19" s="219"/>
       <c r="S19" s="148"/>
       <c r="T19" s="51"/>
     </row>
@@ -3214,24 +3214,24 @@
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="222"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="308" t="s">
+      <c r="F21" s="216"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="283" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="310"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="224"/>
+      <c r="I21" s="296"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="218"/>
       <c r="L21" s="162"/>
       <c r="M21" s="145"/>
-      <c r="N21" s="355" t="s">
+      <c r="N21" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="355"/>
-      <c r="P21" s="355"/>
-      <c r="Q21" s="355"/>
-      <c r="R21" s="220"/>
-      <c r="S21" s="221"/>
+      <c r="O21" s="243"/>
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243"/>
+      <c r="R21" s="320"/>
+      <c r="S21" s="321"/>
       <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" ht="14.25" customHeight="1">
@@ -3256,14 +3256,14 @@
       <c r="T22" s="51"/>
     </row>
     <row r="23" spans="2:20" ht="30.75" customHeight="1">
-      <c r="B23" s="317" t="s">
+      <c r="B23" s="280" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="318"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3" t="s">
         <v>106</v>
@@ -3273,12 +3273,12 @@
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="269"/>
-      <c r="P23" s="352"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="323"/>
-      <c r="S23" s="323"/>
-      <c r="T23" s="324"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="288"/>
+      <c r="S23" s="288"/>
+      <c r="T23" s="289"/>
     </row>
     <row r="24" spans="2:20" s="14" customFormat="1" ht="9.75" customHeight="1">
       <c r="B24" s="164"/>
@@ -3307,9 +3307,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="296"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3317,10 +3317,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="296"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="296"/>
+      <c r="M25" s="290"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="290"/>
+      <c r="P25" s="290"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3353,25 +3353,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="217"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="227"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="217"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="227"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="303" t="s">
+      <c r="P27" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="304"/>
-      <c r="R27" s="216"/>
-      <c r="S27" s="217"/>
+      <c r="Q27" s="230"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="227"/>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="2:20" ht="11.25" customHeight="1">
@@ -3401,23 +3401,23 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="273"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="273"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="302" t="s">
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="303"/>
-      <c r="M29" s="304"/>
-      <c r="N29" s="216"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="273"/>
-      <c r="S29" s="217"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="227"/>
       <c r="T29" s="49"/>
     </row>
     <row r="30" spans="2:20" s="14" customFormat="1" ht="11.25" customHeight="1">
@@ -3447,25 +3447,25 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="217"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="227"/>
       <c r="H31" s="155"/>
       <c r="I31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="216"/>
-      <c r="K31" s="217"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="227"/>
       <c r="L31" s="157"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="303" t="s">
+      <c r="N31" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="304"/>
-      <c r="P31" s="347"/>
-      <c r="Q31" s="347"/>
-      <c r="R31" s="347"/>
-      <c r="S31" s="347"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
       <c r="T31" s="49"/>
     </row>
     <row r="32" spans="2:20" ht="24.75" customHeight="1">
@@ -3506,14 +3506,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
-      <c r="H33" s="302" t="s">
+      <c r="H33" s="228" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="303"/>
-      <c r="J33" s="303"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="303"/>
-      <c r="M33" s="304"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="230"/>
       <c r="N33" s="156"/>
       <c r="O33" s="156"/>
       <c r="P33" s="3"/>
@@ -3573,10 +3573,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="296"/>
-      <c r="F36" s="296"/>
-      <c r="G36" s="296"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
       <c r="H36" s="54"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -3594,39 +3594,39 @@
       <c r="T36" s="56"/>
     </row>
     <row r="37" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B37" s="314" t="s">
+      <c r="B37" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="315"/>
-      <c r="D37" s="315"/>
-      <c r="E37" s="315"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="315"/>
-      <c r="J37" s="315"/>
-      <c r="K37" s="315"/>
-      <c r="L37" s="315"/>
-      <c r="M37" s="315"/>
-      <c r="N37" s="315"/>
-      <c r="O37" s="315"/>
-      <c r="P37" s="315"/>
-      <c r="Q37" s="315"/>
-      <c r="R37" s="315"/>
-      <c r="S37" s="315"/>
-      <c r="T37" s="316"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="223"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="223"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="223"/>
+      <c r="K37" s="223"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223"/>
+      <c r="O37" s="223"/>
+      <c r="P37" s="223"/>
+      <c r="Q37" s="223"/>
+      <c r="R37" s="223"/>
+      <c r="S37" s="223"/>
+      <c r="T37" s="224"/>
     </row>
     <row r="38" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B38" s="320" t="s">
+      <c r="B38" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="285"/>
       <c r="J38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>62</v>
       </c>
       <c r="L38" s="157"/>
-      <c r="M38" s="322" t="s">
+      <c r="M38" s="287" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="322"/>
-      <c r="O38" s="322"/>
-      <c r="P38" s="322"/>
-      <c r="Q38" s="322"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="287"/>
+      <c r="P38" s="287"/>
+      <c r="Q38" s="287"/>
       <c r="R38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3650,22 +3650,22 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B39" s="320"/>
-      <c r="C39" s="321"/>
-      <c r="D39" s="321"/>
-      <c r="E39" s="321"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="321"/>
+      <c r="B39" s="284"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="285"/>
+      <c r="H39" s="285"/>
+      <c r="I39" s="285"/>
       <c r="J39" s="202"/>
       <c r="K39" s="202"/>
       <c r="L39" s="31"/>
-      <c r="M39" s="322"/>
-      <c r="N39" s="322"/>
-      <c r="O39" s="322"/>
-      <c r="P39" s="322"/>
-      <c r="Q39" s="322"/>
+      <c r="M39" s="287"/>
+      <c r="N39" s="287"/>
+      <c r="O39" s="287"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="R39" s="202"/>
       <c r="S39" s="202"/>
       <c r="T39" s="47"/>
@@ -3692,12 +3692,12 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="293" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="287"/>
+      <c r="C41" s="294"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="294"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
       <c r="H41" s="34"/>
@@ -3728,12 +3728,12 @@
       <c r="J42" s="162"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="288"/>
-      <c r="N42" s="288"/>
-      <c r="O42" s="288"/>
-      <c r="P42" s="288"/>
-      <c r="Q42" s="288"/>
-      <c r="R42" s="288"/>
+      <c r="M42" s="286"/>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
       <c r="S42" s="166"/>
       <c r="T42" s="53"/>
     </row>
@@ -3744,21 +3744,21 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="289" t="s">
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="305" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="289"/>
-      <c r="J43" s="289"/>
-      <c r="K43" s="289"/>
+      <c r="I43" s="305"/>
+      <c r="J43" s="305"/>
+      <c r="K43" s="305"/>
       <c r="L43" s="167"/>
-      <c r="M43" s="290"/>
-      <c r="N43" s="291"/>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291"/>
-      <c r="R43" s="292"/>
+      <c r="M43" s="306"/>
+      <c r="N43" s="307"/>
+      <c r="O43" s="307"/>
+      <c r="P43" s="307"/>
+      <c r="Q43" s="307"/>
+      <c r="R43" s="308"/>
       <c r="S43" s="4"/>
       <c r="T43" s="51"/>
     </row>
@@ -3769,17 +3769,17 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="289"/>
-      <c r="I44" s="289"/>
-      <c r="J44" s="289"/>
-      <c r="K44" s="289"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="305"/>
+      <c r="K44" s="305"/>
       <c r="L44" s="167"/>
-      <c r="M44" s="293"/>
-      <c r="N44" s="294"/>
-      <c r="O44" s="294"/>
-      <c r="P44" s="294"/>
-      <c r="Q44" s="294"/>
-      <c r="R44" s="295"/>
+      <c r="M44" s="309"/>
+      <c r="N44" s="310"/>
+      <c r="O44" s="310"/>
+      <c r="P44" s="310"/>
+      <c r="Q44" s="310"/>
+      <c r="R44" s="311"/>
       <c r="S44" s="4"/>
       <c r="T44" s="51"/>
     </row>
@@ -3787,52 +3787,52 @@
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="157"/>
-      <c r="E45" s="309" t="s">
+      <c r="E45" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="309"/>
+      <c r="F45" s="295"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="308"/>
-      <c r="N45" s="308"/>
-      <c r="O45" s="308"/>
-      <c r="P45" s="308"/>
-      <c r="Q45" s="308"/>
-      <c r="R45" s="308"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="283"/>
+      <c r="Q45" s="283"/>
+      <c r="R45" s="283"/>
       <c r="S45" s="4"/>
       <c r="T45" s="51"/>
     </row>
     <row r="46" spans="2:20" ht="21" customHeight="1">
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="301"/>
-      <c r="D46" s="301"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="296"/>
+      <c r="C46" s="313"/>
+      <c r="D46" s="313"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="308"/>
-      <c r="N46" s="308"/>
-      <c r="O46" s="308"/>
-      <c r="P46" s="308"/>
-      <c r="Q46" s="308"/>
-      <c r="R46" s="308"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
       <c r="S46" s="4"/>
       <c r="T46" s="51"/>
     </row>
     <row r="47" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B47" s="283"/>
-      <c r="C47" s="284"/>
-      <c r="D47" s="284"/>
+      <c r="B47" s="299"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="300"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -3866,10 +3866,10 @@
       <c r="J48" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="339" t="s">
+      <c r="K48" s="257" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="339"/>
+      <c r="L48" s="257"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="29"/>
@@ -3891,8 +3891,8 @@
       <c r="H49" s="25"/>
       <c r="I49" s="28"/>
       <c r="J49" s="204"/>
-      <c r="K49" s="305"/>
-      <c r="L49" s="305"/>
+      <c r="K49" s="291"/>
+      <c r="L49" s="291"/>
       <c r="M49" s="12"/>
       <c r="N49" s="29"/>
       <c r="O49" s="12"/>
@@ -3952,8 +3952,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
+      <c r="G52" s="268"/>
+      <c r="H52" s="268"/>
       <c r="I52" s="159" t="s">
         <v>94</v>
       </c>
@@ -4028,11 +4028,11 @@
       <c r="I55" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="222"/>
-      <c r="K55" s="223"/>
-      <c r="L55" s="223"/>
-      <c r="M55" s="223"/>
-      <c r="N55" s="224"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="217"/>
+      <c r="L55" s="217"/>
+      <c r="M55" s="217"/>
+      <c r="N55" s="218"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
@@ -4062,11 +4062,11 @@
       <c r="T56" s="47"/>
     </row>
     <row r="57" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B57" s="306" t="s">
+      <c r="B57" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="307"/>
-      <c r="D57" s="307"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
       <c r="E57" s="171"/>
       <c r="F57" s="159"/>
       <c r="G57" s="25"/>
@@ -4129,10 +4129,10 @@
       <c r="N59" s="176"/>
       <c r="O59" s="26"/>
       <c r="P59" s="24"/>
-      <c r="Q59" s="342" t="s">
+      <c r="Q59" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="342"/>
+      <c r="R59" s="261"/>
       <c r="S59" s="25"/>
       <c r="T59" s="47"/>
     </row>
@@ -4148,16 +4148,16 @@
       <c r="J60" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="214"/>
-      <c r="L60" s="335"/>
-      <c r="M60" s="335"/>
-      <c r="N60" s="215"/>
+      <c r="K60" s="250"/>
+      <c r="L60" s="251"/>
+      <c r="M60" s="251"/>
+      <c r="N60" s="252"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="Q60" s="214"/>
-      <c r="R60" s="215"/>
+      <c r="Q60" s="250"/>
+      <c r="R60" s="252"/>
       <c r="S60" s="25"/>
       <c r="T60" s="47"/>
     </row>
@@ -4183,18 +4183,18 @@
       <c r="T61" s="47"/>
     </row>
     <row r="62" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B62" s="311" t="s">
+      <c r="B62" s="297" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="312"/>
-      <c r="D62" s="312"/>
-      <c r="E62" s="312"/>
-      <c r="F62" s="312"/>
-      <c r="G62" s="312"/>
-      <c r="H62" s="312"/>
-      <c r="I62" s="312"/>
-      <c r="J62" s="312"/>
-      <c r="K62" s="312"/>
+      <c r="C62" s="298"/>
+      <c r="D62" s="298"/>
+      <c r="E62" s="298"/>
+      <c r="F62" s="298"/>
+      <c r="G62" s="298"/>
+      <c r="H62" s="298"/>
+      <c r="I62" s="298"/>
+      <c r="J62" s="298"/>
+      <c r="K62" s="298"/>
       <c r="L62" s="163"/>
       <c r="M62" s="138"/>
       <c r="N62" s="162"/>
@@ -4206,16 +4206,16 @@
       <c r="T62" s="47"/>
     </row>
     <row r="63" spans="2:20" ht="24" customHeight="1">
-      <c r="B63" s="311"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="312"/>
-      <c r="E63" s="312"/>
-      <c r="F63" s="312"/>
-      <c r="G63" s="312"/>
-      <c r="H63" s="312"/>
-      <c r="I63" s="312"/>
-      <c r="J63" s="312"/>
-      <c r="K63" s="312"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="298"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="298"/>
+      <c r="F63" s="298"/>
+      <c r="G63" s="298"/>
+      <c r="H63" s="298"/>
+      <c r="I63" s="298"/>
+      <c r="J63" s="298"/>
+      <c r="K63" s="298"/>
       <c r="L63" s="163"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
@@ -4227,36 +4227,36 @@
       <c r="T63" s="47"/>
     </row>
     <row r="64" spans="2:20" ht="37.5" customHeight="1">
-      <c r="B64" s="286" t="s">
+      <c r="B64" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="287"/>
-      <c r="D64" s="287"/>
-      <c r="E64" s="287"/>
-      <c r="F64" s="234" t="s">
+      <c r="C64" s="294"/>
+      <c r="D64" s="294"/>
+      <c r="E64" s="294"/>
+      <c r="F64" s="268" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="234"/>
-      <c r="H64" s="235" t="s">
+      <c r="G64" s="268"/>
+      <c r="H64" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="235"/>
-      <c r="J64" s="235"/>
-      <c r="K64" s="235" t="s">
+      <c r="I64" s="269"/>
+      <c r="J64" s="269"/>
+      <c r="K64" s="269" t="s">
         <v>190</v>
       </c>
-      <c r="L64" s="235"/>
-      <c r="M64" s="234"/>
-      <c r="N64" s="234"/>
-      <c r="O64" s="297" t="s">
+      <c r="L64" s="269"/>
+      <c r="M64" s="268"/>
+      <c r="N64" s="268"/>
+      <c r="O64" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="298"/>
-      <c r="Q64" s="299"/>
-      <c r="R64" s="297" t="s">
+      <c r="P64" s="275"/>
+      <c r="Q64" s="276"/>
+      <c r="R64" s="274" t="s">
         <v>188</v>
       </c>
-      <c r="S64" s="299"/>
+      <c r="S64" s="276"/>
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="31.5" customHeight="1">
@@ -4264,20 +4264,20 @@
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
       <c r="E65" s="161"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="235"/>
-      <c r="I65" s="235"/>
-      <c r="J65" s="235"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="234"/>
-      <c r="N65" s="234"/>
-      <c r="O65" s="297"/>
-      <c r="P65" s="298"/>
-      <c r="Q65" s="299"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="299"/>
+      <c r="F65" s="268"/>
+      <c r="G65" s="268"/>
+      <c r="H65" s="269"/>
+      <c r="I65" s="269"/>
+      <c r="J65" s="269"/>
+      <c r="K65" s="268"/>
+      <c r="L65" s="268"/>
+      <c r="M65" s="268"/>
+      <c r="N65" s="268"/>
+      <c r="O65" s="274"/>
+      <c r="P65" s="275"/>
+      <c r="Q65" s="276"/>
+      <c r="R65" s="274"/>
+      <c r="S65" s="276"/>
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="27.75" customHeight="1">
@@ -4285,20 +4285,20 @@
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
       <c r="E66" s="161"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="235"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="235"/>
-      <c r="K66" s="234"/>
-      <c r="L66" s="234"/>
-      <c r="M66" s="234"/>
-      <c r="N66" s="234"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="298"/>
-      <c r="Q66" s="299"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="299"/>
+      <c r="F66" s="268"/>
+      <c r="G66" s="268"/>
+      <c r="H66" s="269"/>
+      <c r="I66" s="269"/>
+      <c r="J66" s="269"/>
+      <c r="K66" s="268"/>
+      <c r="L66" s="268"/>
+      <c r="M66" s="268"/>
+      <c r="N66" s="268"/>
+      <c r="O66" s="274"/>
+      <c r="P66" s="275"/>
+      <c r="Q66" s="276"/>
+      <c r="R66" s="274"/>
+      <c r="S66" s="276"/>
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="27.75" customHeight="1">
@@ -4306,20 +4306,20 @@
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="235"/>
-      <c r="I67" s="235"/>
-      <c r="J67" s="235"/>
-      <c r="K67" s="234"/>
-      <c r="L67" s="234"/>
-      <c r="M67" s="234"/>
-      <c r="N67" s="234"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="298"/>
-      <c r="Q67" s="299"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="299"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="268"/>
+      <c r="H67" s="269"/>
+      <c r="I67" s="269"/>
+      <c r="J67" s="269"/>
+      <c r="K67" s="268"/>
+      <c r="L67" s="268"/>
+      <c r="M67" s="268"/>
+      <c r="N67" s="268"/>
+      <c r="O67" s="274"/>
+      <c r="P67" s="275"/>
+      <c r="Q67" s="276"/>
+      <c r="R67" s="274"/>
+      <c r="S67" s="276"/>
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="27.75" customHeight="1">
@@ -4327,20 +4327,20 @@
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="234"/>
-      <c r="L68" s="234"/>
-      <c r="M68" s="234"/>
-      <c r="N68" s="234"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="299"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="299"/>
+      <c r="F68" s="268"/>
+      <c r="G68" s="268"/>
+      <c r="H68" s="269"/>
+      <c r="I68" s="269"/>
+      <c r="J68" s="269"/>
+      <c r="K68" s="268"/>
+      <c r="L68" s="268"/>
+      <c r="M68" s="268"/>
+      <c r="N68" s="268"/>
+      <c r="O68" s="274"/>
+      <c r="P68" s="275"/>
+      <c r="Q68" s="276"/>
+      <c r="R68" s="274"/>
+      <c r="S68" s="276"/>
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="27.75" customHeight="1">
@@ -4348,20 +4348,20 @@
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="235"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="235"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="297"/>
-      <c r="P69" s="298"/>
-      <c r="Q69" s="299"/>
-      <c r="R69" s="297"/>
-      <c r="S69" s="299"/>
+      <c r="F69" s="268"/>
+      <c r="G69" s="268"/>
+      <c r="H69" s="269"/>
+      <c r="I69" s="269"/>
+      <c r="J69" s="269"/>
+      <c r="K69" s="268"/>
+      <c r="L69" s="268"/>
+      <c r="M69" s="268"/>
+      <c r="N69" s="268"/>
+      <c r="O69" s="274"/>
+      <c r="P69" s="275"/>
+      <c r="Q69" s="276"/>
+      <c r="R69" s="274"/>
+      <c r="S69" s="276"/>
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="11.25" customHeight="1">
@@ -4436,21 +4436,21 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="27" customHeight="1">
-      <c r="B73" s="336" t="s">
+      <c r="B73" s="253" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="313"/>
-      <c r="D73" s="313"/>
-      <c r="E73" s="313"/>
-      <c r="F73" s="313"/>
-      <c r="G73" s="313"/>
-      <c r="H73" s="313"/>
-      <c r="I73" s="313"/>
-      <c r="J73" s="313"/>
-      <c r="K73" s="313"/>
-      <c r="L73" s="313"/>
-      <c r="M73" s="313"/>
-      <c r="N73" s="313"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="254"/>
+      <c r="F73" s="254"/>
+      <c r="G73" s="254"/>
+      <c r="H73" s="254"/>
+      <c r="I73" s="254"/>
+      <c r="J73" s="254"/>
+      <c r="K73" s="254"/>
+      <c r="L73" s="254"/>
+      <c r="M73" s="254"/>
+      <c r="N73" s="254"/>
       <c r="O73" s="157" t="s">
         <v>165</v>
       </c>
@@ -4465,21 +4465,21 @@
       <c r="T73" s="62"/>
     </row>
     <row r="74" spans="2:20" s="32" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B74" s="337" t="s">
+      <c r="B74" s="255" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="338"/>
-      <c r="D74" s="338"/>
-      <c r="E74" s="338"/>
-      <c r="F74" s="338"/>
-      <c r="G74" s="338"/>
-      <c r="H74" s="338"/>
-      <c r="I74" s="338"/>
-      <c r="J74" s="338"/>
-      <c r="K74" s="338"/>
-      <c r="L74" s="338"/>
-      <c r="M74" s="338"/>
-      <c r="N74" s="338"/>
+      <c r="C74" s="256"/>
+      <c r="D74" s="256"/>
+      <c r="E74" s="256"/>
+      <c r="F74" s="256"/>
+      <c r="G74" s="256"/>
+      <c r="H74" s="256"/>
+      <c r="I74" s="256"/>
+      <c r="J74" s="256"/>
+      <c r="K74" s="256"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="256"/>
+      <c r="N74" s="256"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
@@ -4488,17 +4488,17 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="2:20" s="32" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B75" s="340" t="s">
+      <c r="B75" s="258" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="341"/>
-      <c r="D75" s="341"/>
-      <c r="E75" s="341"/>
-      <c r="F75" s="341"/>
-      <c r="G75" s="341"/>
-      <c r="H75" s="341"/>
-      <c r="I75" s="341"/>
-      <c r="J75" s="341"/>
+      <c r="C75" s="259"/>
+      <c r="D75" s="259"/>
+      <c r="E75" s="259"/>
+      <c r="F75" s="259"/>
+      <c r="G75" s="259"/>
+      <c r="H75" s="259"/>
+      <c r="I75" s="259"/>
+      <c r="J75" s="259"/>
       <c r="K75" s="197"/>
       <c r="L75" s="197"/>
       <c r="M75" s="162" t="s">
@@ -4510,20 +4510,20 @@
       <c r="O75" s="197"/>
       <c r="P75" s="197"/>
       <c r="Q75" s="29"/>
-      <c r="R75" s="333"/>
-      <c r="S75" s="333"/>
-      <c r="T75" s="334"/>
+      <c r="R75" s="248"/>
+      <c r="S75" s="248"/>
+      <c r="T75" s="249"/>
     </row>
     <row r="76" spans="2:20" ht="30" customHeight="1">
-      <c r="B76" s="340"/>
-      <c r="C76" s="341"/>
-      <c r="D76" s="341"/>
-      <c r="E76" s="341"/>
-      <c r="F76" s="341"/>
-      <c r="G76" s="341"/>
-      <c r="H76" s="341"/>
-      <c r="I76" s="341"/>
-      <c r="J76" s="341"/>
+      <c r="B76" s="258"/>
+      <c r="C76" s="259"/>
+      <c r="D76" s="259"/>
+      <c r="E76" s="259"/>
+      <c r="F76" s="259"/>
+      <c r="G76" s="259"/>
+      <c r="H76" s="259"/>
+      <c r="I76" s="259"/>
+      <c r="J76" s="259"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="28"/>
@@ -4578,36 +4578,36 @@
       <c r="T78" s="168"/>
     </row>
     <row r="79" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B79" s="314" t="s">
+      <c r="B79" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="315"/>
-      <c r="D79" s="315"/>
-      <c r="E79" s="315"/>
-      <c r="F79" s="315"/>
-      <c r="G79" s="315"/>
-      <c r="H79" s="315"/>
-      <c r="I79" s="315"/>
-      <c r="J79" s="315"/>
-      <c r="K79" s="315"/>
-      <c r="L79" s="315"/>
-      <c r="M79" s="315"/>
-      <c r="N79" s="315"/>
-      <c r="O79" s="315"/>
-      <c r="P79" s="315"/>
-      <c r="Q79" s="315"/>
-      <c r="R79" s="315"/>
-      <c r="S79" s="315"/>
-      <c r="T79" s="316"/>
+      <c r="C79" s="223"/>
+      <c r="D79" s="223"/>
+      <c r="E79" s="223"/>
+      <c r="F79" s="223"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+      <c r="K79" s="223"/>
+      <c r="L79" s="223"/>
+      <c r="M79" s="223"/>
+      <c r="N79" s="223"/>
+      <c r="O79" s="223"/>
+      <c r="P79" s="223"/>
+      <c r="Q79" s="223"/>
+      <c r="R79" s="223"/>
+      <c r="S79" s="223"/>
+      <c r="T79" s="224"/>
     </row>
     <row r="80" spans="2:20" ht="27.75" customHeight="1">
       <c r="B80" s="115"/>
       <c r="C80" s="116"/>
       <c r="D80" s="116"/>
-      <c r="E80" s="344" t="s">
+      <c r="E80" s="263" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="344"/>
+      <c r="F80" s="263"/>
       <c r="G80" s="116"/>
       <c r="H80" s="116"/>
       <c r="I80" s="116"/>
@@ -4629,8 +4629,8 @@
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="216"/>
-      <c r="F81" s="217"/>
+      <c r="E81" s="225"/>
+      <c r="F81" s="227"/>
       <c r="G81" s="152"/>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -4659,10 +4659,10 @@
       <c r="K82" s="116"/>
       <c r="L82" s="116"/>
       <c r="M82" s="116"/>
-      <c r="N82" s="331" t="s">
+      <c r="N82" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="331"/>
+      <c r="O82" s="264"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="152" t="s">
@@ -4736,8 +4736,8 @@
       <c r="C85" s="20"/>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
-      <c r="F85" s="274"/>
-      <c r="G85" s="274"/>
+      <c r="F85" s="265"/>
+      <c r="G85" s="265"/>
       <c r="H85" s="20" t="s">
         <v>6</v>
       </c>
@@ -4980,11 +4980,11 @@
       <c r="N94" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O94" s="330"/>
-      <c r="P94" s="330"/>
-      <c r="Q94" s="330"/>
-      <c r="R94" s="330"/>
-      <c r="S94" s="330"/>
+      <c r="O94" s="277"/>
+      <c r="P94" s="277"/>
+      <c r="Q94" s="277"/>
+      <c r="R94" s="277"/>
+      <c r="S94" s="277"/>
       <c r="T94" s="41"/>
     </row>
     <row r="95" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
@@ -5006,9 +5006,9 @@
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
       <c r="Q95" s="20"/>
-      <c r="R95" s="274"/>
-      <c r="S95" s="274"/>
-      <c r="T95" s="282"/>
+      <c r="R95" s="265"/>
+      <c r="S95" s="265"/>
+      <c r="T95" s="279"/>
     </row>
     <row r="96" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="B96" s="93"/>
@@ -5115,11 +5115,11 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="21"/>
-      <c r="K100" s="330"/>
-      <c r="L100" s="330"/>
-      <c r="M100" s="330"/>
-      <c r="N100" s="330"/>
-      <c r="O100" s="330"/>
+      <c r="K100" s="277"/>
+      <c r="L100" s="277"/>
+      <c r="M100" s="277"/>
+      <c r="N100" s="277"/>
+      <c r="O100" s="277"/>
       <c r="P100" s="20"/>
       <c r="Q100" s="20"/>
       <c r="R100" s="21"/>
@@ -5199,15 +5199,15 @@
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="E104" s="216"/>
-      <c r="F104" s="273"/>
-      <c r="G104" s="217"/>
+      <c r="E104" s="225"/>
+      <c r="F104" s="226"/>
+      <c r="G104" s="227"/>
       <c r="H104" s="178"/>
-      <c r="I104" s="313" t="s">
+      <c r="I104" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="313"/>
-      <c r="K104" s="313"/>
+      <c r="J104" s="254"/>
+      <c r="K104" s="254"/>
       <c r="L104" s="169"/>
       <c r="M104" s="178" t="s">
         <v>60</v>
@@ -5250,8 +5250,8 @@
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="216"/>
-      <c r="G106" s="217"/>
+      <c r="F106" s="225"/>
+      <c r="G106" s="227"/>
       <c r="H106" s="20" t="s">
         <v>3</v>
       </c>
@@ -5334,15 +5334,15 @@
       <c r="F109" s="178"/>
       <c r="G109" s="20"/>
       <c r="H109" s="178"/>
-      <c r="I109" s="271" t="s">
+      <c r="I109" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="271"/>
-      <c r="K109" s="271"/>
-      <c r="L109" s="271"/>
-      <c r="M109" s="271"/>
-      <c r="N109" s="271"/>
-      <c r="O109" s="271"/>
+      <c r="J109" s="278"/>
+      <c r="K109" s="278"/>
+      <c r="L109" s="278"/>
+      <c r="M109" s="278"/>
+      <c r="N109" s="278"/>
+      <c r="O109" s="278"/>
       <c r="P109" s="169" t="s">
         <v>81</v>
       </c>
@@ -5446,35 +5446,35 @@
       <c r="T113" s="41"/>
     </row>
     <row r="114" spans="2:20" ht="20">
-      <c r="B114" s="314" t="s">
+      <c r="B114" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="315"/>
-      <c r="D114" s="315"/>
-      <c r="E114" s="315"/>
-      <c r="F114" s="315"/>
-      <c r="G114" s="315"/>
-      <c r="H114" s="315"/>
-      <c r="I114" s="315"/>
-      <c r="J114" s="315"/>
-      <c r="K114" s="315"/>
-      <c r="L114" s="315"/>
-      <c r="M114" s="315"/>
-      <c r="N114" s="315"/>
-      <c r="O114" s="315"/>
-      <c r="P114" s="315"/>
-      <c r="Q114" s="315"/>
-      <c r="R114" s="315"/>
-      <c r="S114" s="315"/>
-      <c r="T114" s="316"/>
+      <c r="C114" s="223"/>
+      <c r="D114" s="223"/>
+      <c r="E114" s="223"/>
+      <c r="F114" s="223"/>
+      <c r="G114" s="223"/>
+      <c r="H114" s="223"/>
+      <c r="I114" s="223"/>
+      <c r="J114" s="223"/>
+      <c r="K114" s="223"/>
+      <c r="L114" s="223"/>
+      <c r="M114" s="223"/>
+      <c r="N114" s="223"/>
+      <c r="O114" s="223"/>
+      <c r="P114" s="223"/>
+      <c r="Q114" s="223"/>
+      <c r="R114" s="223"/>
+      <c r="S114" s="223"/>
+      <c r="T114" s="224"/>
     </row>
     <row r="115" spans="2:20" ht="19">
       <c r="B115" s="76"/>
-      <c r="C115" s="343"/>
-      <c r="D115" s="343"/>
-      <c r="E115" s="343"/>
-      <c r="F115" s="343"/>
-      <c r="G115" s="343"/>
+      <c r="C115" s="262"/>
+      <c r="D115" s="262"/>
+      <c r="E115" s="262"/>
+      <c r="F115" s="262"/>
+      <c r="G115" s="262"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -5484,10 +5484,10 @@
       <c r="L115" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="M115" s="344" t="s">
+      <c r="M115" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="344"/>
+      <c r="N115" s="263"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="21"/>
@@ -5497,20 +5497,20 @@
     </row>
     <row r="116" spans="2:20" ht="20">
       <c r="B116" s="77"/>
-      <c r="C116" s="331" t="s">
+      <c r="C116" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="331"/>
-      <c r="E116" s="331"/>
-      <c r="F116" s="331"/>
-      <c r="G116" s="331"/>
-      <c r="H116" s="331"/>
+      <c r="D116" s="264"/>
+      <c r="E116" s="264"/>
+      <c r="F116" s="264"/>
+      <c r="G116" s="264"/>
+      <c r="H116" s="264"/>
       <c r="I116" s="78"/>
       <c r="J116" s="27"/>
       <c r="K116" s="200"/>
       <c r="L116" s="200"/>
-      <c r="M116" s="216"/>
-      <c r="N116" s="217"/>
+      <c r="M116" s="225"/>
+      <c r="N116" s="227"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="20"/>
@@ -5520,11 +5520,11 @@
     </row>
     <row r="117" spans="2:20" ht="19">
       <c r="B117" s="153"/>
-      <c r="C117" s="331"/>
-      <c r="D117" s="331"/>
-      <c r="E117" s="331"/>
-      <c r="F117" s="331"/>
-      <c r="G117" s="331"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
+      <c r="E117" s="264"/>
+      <c r="F117" s="264"/>
+      <c r="G117" s="264"/>
       <c r="H117" s="152"/>
       <c r="I117" s="152"/>
       <c r="J117" s="152"/>
@@ -5547,23 +5547,23 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="274"/>
-      <c r="H118" s="274"/>
-      <c r="I118" s="345" t="s">
+      <c r="G118" s="265"/>
+      <c r="H118" s="265"/>
+      <c r="I118" s="266" t="s">
         <v>175</v>
       </c>
-      <c r="J118" s="345"/>
-      <c r="K118" s="345"/>
-      <c r="L118" s="345"/>
-      <c r="M118" s="345"/>
-      <c r="N118" s="345"/>
-      <c r="O118" s="346"/>
-      <c r="P118" s="327"/>
-      <c r="Q118" s="328"/>
-      <c r="R118" s="281" t="s">
+      <c r="J118" s="266"/>
+      <c r="K118" s="266"/>
+      <c r="L118" s="266"/>
+      <c r="M118" s="266"/>
+      <c r="N118" s="266"/>
+      <c r="O118" s="267"/>
+      <c r="P118" s="271"/>
+      <c r="Q118" s="272"/>
+      <c r="R118" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="S118" s="274"/>
+      <c r="S118" s="265"/>
       <c r="T118" s="41"/>
     </row>
     <row r="119" spans="2:20" ht="19">
@@ -5701,8 +5701,8 @@
       <c r="F124" s="202"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
-      <c r="I124" s="329"/>
-      <c r="J124" s="329"/>
+      <c r="I124" s="273"/>
+      <c r="J124" s="273"/>
       <c r="K124" s="86"/>
       <c r="L124" s="86"/>
       <c r="M124" s="86"/>
@@ -5730,10 +5730,10 @@
       <c r="L125" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="267" t="s">
+      <c r="M125" s="319" t="s">
         <v>83</v>
       </c>
-      <c r="N125" s="267"/>
+      <c r="N125" s="319"/>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="25"/>
@@ -5755,8 +5755,8 @@
       <c r="J126" s="24"/>
       <c r="K126" s="199"/>
       <c r="L126" s="199"/>
-      <c r="M126" s="220"/>
-      <c r="N126" s="221"/>
+      <c r="M126" s="320"/>
+      <c r="N126" s="321"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="25"/>
@@ -5787,29 +5787,29 @@
     </row>
     <row r="128" spans="2:20" ht="20">
       <c r="B128" s="80"/>
-      <c r="C128" s="307" t="s">
+      <c r="C128" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="307"/>
-      <c r="E128" s="307"/>
-      <c r="F128" s="326"/>
-      <c r="G128" s="326"/>
+      <c r="D128" s="260"/>
+      <c r="E128" s="260"/>
+      <c r="F128" s="247"/>
+      <c r="G128" s="247"/>
       <c r="H128" s="82"/>
-      <c r="I128" s="236" t="s">
+      <c r="I128" s="322" t="s">
         <v>85</v>
       </c>
-      <c r="J128" s="236"/>
-      <c r="K128" s="236"/>
-      <c r="L128" s="236"/>
-      <c r="M128" s="236"/>
-      <c r="N128" s="236"/>
-      <c r="O128" s="237"/>
-      <c r="P128" s="214"/>
-      <c r="Q128" s="215"/>
-      <c r="R128" s="325" t="s">
+      <c r="J128" s="322"/>
+      <c r="K128" s="322"/>
+      <c r="L128" s="322"/>
+      <c r="M128" s="322"/>
+      <c r="N128" s="322"/>
+      <c r="O128" s="323"/>
+      <c r="P128" s="250"/>
+      <c r="Q128" s="252"/>
+      <c r="R128" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="S128" s="326"/>
+      <c r="S128" s="247"/>
       <c r="T128" s="81"/>
     </row>
     <row r="129" spans="2:20" ht="19">
@@ -5872,10 +5872,10 @@
       <c r="J131" s="199"/>
       <c r="K131" s="149"/>
       <c r="L131" s="149"/>
-      <c r="M131" s="267" t="s">
+      <c r="M131" s="319" t="s">
         <v>193</v>
       </c>
-      <c r="N131" s="267"/>
+      <c r="N131" s="319"/>
       <c r="O131" s="199"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="177"/>
@@ -5899,14 +5899,14 @@
       <c r="J132" s="199"/>
       <c r="K132" s="149"/>
       <c r="L132" s="149"/>
-      <c r="M132" s="267" t="s">
+      <c r="M132" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="N132" s="267"/>
-      <c r="O132" s="225"/>
-      <c r="P132" s="225"/>
-      <c r="Q132" s="225"/>
-      <c r="R132" s="225"/>
+      <c r="N132" s="319"/>
+      <c r="O132" s="361"/>
+      <c r="P132" s="361"/>
+      <c r="Q132" s="361"/>
+      <c r="R132" s="361"/>
       <c r="S132" s="171"/>
       <c r="T132" s="81"/>
     </row>
@@ -5949,10 +5949,10 @@
       <c r="L134" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="268" t="s">
+      <c r="M134" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="N134" s="268"/>
+      <c r="N134" s="324"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="25"/>
@@ -5974,8 +5974,8 @@
       <c r="J135" s="25"/>
       <c r="K135" s="199"/>
       <c r="L135" s="199"/>
-      <c r="M135" s="269"/>
-      <c r="N135" s="270"/>
+      <c r="M135" s="238"/>
+      <c r="N135" s="240"/>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="25"/>
@@ -6006,29 +6006,29 @@
     </row>
     <row r="137" spans="2:20" ht="20">
       <c r="B137" s="80"/>
-      <c r="C137" s="332" t="s">
+      <c r="C137" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="332"/>
-      <c r="E137" s="332"/>
-      <c r="F137" s="326"/>
-      <c r="G137" s="326"/>
+      <c r="D137" s="245"/>
+      <c r="E137" s="245"/>
+      <c r="F137" s="247"/>
+      <c r="G137" s="247"/>
       <c r="H137" s="82"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="236" t="s">
+      <c r="J137" s="322" t="s">
         <v>87</v>
       </c>
-      <c r="K137" s="236"/>
-      <c r="L137" s="236"/>
-      <c r="M137" s="236"/>
-      <c r="N137" s="236"/>
-      <c r="O137" s="237"/>
-      <c r="P137" s="214"/>
-      <c r="Q137" s="215"/>
-      <c r="R137" s="325" t="s">
+      <c r="K137" s="322"/>
+      <c r="L137" s="322"/>
+      <c r="M137" s="322"/>
+      <c r="N137" s="322"/>
+      <c r="O137" s="323"/>
+      <c r="P137" s="250"/>
+      <c r="Q137" s="252"/>
+      <c r="R137" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="S137" s="326"/>
+      <c r="S137" s="247"/>
       <c r="T137" s="81"/>
     </row>
     <row r="138" spans="2:20" ht="19">
@@ -6249,27 +6249,27 @@
       <c r="T146" s="41"/>
     </row>
     <row r="147" spans="2:20" ht="19">
-      <c r="B147" s="248" t="s">
+      <c r="B147" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="249"/>
-      <c r="D147" s="249"/>
-      <c r="E147" s="249"/>
-      <c r="F147" s="249"/>
-      <c r="G147" s="249"/>
-      <c r="H147" s="249"/>
-      <c r="I147" s="249"/>
-      <c r="J147" s="249"/>
-      <c r="K147" s="249"/>
-      <c r="L147" s="249"/>
-      <c r="M147" s="249"/>
-      <c r="N147" s="249"/>
-      <c r="O147" s="249"/>
-      <c r="P147" s="249"/>
-      <c r="Q147" s="249"/>
-      <c r="R147" s="249"/>
-      <c r="S147" s="249"/>
-      <c r="T147" s="250"/>
+      <c r="C147" s="326"/>
+      <c r="D147" s="326"/>
+      <c r="E147" s="326"/>
+      <c r="F147" s="326"/>
+      <c r="G147" s="326"/>
+      <c r="H147" s="326"/>
+      <c r="I147" s="326"/>
+      <c r="J147" s="326"/>
+      <c r="K147" s="326"/>
+      <c r="L147" s="326"/>
+      <c r="M147" s="326"/>
+      <c r="N147" s="326"/>
+      <c r="O147" s="326"/>
+      <c r="P147" s="326"/>
+      <c r="Q147" s="326"/>
+      <c r="R147" s="326"/>
+      <c r="S147" s="326"/>
+      <c r="T147" s="327"/>
     </row>
     <row r="148" spans="2:20" ht="19">
       <c r="B148" s="76"/>
@@ -6312,12 +6312,12 @@
       <c r="J149" s="104"/>
       <c r="K149" s="104"/>
       <c r="L149" s="104"/>
-      <c r="M149" s="264"/>
-      <c r="N149" s="265"/>
-      <c r="O149" s="265"/>
-      <c r="P149" s="265"/>
-      <c r="Q149" s="265"/>
-      <c r="R149" s="266"/>
+      <c r="M149" s="316"/>
+      <c r="N149" s="317"/>
+      <c r="O149" s="317"/>
+      <c r="P149" s="317"/>
+      <c r="Q149" s="317"/>
+      <c r="R149" s="318"/>
       <c r="S149" s="20"/>
       <c r="T149" s="41"/>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
-      <c r="E157" s="218"/>
-      <c r="F157" s="219"/>
+      <c r="E157" s="359"/>
+      <c r="F157" s="360"/>
       <c r="G157" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H157" s="178"/>
       <c r="I157" s="89"/>
-      <c r="J157" s="271" t="s">
+      <c r="J157" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="K157" s="271"/>
-      <c r="L157" s="271"/>
-      <c r="M157" s="271"/>
-      <c r="N157" s="272"/>
-      <c r="O157" s="216"/>
-      <c r="P157" s="217"/>
+      <c r="K157" s="278"/>
+      <c r="L157" s="278"/>
+      <c r="M157" s="278"/>
+      <c r="N157" s="328"/>
+      <c r="O157" s="225"/>
+      <c r="P157" s="227"/>
       <c r="Q157" s="20" t="s">
         <v>3</v>
       </c>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="218"/>
-      <c r="F159" s="219"/>
+      <c r="E159" s="359"/>
+      <c r="F159" s="360"/>
       <c r="G159" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H159" s="11"/>
-      <c r="I159" s="226" t="s">
+      <c r="I159" s="362" t="s">
         <v>200</v>
       </c>
-      <c r="J159" s="226"/>
-      <c r="K159" s="227"/>
-      <c r="L159" s="218"/>
-      <c r="M159" s="219"/>
+      <c r="J159" s="362"/>
+      <c r="K159" s="363"/>
+      <c r="L159" s="359"/>
+      <c r="M159" s="360"/>
       <c r="N159" s="178" t="s">
         <v>3</v>
       </c>
@@ -6557,8 +6557,8 @@
         <v>45</v>
       </c>
       <c r="Q159" s="144"/>
-      <c r="R159" s="218"/>
-      <c r="S159" s="219"/>
+      <c r="R159" s="359"/>
+      <c r="S159" s="360"/>
       <c r="T159" s="41"/>
     </row>
     <row r="160" spans="2:20" ht="9" customHeight="1">
@@ -6583,27 +6583,27 @@
       <c r="T160" s="41"/>
     </row>
     <row r="161" spans="2:20" ht="19">
-      <c r="B161" s="248" t="s">
+      <c r="B161" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="249"/>
-      <c r="D161" s="249"/>
-      <c r="E161" s="249"/>
-      <c r="F161" s="249"/>
-      <c r="G161" s="249"/>
-      <c r="H161" s="249"/>
-      <c r="I161" s="249"/>
-      <c r="J161" s="249"/>
-      <c r="K161" s="249"/>
-      <c r="L161" s="249"/>
-      <c r="M161" s="249"/>
-      <c r="N161" s="249"/>
-      <c r="O161" s="249"/>
-      <c r="P161" s="249"/>
-      <c r="Q161" s="249"/>
-      <c r="R161" s="249"/>
-      <c r="S161" s="249"/>
-      <c r="T161" s="250"/>
+      <c r="C161" s="326"/>
+      <c r="D161" s="326"/>
+      <c r="E161" s="326"/>
+      <c r="F161" s="326"/>
+      <c r="G161" s="326"/>
+      <c r="H161" s="326"/>
+      <c r="I161" s="326"/>
+      <c r="J161" s="326"/>
+      <c r="K161" s="326"/>
+      <c r="L161" s="326"/>
+      <c r="M161" s="326"/>
+      <c r="N161" s="326"/>
+      <c r="O161" s="326"/>
+      <c r="P161" s="326"/>
+      <c r="Q161" s="326"/>
+      <c r="R161" s="326"/>
+      <c r="S161" s="326"/>
+      <c r="T161" s="327"/>
     </row>
     <row r="162" spans="2:20" ht="9" customHeight="1">
       <c r="B162" s="76"/>
@@ -6631,9 +6631,9 @@
         <v>90</v>
       </c>
       <c r="C163" s="20"/>
-      <c r="D163" s="216"/>
-      <c r="E163" s="273"/>
-      <c r="F163" s="217"/>
+      <c r="D163" s="225"/>
+      <c r="E163" s="226"/>
+      <c r="F163" s="227"/>
       <c r="G163" s="20" t="s">
         <v>88</v>
       </c>
@@ -6653,10 +6653,10 @@
         <v>65</v>
       </c>
       <c r="Q163" s="42"/>
-      <c r="R163" s="274" t="s">
+      <c r="R163" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="S163" s="274"/>
+      <c r="S163" s="265"/>
       <c r="T163" s="90"/>
     </row>
     <row r="164" spans="2:20" ht="12" customHeight="1">
@@ -6686,8 +6686,8 @@
       </c>
       <c r="C165" s="92"/>
       <c r="D165" s="42"/>
-      <c r="E165" s="216"/>
-      <c r="F165" s="217"/>
+      <c r="E165" s="225"/>
+      <c r="F165" s="227"/>
       <c r="G165" s="178" t="s">
         <v>3</v>
       </c>
@@ -6732,8 +6732,8 @@
       </c>
       <c r="C167" s="20"/>
       <c r="D167" s="89"/>
-      <c r="E167" s="216"/>
-      <c r="F167" s="217"/>
+      <c r="E167" s="225"/>
+      <c r="F167" s="227"/>
       <c r="G167" s="178" t="s">
         <v>3</v>
       </c>
@@ -6785,15 +6785,15 @@
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="216"/>
-      <c r="I169" s="217"/>
-      <c r="J169" s="281" t="s">
+      <c r="H169" s="225"/>
+      <c r="I169" s="227"/>
+      <c r="J169" s="270" t="s">
         <v>125</v>
       </c>
-      <c r="K169" s="274"/>
-      <c r="L169" s="274"/>
-      <c r="M169" s="274"/>
-      <c r="N169" s="282"/>
+      <c r="K169" s="265"/>
+      <c r="L169" s="265"/>
+      <c r="M169" s="265"/>
+      <c r="N169" s="279"/>
       <c r="O169" s="202"/>
       <c r="P169" s="202"/>
       <c r="Q169" s="42"/>
@@ -6846,236 +6846,236 @@
       <c r="T171" s="94"/>
     </row>
     <row r="172" spans="2:20" ht="19">
-      <c r="B172" s="248" t="s">
+      <c r="B172" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="249"/>
-      <c r="D172" s="249"/>
-      <c r="E172" s="249"/>
-      <c r="F172" s="249"/>
-      <c r="G172" s="249"/>
-      <c r="H172" s="249"/>
-      <c r="I172" s="249"/>
-      <c r="J172" s="249"/>
-      <c r="K172" s="249"/>
-      <c r="L172" s="249"/>
-      <c r="M172" s="249"/>
-      <c r="N172" s="249"/>
-      <c r="O172" s="249"/>
-      <c r="P172" s="249"/>
-      <c r="Q172" s="249"/>
-      <c r="R172" s="249"/>
-      <c r="S172" s="249"/>
-      <c r="T172" s="250"/>
+      <c r="C172" s="326"/>
+      <c r="D172" s="326"/>
+      <c r="E172" s="326"/>
+      <c r="F172" s="326"/>
+      <c r="G172" s="326"/>
+      <c r="H172" s="326"/>
+      <c r="I172" s="326"/>
+      <c r="J172" s="326"/>
+      <c r="K172" s="326"/>
+      <c r="L172" s="326"/>
+      <c r="M172" s="326"/>
+      <c r="N172" s="326"/>
+      <c r="O172" s="326"/>
+      <c r="P172" s="326"/>
+      <c r="Q172" s="326"/>
+      <c r="R172" s="326"/>
+      <c r="S172" s="326"/>
+      <c r="T172" s="327"/>
     </row>
     <row r="173" spans="2:20" ht="19">
-      <c r="B173" s="244" t="s">
+      <c r="B173" s="338" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="245"/>
-      <c r="D173" s="245"/>
-      <c r="E173" s="246"/>
-      <c r="F173" s="251" t="s">
+      <c r="C173" s="339"/>
+      <c r="D173" s="339"/>
+      <c r="E173" s="340"/>
+      <c r="F173" s="344" t="s">
         <v>118</v>
       </c>
-      <c r="G173" s="252"/>
-      <c r="H173" s="259" t="s">
+      <c r="G173" s="345"/>
+      <c r="H173" s="352" t="s">
         <v>77</v>
       </c>
-      <c r="I173" s="228" t="s">
+      <c r="I173" s="354" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="229"/>
-      <c r="K173" s="228" t="s">
+      <c r="J173" s="356"/>
+      <c r="K173" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="L173" s="229"/>
-      <c r="M173" s="228" t="s">
+      <c r="L173" s="356"/>
+      <c r="M173" s="354" t="s">
         <v>121</v>
       </c>
-      <c r="N173" s="261"/>
-      <c r="O173" s="261"/>
-      <c r="P173" s="261"/>
-      <c r="Q173" s="229"/>
-      <c r="R173" s="253" t="s">
+      <c r="N173" s="355"/>
+      <c r="O173" s="355"/>
+      <c r="P173" s="355"/>
+      <c r="Q173" s="356"/>
+      <c r="R173" s="346" t="s">
         <v>123</v>
       </c>
-      <c r="S173" s="254"/>
-      <c r="T173" s="255"/>
+      <c r="S173" s="347"/>
+      <c r="T173" s="348"/>
     </row>
     <row r="174" spans="2:20" ht="19">
-      <c r="B174" s="230"/>
-      <c r="C174" s="247"/>
-      <c r="D174" s="247"/>
-      <c r="E174" s="231"/>
+      <c r="B174" s="341"/>
+      <c r="C174" s="342"/>
+      <c r="D174" s="342"/>
+      <c r="E174" s="343"/>
       <c r="F174" s="102" t="s">
         <v>119</v>
       </c>
       <c r="G174" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H174" s="260"/>
-      <c r="I174" s="230"/>
-      <c r="J174" s="231"/>
-      <c r="K174" s="230"/>
-      <c r="L174" s="231"/>
-      <c r="M174" s="230"/>
-      <c r="N174" s="247"/>
-      <c r="O174" s="247"/>
-      <c r="P174" s="247"/>
-      <c r="Q174" s="231"/>
-      <c r="R174" s="256"/>
-      <c r="S174" s="257"/>
-      <c r="T174" s="258"/>
+      <c r="H174" s="353"/>
+      <c r="I174" s="341"/>
+      <c r="J174" s="343"/>
+      <c r="K174" s="341"/>
+      <c r="L174" s="343"/>
+      <c r="M174" s="341"/>
+      <c r="N174" s="342"/>
+      <c r="O174" s="342"/>
+      <c r="P174" s="342"/>
+      <c r="Q174" s="343"/>
+      <c r="R174" s="349"/>
+      <c r="S174" s="350"/>
+      <c r="T174" s="351"/>
     </row>
     <row r="175" spans="2:20" ht="20">
-      <c r="B175" s="232"/>
-      <c r="C175" s="243"/>
-      <c r="D175" s="243"/>
-      <c r="E175" s="233"/>
+      <c r="B175" s="301"/>
+      <c r="C175" s="302"/>
+      <c r="D175" s="302"/>
+      <c r="E175" s="303"/>
       <c r="F175" s="207"/>
       <c r="G175" s="207"/>
       <c r="H175" s="201"/>
-      <c r="I175" s="241"/>
-      <c r="J175" s="242"/>
-      <c r="K175" s="232"/>
-      <c r="L175" s="233"/>
-      <c r="M175" s="285"/>
-      <c r="N175" s="285"/>
-      <c r="O175" s="285"/>
-      <c r="P175" s="285"/>
-      <c r="Q175" s="285"/>
-      <c r="R175" s="232"/>
-      <c r="S175" s="243"/>
-      <c r="T175" s="233"/>
+      <c r="I175" s="336"/>
+      <c r="J175" s="337"/>
+      <c r="K175" s="301"/>
+      <c r="L175" s="303"/>
+      <c r="M175" s="304"/>
+      <c r="N175" s="304"/>
+      <c r="O175" s="304"/>
+      <c r="P175" s="304"/>
+      <c r="Q175" s="304"/>
+      <c r="R175" s="301"/>
+      <c r="S175" s="302"/>
+      <c r="T175" s="303"/>
     </row>
     <row r="176" spans="2:20" ht="20">
-      <c r="B176" s="232"/>
-      <c r="C176" s="243"/>
-      <c r="D176" s="243"/>
-      <c r="E176" s="233"/>
+      <c r="B176" s="301"/>
+      <c r="C176" s="302"/>
+      <c r="D176" s="302"/>
+      <c r="E176" s="303"/>
       <c r="F176" s="211"/>
       <c r="G176" s="211"/>
       <c r="H176" s="201"/>
-      <c r="I176" s="239"/>
-      <c r="J176" s="240"/>
-      <c r="K176" s="232"/>
-      <c r="L176" s="233"/>
-      <c r="M176" s="232"/>
-      <c r="N176" s="243"/>
-      <c r="O176" s="243"/>
-      <c r="P176" s="243"/>
-      <c r="Q176" s="233"/>
-      <c r="R176" s="232"/>
-      <c r="S176" s="243"/>
-      <c r="T176" s="233"/>
+      <c r="I176" s="232"/>
+      <c r="J176" s="234"/>
+      <c r="K176" s="301"/>
+      <c r="L176" s="303"/>
+      <c r="M176" s="301"/>
+      <c r="N176" s="302"/>
+      <c r="O176" s="302"/>
+      <c r="P176" s="302"/>
+      <c r="Q176" s="303"/>
+      <c r="R176" s="301"/>
+      <c r="S176" s="302"/>
+      <c r="T176" s="303"/>
     </row>
     <row r="177" spans="2:20" ht="20">
-      <c r="B177" s="232"/>
-      <c r="C177" s="243"/>
-      <c r="D177" s="243"/>
-      <c r="E177" s="233"/>
+      <c r="B177" s="301"/>
+      <c r="C177" s="302"/>
+      <c r="D177" s="302"/>
+      <c r="E177" s="303"/>
       <c r="F177" s="211"/>
       <c r="G177" s="211"/>
       <c r="H177" s="201"/>
-      <c r="I177" s="239"/>
-      <c r="J177" s="240"/>
-      <c r="K177" s="232"/>
-      <c r="L177" s="233"/>
-      <c r="M177" s="232"/>
-      <c r="N177" s="243"/>
-      <c r="O177" s="243"/>
-      <c r="P177" s="243"/>
-      <c r="Q177" s="233"/>
-      <c r="R177" s="232"/>
-      <c r="S177" s="243"/>
-      <c r="T177" s="233"/>
+      <c r="I177" s="232"/>
+      <c r="J177" s="234"/>
+      <c r="K177" s="301"/>
+      <c r="L177" s="303"/>
+      <c r="M177" s="301"/>
+      <c r="N177" s="302"/>
+      <c r="O177" s="302"/>
+      <c r="P177" s="302"/>
+      <c r="Q177" s="303"/>
+      <c r="R177" s="301"/>
+      <c r="S177" s="302"/>
+      <c r="T177" s="303"/>
     </row>
     <row r="178" spans="2:20" ht="20">
-      <c r="B178" s="232"/>
-      <c r="C178" s="243"/>
-      <c r="D178" s="243"/>
-      <c r="E178" s="233"/>
+      <c r="B178" s="301"/>
+      <c r="C178" s="302"/>
+      <c r="D178" s="302"/>
+      <c r="E178" s="303"/>
       <c r="F178" s="211"/>
       <c r="G178" s="211"/>
       <c r="H178" s="201"/>
-      <c r="I178" s="239"/>
-      <c r="J178" s="240"/>
-      <c r="K178" s="232"/>
-      <c r="L178" s="233"/>
-      <c r="M178" s="232"/>
-      <c r="N178" s="243"/>
-      <c r="O178" s="243"/>
-      <c r="P178" s="243"/>
-      <c r="Q178" s="233"/>
-      <c r="R178" s="232"/>
-      <c r="S178" s="243"/>
-      <c r="T178" s="233"/>
+      <c r="I178" s="232"/>
+      <c r="J178" s="234"/>
+      <c r="K178" s="301"/>
+      <c r="L178" s="303"/>
+      <c r="M178" s="301"/>
+      <c r="N178" s="302"/>
+      <c r="O178" s="302"/>
+      <c r="P178" s="302"/>
+      <c r="Q178" s="303"/>
+      <c r="R178" s="301"/>
+      <c r="S178" s="302"/>
+      <c r="T178" s="303"/>
     </row>
     <row r="179" spans="2:20" ht="20">
-      <c r="B179" s="232"/>
-      <c r="C179" s="243"/>
-      <c r="D179" s="243"/>
-      <c r="E179" s="233"/>
+      <c r="B179" s="301"/>
+      <c r="C179" s="302"/>
+      <c r="D179" s="302"/>
+      <c r="E179" s="303"/>
       <c r="F179" s="211"/>
       <c r="G179" s="211"/>
       <c r="H179" s="201"/>
-      <c r="I179" s="239"/>
-      <c r="J179" s="240"/>
-      <c r="K179" s="232"/>
-      <c r="L179" s="233"/>
-      <c r="M179" s="232"/>
-      <c r="N179" s="243"/>
-      <c r="O179" s="243"/>
-      <c r="P179" s="243"/>
-      <c r="Q179" s="233"/>
-      <c r="R179" s="232"/>
-      <c r="S179" s="243"/>
-      <c r="T179" s="233"/>
+      <c r="I179" s="232"/>
+      <c r="J179" s="234"/>
+      <c r="K179" s="301"/>
+      <c r="L179" s="303"/>
+      <c r="M179" s="301"/>
+      <c r="N179" s="302"/>
+      <c r="O179" s="302"/>
+      <c r="P179" s="302"/>
+      <c r="Q179" s="303"/>
+      <c r="R179" s="301"/>
+      <c r="S179" s="302"/>
+      <c r="T179" s="303"/>
     </row>
     <row r="180" spans="2:20" ht="20">
-      <c r="B180" s="232"/>
-      <c r="C180" s="243"/>
-      <c r="D180" s="243"/>
-      <c r="E180" s="233"/>
+      <c r="B180" s="301"/>
+      <c r="C180" s="302"/>
+      <c r="D180" s="302"/>
+      <c r="E180" s="303"/>
       <c r="F180" s="211"/>
       <c r="G180" s="211"/>
       <c r="H180" s="201"/>
-      <c r="I180" s="239"/>
-      <c r="J180" s="240"/>
-      <c r="K180" s="232"/>
-      <c r="L180" s="233"/>
-      <c r="M180" s="285"/>
-      <c r="N180" s="285"/>
-      <c r="O180" s="285"/>
-      <c r="P180" s="285"/>
-      <c r="Q180" s="285"/>
-      <c r="R180" s="232"/>
-      <c r="S180" s="243"/>
-      <c r="T180" s="233"/>
+      <c r="I180" s="232"/>
+      <c r="J180" s="234"/>
+      <c r="K180" s="301"/>
+      <c r="L180" s="303"/>
+      <c r="M180" s="304"/>
+      <c r="N180" s="304"/>
+      <c r="O180" s="304"/>
+      <c r="P180" s="304"/>
+      <c r="Q180" s="304"/>
+      <c r="R180" s="301"/>
+      <c r="S180" s="302"/>
+      <c r="T180" s="303"/>
     </row>
     <row r="181" spans="2:20" ht="17.5">
-      <c r="B181" s="275" t="s">
+      <c r="B181" s="329" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="276"/>
-      <c r="D181" s="276"/>
-      <c r="E181" s="276"/>
-      <c r="F181" s="276"/>
-      <c r="G181" s="276"/>
-      <c r="H181" s="276"/>
-      <c r="I181" s="276"/>
-      <c r="J181" s="276"/>
-      <c r="K181" s="276"/>
-      <c r="L181" s="276"/>
-      <c r="M181" s="276"/>
-      <c r="N181" s="276"/>
-      <c r="O181" s="276"/>
-      <c r="P181" s="276"/>
-      <c r="Q181" s="276"/>
-      <c r="R181" s="276"/>
-      <c r="S181" s="276"/>
-      <c r="T181" s="277"/>
+      <c r="C181" s="330"/>
+      <c r="D181" s="330"/>
+      <c r="E181" s="330"/>
+      <c r="F181" s="330"/>
+      <c r="G181" s="330"/>
+      <c r="H181" s="330"/>
+      <c r="I181" s="330"/>
+      <c r="J181" s="330"/>
+      <c r="K181" s="330"/>
+      <c r="L181" s="330"/>
+      <c r="M181" s="330"/>
+      <c r="N181" s="330"/>
+      <c r="O181" s="330"/>
+      <c r="P181" s="330"/>
+      <c r="Q181" s="330"/>
+      <c r="R181" s="330"/>
+      <c r="S181" s="330"/>
+      <c r="T181" s="331"/>
     </row>
     <row r="182" spans="2:20" ht="17.5">
       <c r="B182" s="107" t="s">
@@ -7123,12 +7123,12 @@
     </row>
     <row r="184" spans="2:20" ht="20">
       <c r="B184" s="44"/>
-      <c r="C184" s="278" t="s">
+      <c r="C184" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="D184" s="278"/>
-      <c r="E184" s="278"/>
-      <c r="F184" s="278"/>
+      <c r="D184" s="332"/>
+      <c r="E184" s="332"/>
+      <c r="F184" s="332"/>
       <c r="G184" s="12"/>
       <c r="H184" s="11"/>
       <c r="I184" s="68" t="s">
@@ -7148,24 +7148,24 @@
     </row>
     <row r="185" spans="2:20" ht="26.25" customHeight="1">
       <c r="B185" s="44"/>
-      <c r="C185" s="263"/>
-      <c r="D185" s="263"/>
-      <c r="E185" s="263"/>
-      <c r="F185" s="263"/>
+      <c r="C185" s="315"/>
+      <c r="D185" s="315"/>
+      <c r="E185" s="315"/>
+      <c r="F185" s="315"/>
       <c r="G185" s="12"/>
       <c r="H185" s="11"/>
-      <c r="I185" s="263"/>
-      <c r="J185" s="263"/>
-      <c r="K185" s="263"/>
-      <c r="L185" s="263"/>
-      <c r="M185" s="263"/>
-      <c r="N185" s="279" t="s">
+      <c r="I185" s="315"/>
+      <c r="J185" s="315"/>
+      <c r="K185" s="315"/>
+      <c r="L185" s="315"/>
+      <c r="M185" s="315"/>
+      <c r="N185" s="333" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="279"/>
-      <c r="P185" s="280"/>
-      <c r="Q185" s="212"/>
-      <c r="R185" s="213"/>
+      <c r="O185" s="333"/>
+      <c r="P185" s="334"/>
+      <c r="Q185" s="357"/>
+      <c r="R185" s="358"/>
       <c r="S185" s="155" t="s">
         <v>3</v>
       </c>
@@ -7173,17 +7173,17 @@
     </row>
     <row r="186" spans="2:20" ht="28.5" customHeight="1">
       <c r="B186" s="44"/>
-      <c r="C186" s="238"/>
-      <c r="D186" s="238"/>
-      <c r="E186" s="238"/>
-      <c r="F186" s="238"/>
+      <c r="C186" s="335"/>
+      <c r="D186" s="335"/>
+      <c r="E186" s="335"/>
+      <c r="F186" s="335"/>
       <c r="G186" s="12"/>
       <c r="H186" s="11"/>
-      <c r="I186" s="238"/>
-      <c r="J186" s="238"/>
-      <c r="K186" s="238"/>
-      <c r="L186" s="238"/>
-      <c r="M186" s="238"/>
+      <c r="I186" s="335"/>
+      <c r="J186" s="335"/>
+      <c r="K186" s="335"/>
+      <c r="L186" s="335"/>
+      <c r="M186" s="335"/>
       <c r="N186" s="12"/>
       <c r="O186" s="95"/>
       <c r="P186" s="95"/>
@@ -7200,13 +7200,13 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="11"/>
-      <c r="I187" s="262" t="s">
+      <c r="I187" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="J187" s="262"/>
-      <c r="K187" s="262"/>
-      <c r="L187" s="262"/>
-      <c r="M187" s="262"/>
+      <c r="J187" s="314"/>
+      <c r="K187" s="314"/>
+      <c r="L187" s="314"/>
+      <c r="M187" s="314"/>
       <c r="N187" s="12"/>
       <c r="O187" s="95"/>
       <c r="P187" s="95"/>
@@ -7223,11 +7223,11 @@
       <c r="F188" s="12"/>
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
-      <c r="I188" s="263"/>
-      <c r="J188" s="263"/>
-      <c r="K188" s="263"/>
-      <c r="L188" s="263"/>
-      <c r="M188" s="263"/>
+      <c r="I188" s="315"/>
+      <c r="J188" s="315"/>
+      <c r="K188" s="315"/>
+      <c r="L188" s="315"/>
+      <c r="M188" s="315"/>
       <c r="N188" s="37"/>
       <c r="O188" s="37"/>
       <c r="P188" s="95"/>
@@ -7259,35 +7259,169 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="O132:R132"/>
+    <mergeCell ref="R159:S159"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="I159:K159"/>
+    <mergeCell ref="K173:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="J137:O137"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B173:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B172:T172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="R173:T174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="M173:Q174"/>
+    <mergeCell ref="I173:J174"/>
+    <mergeCell ref="R175:T175"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="M149:R149"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B147:T147"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="B161:T161"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="R178:T178"/>
+    <mergeCell ref="R179:T179"/>
+    <mergeCell ref="R180:T180"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="M43:R44"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="B114:T114"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:I39"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M38:Q39"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
     <mergeCell ref="C137:E137"/>
     <mergeCell ref="R137:S137"/>
     <mergeCell ref="F128:G128"/>
@@ -7312,169 +7446,35 @@
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E104:G104"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I109:O109"/>
-    <mergeCell ref="B114:T114"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B37:T37"/>
-    <mergeCell ref="B38:I39"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M38:Q39"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="R178:T178"/>
-    <mergeCell ref="R179:T179"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="M175:Q175"/>
-    <mergeCell ref="M180:Q180"/>
-    <mergeCell ref="M178:Q178"/>
-    <mergeCell ref="M177:Q177"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="M43:R44"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="M149:R149"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B147:T147"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="B161:T161"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="M176:Q176"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B173:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B172:T172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="R173:T174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="M173:Q174"/>
-    <mergeCell ref="I173:J174"/>
-    <mergeCell ref="R175:T175"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="O132:R132"/>
-    <mergeCell ref="R159:S159"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="I159:K159"/>
-    <mergeCell ref="K173:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="J137:O137"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Formatos/Estudio_de_caso_nCOV_2020.xlsx
+++ b/Formatos/Estudio_de_caso_nCOV_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\source\repos\OneProject.Medical.Forms\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237FE0E-3F04-4497-B7F8-EB098EE61734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E1291-BA05-416C-84B2-9D913578004C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QUWXMaeGjuUt4zZYobJ34740iStqnl0RVGXUprJ17ILmK1kNCmObGDVVeU06GYkJRAcZKQIy0ExsOiQwMD2ezw==" workbookSaltValue="nXkPjPfGI4aEBZ1SH2jd/A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1732,6 +1732,441 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,15 +2179,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1761,432 +2187,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2692,8 +2692,8 @@
   </sheetPr>
   <dimension ref="B1:Y189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B161" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178:E178"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2804,78 +2804,78 @@
       <c r="T4" s="45"/>
     </row>
     <row r="5" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="214"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="358"/>
+      <c r="S5" s="358"/>
+      <c r="T5" s="359"/>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="314" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="224"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="315"/>
+      <c r="Q6" s="315"/>
+      <c r="R6" s="315"/>
+      <c r="S6" s="315"/>
+      <c r="T6" s="316"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
       <c r="B7" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="236" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="350" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="236"/>
+      <c r="E7" s="350"/>
       <c r="F7" s="201"/>
-      <c r="G7" s="237" t="s">
+      <c r="G7" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="236"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="236" t="s">
+      <c r="H7" s="350"/>
+      <c r="I7" s="353"/>
+      <c r="J7" s="354"/>
+      <c r="K7" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
       <c r="O7" s="101"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="234"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="348"/>
+      <c r="R7" s="348"/>
+      <c r="S7" s="240"/>
       <c r="T7" s="47"/>
     </row>
     <row r="8" spans="2:20" ht="9" customHeight="1">
@@ -2903,21 +2903,21 @@
       <c r="B9" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="348"/>
+      <c r="E9" s="240"/>
       <c r="F9" s="36"/>
       <c r="G9" s="184" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="234"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="348"/>
+      <c r="K9" s="348"/>
+      <c r="L9" s="348"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="240"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
@@ -2925,27 +2925,27 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="2:20" ht="28.5" customHeight="1">
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="223"/>
-      <c r="T10" s="224"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="315"/>
+      <c r="K10" s="315"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="315"/>
+      <c r="N10" s="315"/>
+      <c r="O10" s="315"/>
+      <c r="P10" s="315"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
     </row>
     <row r="11" spans="2:20" ht="24.75" customHeight="1">
       <c r="B11" s="189" t="s">
@@ -2953,9 +2953,9 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="356"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2974,10 +2974,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="235" t="s">
+      <c r="E12" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="235"/>
+      <c r="F12" s="349"/>
       <c r="G12" s="157"/>
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
@@ -3015,32 +3015,32 @@
       <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="302" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="225" t="s">
+      <c r="C14" s="303"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="228" t="s">
+      <c r="F14" s="273"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="302" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="229"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="228" t="s">
+      <c r="I14" s="303"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="273"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="302" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="225"/>
-      <c r="R14" s="226"/>
-      <c r="S14" s="227"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="273"/>
+      <c r="S14" s="217"/>
       <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" ht="9.75" customHeight="1">
@@ -3089,12 +3089,12 @@
       <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="216"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="218"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="224"/>
       <c r="T16" s="49"/>
     </row>
     <row r="17" spans="2:20" ht="9.75" customHeight="1">
@@ -3119,66 +3119,66 @@
       <c r="T17" s="49"/>
     </row>
     <row r="18" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="362" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="148"/>
-      <c r="E18" s="221" t="s">
+      <c r="E18" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="215"/>
+      <c r="F18" s="360"/>
       <c r="G18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="360" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="215"/>
+      <c r="J18" s="360"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="215" t="s">
+      <c r="M18" s="360" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="215"/>
-      <c r="O18" s="215"/>
+      <c r="N18" s="360"/>
+      <c r="O18" s="360"/>
       <c r="P18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="Q18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="219" t="s">
+      <c r="R18" s="361" t="s">
         <v>166</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" ht="23.25" customHeight="1">
-      <c r="B19" s="220"/>
+      <c r="B19" s="362"/>
       <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="148"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="215"/>
+      <c r="E19" s="363"/>
+      <c r="F19" s="360"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
+      <c r="I19" s="360"/>
+      <c r="J19" s="360"/>
       <c r="K19" s="148"/>
       <c r="L19" s="162"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
+      <c r="M19" s="360"/>
+      <c r="N19" s="360"/>
+      <c r="O19" s="360"/>
       <c r="P19" s="148"/>
       <c r="Q19" s="148"/>
-      <c r="R19" s="219"/>
+      <c r="R19" s="361"/>
       <c r="S19" s="148"/>
       <c r="T19" s="51"/>
     </row>
@@ -3214,24 +3214,24 @@
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="216"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="283" t="s">
+      <c r="F21" s="222"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="296"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="218"/>
+      <c r="I21" s="310"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="224"/>
       <c r="L21" s="162"/>
       <c r="M21" s="145"/>
-      <c r="N21" s="243" t="s">
+      <c r="N21" s="355" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="243"/>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="320"/>
-      <c r="S21" s="321"/>
+      <c r="O21" s="355"/>
+      <c r="P21" s="355"/>
+      <c r="Q21" s="355"/>
+      <c r="R21" s="220"/>
+      <c r="S21" s="221"/>
       <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" ht="14.25" customHeight="1">
@@ -3256,14 +3256,14 @@
       <c r="T22" s="51"/>
     </row>
     <row r="23" spans="2:20" ht="30.75" customHeight="1">
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="317" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="319"/>
+      <c r="G23" s="319"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3" t="s">
         <v>106</v>
@@ -3273,12 +3273,12 @@
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="288"/>
-      <c r="S23" s="288"/>
-      <c r="T23" s="289"/>
+      <c r="O23" s="269"/>
+      <c r="P23" s="352"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="323"/>
+      <c r="S23" s="323"/>
+      <c r="T23" s="324"/>
     </row>
     <row r="24" spans="2:20" s="14" customFormat="1" ht="9.75" customHeight="1">
       <c r="B24" s="164"/>
@@ -3307,9 +3307,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
+      <c r="E25" s="296"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3317,10 +3317,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="290"/>
-      <c r="N25" s="290"/>
-      <c r="O25" s="290"/>
-      <c r="P25" s="290"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="296"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="296"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3353,25 +3353,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="227"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="227"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="217"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="229" t="s">
+      <c r="P27" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="230"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="227"/>
+      <c r="Q27" s="304"/>
+      <c r="R27" s="216"/>
+      <c r="S27" s="217"/>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="2:20" ht="11.25" customHeight="1">
@@ -3401,23 +3401,23 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="228" t="s">
+      <c r="E29" s="216"/>
+      <c r="F29" s="273"/>
+      <c r="G29" s="273"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="273"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="229"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="226"/>
-      <c r="P29" s="226"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="226"/>
-      <c r="S29" s="227"/>
+      <c r="L29" s="303"/>
+      <c r="M29" s="304"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="273"/>
+      <c r="Q29" s="273"/>
+      <c r="R29" s="273"/>
+      <c r="S29" s="217"/>
       <c r="T29" s="49"/>
     </row>
     <row r="30" spans="2:20" s="14" customFormat="1" ht="11.25" customHeight="1">
@@ -3447,25 +3447,25 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="227"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="273"/>
+      <c r="G31" s="217"/>
       <c r="H31" s="155"/>
       <c r="I31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="227"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
       <c r="L31" s="157"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="229" t="s">
+      <c r="N31" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
+      <c r="O31" s="304"/>
+      <c r="P31" s="347"/>
+      <c r="Q31" s="347"/>
+      <c r="R31" s="347"/>
+      <c r="S31" s="347"/>
       <c r="T31" s="49"/>
     </row>
     <row r="32" spans="2:20" ht="24.75" customHeight="1">
@@ -3506,14 +3506,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
-      <c r="H33" s="228" t="s">
+      <c r="H33" s="302" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="229"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="229"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="230"/>
+      <c r="I33" s="303"/>
+      <c r="J33" s="303"/>
+      <c r="K33" s="303"/>
+      <c r="L33" s="303"/>
+      <c r="M33" s="304"/>
       <c r="N33" s="156"/>
       <c r="O33" s="156"/>
       <c r="P33" s="3"/>
@@ -3573,10 +3573,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
+      <c r="D36" s="296"/>
+      <c r="E36" s="296"/>
+      <c r="F36" s="296"/>
+      <c r="G36" s="296"/>
       <c r="H36" s="54"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -3594,39 +3594,39 @@
       <c r="T36" s="56"/>
     </row>
     <row r="37" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B37" s="222" t="s">
+      <c r="B37" s="314" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="223"/>
-      <c r="O37" s="223"/>
-      <c r="P37" s="223"/>
-      <c r="Q37" s="223"/>
-      <c r="R37" s="223"/>
-      <c r="S37" s="223"/>
-      <c r="T37" s="224"/>
+      <c r="C37" s="315"/>
+      <c r="D37" s="315"/>
+      <c r="E37" s="315"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="315"/>
+      <c r="H37" s="315"/>
+      <c r="I37" s="315"/>
+      <c r="J37" s="315"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="315"/>
+      <c r="M37" s="315"/>
+      <c r="N37" s="315"/>
+      <c r="O37" s="315"/>
+      <c r="P37" s="315"/>
+      <c r="Q37" s="315"/>
+      <c r="R37" s="315"/>
+      <c r="S37" s="315"/>
+      <c r="T37" s="316"/>
     </row>
     <row r="38" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B38" s="284" t="s">
+      <c r="B38" s="320" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="285"/>
-      <c r="I38" s="285"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
       <c r="J38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>62</v>
       </c>
       <c r="L38" s="157"/>
-      <c r="M38" s="287" t="s">
+      <c r="M38" s="322" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="287"/>
-      <c r="O38" s="287"/>
-      <c r="P38" s="287"/>
-      <c r="Q38" s="287"/>
+      <c r="N38" s="322"/>
+      <c r="O38" s="322"/>
+      <c r="P38" s="322"/>
+      <c r="Q38" s="322"/>
       <c r="R38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3650,22 +3650,22 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B39" s="284"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="285"/>
-      <c r="I39" s="285"/>
+      <c r="B39" s="320"/>
+      <c r="C39" s="321"/>
+      <c r="D39" s="321"/>
+      <c r="E39" s="321"/>
+      <c r="F39" s="321"/>
+      <c r="G39" s="321"/>
+      <c r="H39" s="321"/>
+      <c r="I39" s="321"/>
       <c r="J39" s="202"/>
       <c r="K39" s="202"/>
       <c r="L39" s="31"/>
-      <c r="M39" s="287"/>
-      <c r="N39" s="287"/>
-      <c r="O39" s="287"/>
-      <c r="P39" s="287"/>
-      <c r="Q39" s="287"/>
+      <c r="M39" s="322"/>
+      <c r="N39" s="322"/>
+      <c r="O39" s="322"/>
+      <c r="P39" s="322"/>
+      <c r="Q39" s="322"/>
       <c r="R39" s="202"/>
       <c r="S39" s="202"/>
       <c r="T39" s="47"/>
@@ -3692,12 +3692,12 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B41" s="293" t="s">
+      <c r="B41" s="286" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="294"/>
-      <c r="D41" s="294"/>
-      <c r="E41" s="294"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="287"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
       <c r="H41" s="34"/>
@@ -3728,12 +3728,12 @@
       <c r="J42" s="162"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
+      <c r="M42" s="288"/>
+      <c r="N42" s="288"/>
+      <c r="O42" s="288"/>
+      <c r="P42" s="288"/>
+      <c r="Q42" s="288"/>
+      <c r="R42" s="288"/>
       <c r="S42" s="166"/>
       <c r="T42" s="53"/>
     </row>
@@ -3744,21 +3744,21 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="305" t="s">
+      <c r="F43" s="216"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="305"/>
-      <c r="J43" s="305"/>
-      <c r="K43" s="305"/>
+      <c r="I43" s="289"/>
+      <c r="J43" s="289"/>
+      <c r="K43" s="289"/>
       <c r="L43" s="167"/>
-      <c r="M43" s="306"/>
-      <c r="N43" s="307"/>
-      <c r="O43" s="307"/>
-      <c r="P43" s="307"/>
-      <c r="Q43" s="307"/>
-      <c r="R43" s="308"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="291"/>
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291"/>
+      <c r="R43" s="292"/>
       <c r="S43" s="4"/>
       <c r="T43" s="51"/>
     </row>
@@ -3769,17 +3769,17 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="305"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="305"/>
-      <c r="K44" s="305"/>
+      <c r="H44" s="289"/>
+      <c r="I44" s="289"/>
+      <c r="J44" s="289"/>
+      <c r="K44" s="289"/>
       <c r="L44" s="167"/>
-      <c r="M44" s="309"/>
-      <c r="N44" s="310"/>
-      <c r="O44" s="310"/>
-      <c r="P44" s="310"/>
-      <c r="Q44" s="310"/>
-      <c r="R44" s="311"/>
+      <c r="M44" s="293"/>
+      <c r="N44" s="294"/>
+      <c r="O44" s="294"/>
+      <c r="P44" s="294"/>
+      <c r="Q44" s="294"/>
+      <c r="R44" s="295"/>
       <c r="S44" s="4"/>
       <c r="T44" s="51"/>
     </row>
@@ -3787,52 +3787,52 @@
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="157"/>
-      <c r="E45" s="295" t="s">
+      <c r="E45" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="295"/>
+      <c r="F45" s="309"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="283"/>
-      <c r="Q45" s="283"/>
-      <c r="R45" s="283"/>
+      <c r="M45" s="308"/>
+      <c r="N45" s="308"/>
+      <c r="O45" s="308"/>
+      <c r="P45" s="308"/>
+      <c r="Q45" s="308"/>
+      <c r="R45" s="308"/>
       <c r="S45" s="4"/>
       <c r="T45" s="51"/>
     </row>
     <row r="46" spans="2:20" ht="21" customHeight="1">
-      <c r="B46" s="312" t="s">
+      <c r="B46" s="300" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="313"/>
-      <c r="D46" s="313"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="301"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="296"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="283"/>
-      <c r="N46" s="283"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="283"/>
-      <c r="Q46" s="283"/>
-      <c r="R46" s="283"/>
+      <c r="M46" s="308"/>
+      <c r="N46" s="308"/>
+      <c r="O46" s="308"/>
+      <c r="P46" s="308"/>
+      <c r="Q46" s="308"/>
+      <c r="R46" s="308"/>
       <c r="S46" s="4"/>
       <c r="T46" s="51"/>
     </row>
     <row r="47" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B47" s="299"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="300"/>
+      <c r="B47" s="283"/>
+      <c r="C47" s="284"/>
+      <c r="D47" s="284"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -3866,10 +3866,10 @@
       <c r="J48" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="257" t="s">
+      <c r="K48" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="257"/>
+      <c r="L48" s="339"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="29"/>
@@ -3891,8 +3891,8 @@
       <c r="H49" s="25"/>
       <c r="I49" s="28"/>
       <c r="J49" s="204"/>
-      <c r="K49" s="291"/>
-      <c r="L49" s="291"/>
+      <c r="K49" s="305"/>
+      <c r="L49" s="305"/>
       <c r="M49" s="12"/>
       <c r="N49" s="29"/>
       <c r="O49" s="12"/>
@@ -3952,8 +3952,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="268"/>
-      <c r="H52" s="268"/>
+      <c r="G52" s="234"/>
+      <c r="H52" s="234"/>
       <c r="I52" s="159" t="s">
         <v>94</v>
       </c>
@@ -4028,11 +4028,11 @@
       <c r="I55" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="216"/>
-      <c r="K55" s="217"/>
-      <c r="L55" s="217"/>
-      <c r="M55" s="217"/>
-      <c r="N55" s="218"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="223"/>
+      <c r="L55" s="223"/>
+      <c r="M55" s="223"/>
+      <c r="N55" s="224"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
@@ -4062,11 +4062,11 @@
       <c r="T56" s="47"/>
     </row>
     <row r="57" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B57" s="292" t="s">
+      <c r="B57" s="306" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="260"/>
-      <c r="D57" s="260"/>
+      <c r="C57" s="307"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="171"/>
       <c r="F57" s="159"/>
       <c r="G57" s="25"/>
@@ -4129,10 +4129,10 @@
       <c r="N59" s="176"/>
       <c r="O59" s="26"/>
       <c r="P59" s="24"/>
-      <c r="Q59" s="261" t="s">
+      <c r="Q59" s="342" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="261"/>
+      <c r="R59" s="342"/>
       <c r="S59" s="25"/>
       <c r="T59" s="47"/>
     </row>
@@ -4148,16 +4148,16 @@
       <c r="J60" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="250"/>
-      <c r="L60" s="251"/>
-      <c r="M60" s="251"/>
-      <c r="N60" s="252"/>
+      <c r="K60" s="214"/>
+      <c r="L60" s="335"/>
+      <c r="M60" s="335"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="Q60" s="250"/>
-      <c r="R60" s="252"/>
+      <c r="Q60" s="214"/>
+      <c r="R60" s="215"/>
       <c r="S60" s="25"/>
       <c r="T60" s="47"/>
     </row>
@@ -4183,18 +4183,18 @@
       <c r="T61" s="47"/>
     </row>
     <row r="62" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B62" s="297" t="s">
+      <c r="B62" s="311" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="298"/>
-      <c r="D62" s="298"/>
-      <c r="E62" s="298"/>
-      <c r="F62" s="298"/>
-      <c r="G62" s="298"/>
-      <c r="H62" s="298"/>
-      <c r="I62" s="298"/>
-      <c r="J62" s="298"/>
-      <c r="K62" s="298"/>
+      <c r="C62" s="312"/>
+      <c r="D62" s="312"/>
+      <c r="E62" s="312"/>
+      <c r="F62" s="312"/>
+      <c r="G62" s="312"/>
+      <c r="H62" s="312"/>
+      <c r="I62" s="312"/>
+      <c r="J62" s="312"/>
+      <c r="K62" s="312"/>
       <c r="L62" s="163"/>
       <c r="M62" s="138"/>
       <c r="N62" s="162"/>
@@ -4206,16 +4206,16 @@
       <c r="T62" s="47"/>
     </row>
     <row r="63" spans="2:20" ht="24" customHeight="1">
-      <c r="B63" s="297"/>
-      <c r="C63" s="298"/>
-      <c r="D63" s="298"/>
-      <c r="E63" s="298"/>
-      <c r="F63" s="298"/>
-      <c r="G63" s="298"/>
-      <c r="H63" s="298"/>
-      <c r="I63" s="298"/>
-      <c r="J63" s="298"/>
-      <c r="K63" s="298"/>
+      <c r="B63" s="311"/>
+      <c r="C63" s="312"/>
+      <c r="D63" s="312"/>
+      <c r="E63" s="312"/>
+      <c r="F63" s="312"/>
+      <c r="G63" s="312"/>
+      <c r="H63" s="312"/>
+      <c r="I63" s="312"/>
+      <c r="J63" s="312"/>
+      <c r="K63" s="312"/>
       <c r="L63" s="163"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
@@ -4227,36 +4227,36 @@
       <c r="T63" s="47"/>
     </row>
     <row r="64" spans="2:20" ht="37.5" customHeight="1">
-      <c r="B64" s="293" t="s">
+      <c r="B64" s="286" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="294"/>
-      <c r="D64" s="294"/>
-      <c r="E64" s="294"/>
-      <c r="F64" s="268" t="s">
+      <c r="C64" s="287"/>
+      <c r="D64" s="287"/>
+      <c r="E64" s="287"/>
+      <c r="F64" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="268"/>
-      <c r="H64" s="269" t="s">
+      <c r="G64" s="234"/>
+      <c r="H64" s="235" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="269"/>
-      <c r="J64" s="269"/>
-      <c r="K64" s="269" t="s">
+      <c r="I64" s="235"/>
+      <c r="J64" s="235"/>
+      <c r="K64" s="235" t="s">
         <v>190</v>
       </c>
-      <c r="L64" s="269"/>
-      <c r="M64" s="268"/>
-      <c r="N64" s="268"/>
-      <c r="O64" s="274" t="s">
+      <c r="L64" s="235"/>
+      <c r="M64" s="234"/>
+      <c r="N64" s="234"/>
+      <c r="O64" s="297" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="275"/>
-      <c r="Q64" s="276"/>
-      <c r="R64" s="274" t="s">
+      <c r="P64" s="298"/>
+      <c r="Q64" s="299"/>
+      <c r="R64" s="297" t="s">
         <v>188</v>
       </c>
-      <c r="S64" s="276"/>
+      <c r="S64" s="299"/>
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="31.5" customHeight="1">
@@ -4264,20 +4264,20 @@
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
       <c r="E65" s="161"/>
-      <c r="F65" s="268"/>
-      <c r="G65" s="268"/>
-      <c r="H65" s="269"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="269"/>
-      <c r="K65" s="268"/>
-      <c r="L65" s="268"/>
-      <c r="M65" s="268"/>
-      <c r="N65" s="268"/>
-      <c r="O65" s="274"/>
-      <c r="P65" s="275"/>
-      <c r="Q65" s="276"/>
-      <c r="R65" s="274"/>
-      <c r="S65" s="276"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
+      <c r="J65" s="235"/>
+      <c r="K65" s="234"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="234"/>
+      <c r="N65" s="234"/>
+      <c r="O65" s="297"/>
+      <c r="P65" s="298"/>
+      <c r="Q65" s="299"/>
+      <c r="R65" s="297"/>
+      <c r="S65" s="299"/>
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="27.75" customHeight="1">
@@ -4285,20 +4285,20 @@
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
       <c r="E66" s="161"/>
-      <c r="F66" s="268"/>
-      <c r="G66" s="268"/>
-      <c r="H66" s="269"/>
-      <c r="I66" s="269"/>
-      <c r="J66" s="269"/>
-      <c r="K66" s="268"/>
-      <c r="L66" s="268"/>
-      <c r="M66" s="268"/>
-      <c r="N66" s="268"/>
-      <c r="O66" s="274"/>
-      <c r="P66" s="275"/>
-      <c r="Q66" s="276"/>
-      <c r="R66" s="274"/>
-      <c r="S66" s="276"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="234"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="235"/>
+      <c r="K66" s="234"/>
+      <c r="L66" s="234"/>
+      <c r="M66" s="234"/>
+      <c r="N66" s="234"/>
+      <c r="O66" s="297"/>
+      <c r="P66" s="298"/>
+      <c r="Q66" s="299"/>
+      <c r="R66" s="297"/>
+      <c r="S66" s="299"/>
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="27.75" customHeight="1">
@@ -4306,20 +4306,20 @@
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
-      <c r="F67" s="268"/>
-      <c r="G67" s="268"/>
-      <c r="H67" s="269"/>
-      <c r="I67" s="269"/>
-      <c r="J67" s="269"/>
-      <c r="K67" s="268"/>
-      <c r="L67" s="268"/>
-      <c r="M67" s="268"/>
-      <c r="N67" s="268"/>
-      <c r="O67" s="274"/>
-      <c r="P67" s="275"/>
-      <c r="Q67" s="276"/>
-      <c r="R67" s="274"/>
-      <c r="S67" s="276"/>
+      <c r="F67" s="234"/>
+      <c r="G67" s="234"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
+      <c r="J67" s="235"/>
+      <c r="K67" s="234"/>
+      <c r="L67" s="234"/>
+      <c r="M67" s="234"/>
+      <c r="N67" s="234"/>
+      <c r="O67" s="297"/>
+      <c r="P67" s="298"/>
+      <c r="Q67" s="299"/>
+      <c r="R67" s="297"/>
+      <c r="S67" s="299"/>
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="27.75" customHeight="1">
@@ -4327,20 +4327,20 @@
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
-      <c r="F68" s="268"/>
-      <c r="G68" s="268"/>
-      <c r="H68" s="269"/>
-      <c r="I68" s="269"/>
-      <c r="J68" s="269"/>
-      <c r="K68" s="268"/>
-      <c r="L68" s="268"/>
-      <c r="M68" s="268"/>
-      <c r="N68" s="268"/>
-      <c r="O68" s="274"/>
-      <c r="P68" s="275"/>
-      <c r="Q68" s="276"/>
-      <c r="R68" s="274"/>
-      <c r="S68" s="276"/>
+      <c r="F68" s="234"/>
+      <c r="G68" s="234"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="234"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="234"/>
+      <c r="O68" s="297"/>
+      <c r="P68" s="298"/>
+      <c r="Q68" s="299"/>
+      <c r="R68" s="297"/>
+      <c r="S68" s="299"/>
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="27.75" customHeight="1">
@@ -4348,20 +4348,20 @@
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
-      <c r="F69" s="268"/>
-      <c r="G69" s="268"/>
-      <c r="H69" s="269"/>
-      <c r="I69" s="269"/>
-      <c r="J69" s="269"/>
-      <c r="K69" s="268"/>
-      <c r="L69" s="268"/>
-      <c r="M69" s="268"/>
-      <c r="N69" s="268"/>
-      <c r="O69" s="274"/>
-      <c r="P69" s="275"/>
-      <c r="Q69" s="276"/>
-      <c r="R69" s="274"/>
-      <c r="S69" s="276"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="297"/>
+      <c r="P69" s="298"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="297"/>
+      <c r="S69" s="299"/>
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="11.25" customHeight="1">
@@ -4436,21 +4436,21 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="27" customHeight="1">
-      <c r="B73" s="253" t="s">
+      <c r="B73" s="336" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="254"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="254"/>
-      <c r="F73" s="254"/>
-      <c r="G73" s="254"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="254"/>
-      <c r="J73" s="254"/>
-      <c r="K73" s="254"/>
-      <c r="L73" s="254"/>
-      <c r="M73" s="254"/>
-      <c r="N73" s="254"/>
+      <c r="C73" s="313"/>
+      <c r="D73" s="313"/>
+      <c r="E73" s="313"/>
+      <c r="F73" s="313"/>
+      <c r="G73" s="313"/>
+      <c r="H73" s="313"/>
+      <c r="I73" s="313"/>
+      <c r="J73" s="313"/>
+      <c r="K73" s="313"/>
+      <c r="L73" s="313"/>
+      <c r="M73" s="313"/>
+      <c r="N73" s="313"/>
       <c r="O73" s="157" t="s">
         <v>165</v>
       </c>
@@ -4465,21 +4465,21 @@
       <c r="T73" s="62"/>
     </row>
     <row r="74" spans="2:20" s="32" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B74" s="255" t="s">
+      <c r="B74" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="256"/>
-      <c r="D74" s="256"/>
-      <c r="E74" s="256"/>
-      <c r="F74" s="256"/>
-      <c r="G74" s="256"/>
-      <c r="H74" s="256"/>
-      <c r="I74" s="256"/>
-      <c r="J74" s="256"/>
-      <c r="K74" s="256"/>
-      <c r="L74" s="256"/>
-      <c r="M74" s="256"/>
-      <c r="N74" s="256"/>
+      <c r="C74" s="338"/>
+      <c r="D74" s="338"/>
+      <c r="E74" s="338"/>
+      <c r="F74" s="338"/>
+      <c r="G74" s="338"/>
+      <c r="H74" s="338"/>
+      <c r="I74" s="338"/>
+      <c r="J74" s="338"/>
+      <c r="K74" s="338"/>
+      <c r="L74" s="338"/>
+      <c r="M74" s="338"/>
+      <c r="N74" s="338"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
@@ -4488,17 +4488,17 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="2:20" s="32" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B75" s="258" t="s">
+      <c r="B75" s="340" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="259"/>
-      <c r="D75" s="259"/>
-      <c r="E75" s="259"/>
-      <c r="F75" s="259"/>
-      <c r="G75" s="259"/>
-      <c r="H75" s="259"/>
-      <c r="I75" s="259"/>
-      <c r="J75" s="259"/>
+      <c r="C75" s="341"/>
+      <c r="D75" s="341"/>
+      <c r="E75" s="341"/>
+      <c r="F75" s="341"/>
+      <c r="G75" s="341"/>
+      <c r="H75" s="341"/>
+      <c r="I75" s="341"/>
+      <c r="J75" s="341"/>
       <c r="K75" s="197"/>
       <c r="L75" s="197"/>
       <c r="M75" s="162" t="s">
@@ -4510,20 +4510,20 @@
       <c r="O75" s="197"/>
       <c r="P75" s="197"/>
       <c r="Q75" s="29"/>
-      <c r="R75" s="248"/>
-      <c r="S75" s="248"/>
-      <c r="T75" s="249"/>
+      <c r="R75" s="333"/>
+      <c r="S75" s="333"/>
+      <c r="T75" s="334"/>
     </row>
     <row r="76" spans="2:20" ht="30" customHeight="1">
-      <c r="B76" s="258"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
-      <c r="F76" s="259"/>
-      <c r="G76" s="259"/>
-      <c r="H76" s="259"/>
-      <c r="I76" s="259"/>
-      <c r="J76" s="259"/>
+      <c r="B76" s="340"/>
+      <c r="C76" s="341"/>
+      <c r="D76" s="341"/>
+      <c r="E76" s="341"/>
+      <c r="F76" s="341"/>
+      <c r="G76" s="341"/>
+      <c r="H76" s="341"/>
+      <c r="I76" s="341"/>
+      <c r="J76" s="341"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="28"/>
@@ -4578,36 +4578,36 @@
       <c r="T78" s="168"/>
     </row>
     <row r="79" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B79" s="222" t="s">
+      <c r="B79" s="314" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="223"/>
-      <c r="D79" s="223"/>
-      <c r="E79" s="223"/>
-      <c r="F79" s="223"/>
-      <c r="G79" s="223"/>
-      <c r="H79" s="223"/>
-      <c r="I79" s="223"/>
-      <c r="J79" s="223"/>
-      <c r="K79" s="223"/>
-      <c r="L79" s="223"/>
-      <c r="M79" s="223"/>
-      <c r="N79" s="223"/>
-      <c r="O79" s="223"/>
-      <c r="P79" s="223"/>
-      <c r="Q79" s="223"/>
-      <c r="R79" s="223"/>
-      <c r="S79" s="223"/>
-      <c r="T79" s="224"/>
+      <c r="C79" s="315"/>
+      <c r="D79" s="315"/>
+      <c r="E79" s="315"/>
+      <c r="F79" s="315"/>
+      <c r="G79" s="315"/>
+      <c r="H79" s="315"/>
+      <c r="I79" s="315"/>
+      <c r="J79" s="315"/>
+      <c r="K79" s="315"/>
+      <c r="L79" s="315"/>
+      <c r="M79" s="315"/>
+      <c r="N79" s="315"/>
+      <c r="O79" s="315"/>
+      <c r="P79" s="315"/>
+      <c r="Q79" s="315"/>
+      <c r="R79" s="315"/>
+      <c r="S79" s="315"/>
+      <c r="T79" s="316"/>
     </row>
     <row r="80" spans="2:20" ht="27.75" customHeight="1">
       <c r="B80" s="115"/>
       <c r="C80" s="116"/>
       <c r="D80" s="116"/>
-      <c r="E80" s="263" t="s">
+      <c r="E80" s="344" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="263"/>
+      <c r="F80" s="344"/>
       <c r="G80" s="116"/>
       <c r="H80" s="116"/>
       <c r="I80" s="116"/>
@@ -4629,8 +4629,8 @@
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="225"/>
-      <c r="F81" s="227"/>
+      <c r="E81" s="216"/>
+      <c r="F81" s="217"/>
       <c r="G81" s="152"/>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -4659,10 +4659,10 @@
       <c r="K82" s="116"/>
       <c r="L82" s="116"/>
       <c r="M82" s="116"/>
-      <c r="N82" s="264" t="s">
+      <c r="N82" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="264"/>
+      <c r="O82" s="331"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="152" t="s">
@@ -4736,8 +4736,8 @@
       <c r="C85" s="20"/>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
-      <c r="F85" s="265"/>
-      <c r="G85" s="265"/>
+      <c r="F85" s="274"/>
+      <c r="G85" s="274"/>
       <c r="H85" s="20" t="s">
         <v>6</v>
       </c>
@@ -4980,11 +4980,11 @@
       <c r="N94" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O94" s="277"/>
-      <c r="P94" s="277"/>
-      <c r="Q94" s="277"/>
-      <c r="R94" s="277"/>
-      <c r="S94" s="277"/>
+      <c r="O94" s="330"/>
+      <c r="P94" s="330"/>
+      <c r="Q94" s="330"/>
+      <c r="R94" s="330"/>
+      <c r="S94" s="330"/>
       <c r="T94" s="41"/>
     </row>
     <row r="95" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
@@ -5006,9 +5006,9 @@
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
       <c r="Q95" s="20"/>
-      <c r="R95" s="265"/>
-      <c r="S95" s="265"/>
-      <c r="T95" s="279"/>
+      <c r="R95" s="274"/>
+      <c r="S95" s="274"/>
+      <c r="T95" s="282"/>
     </row>
     <row r="96" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="B96" s="93"/>
@@ -5115,11 +5115,11 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="21"/>
-      <c r="K100" s="277"/>
-      <c r="L100" s="277"/>
-      <c r="M100" s="277"/>
-      <c r="N100" s="277"/>
-      <c r="O100" s="277"/>
+      <c r="K100" s="330"/>
+      <c r="L100" s="330"/>
+      <c r="M100" s="330"/>
+      <c r="N100" s="330"/>
+      <c r="O100" s="330"/>
       <c r="P100" s="20"/>
       <c r="Q100" s="20"/>
       <c r="R100" s="21"/>
@@ -5199,15 +5199,15 @@
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="E104" s="225"/>
-      <c r="F104" s="226"/>
-      <c r="G104" s="227"/>
+      <c r="E104" s="216"/>
+      <c r="F104" s="273"/>
+      <c r="G104" s="217"/>
       <c r="H104" s="178"/>
-      <c r="I104" s="254" t="s">
+      <c r="I104" s="313" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="254"/>
-      <c r="K104" s="254"/>
+      <c r="J104" s="313"/>
+      <c r="K104" s="313"/>
       <c r="L104" s="169"/>
       <c r="M104" s="178" t="s">
         <v>60</v>
@@ -5250,8 +5250,8 @@
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="225"/>
-      <c r="G106" s="227"/>
+      <c r="F106" s="216"/>
+      <c r="G106" s="217"/>
       <c r="H106" s="20" t="s">
         <v>3</v>
       </c>
@@ -5334,15 +5334,15 @@
       <c r="F109" s="178"/>
       <c r="G109" s="20"/>
       <c r="H109" s="178"/>
-      <c r="I109" s="278" t="s">
+      <c r="I109" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="278"/>
-      <c r="K109" s="278"/>
-      <c r="L109" s="278"/>
-      <c r="M109" s="278"/>
-      <c r="N109" s="278"/>
-      <c r="O109" s="278"/>
+      <c r="J109" s="271"/>
+      <c r="K109" s="271"/>
+      <c r="L109" s="271"/>
+      <c r="M109" s="271"/>
+      <c r="N109" s="271"/>
+      <c r="O109" s="271"/>
       <c r="P109" s="169" t="s">
         <v>81</v>
       </c>
@@ -5446,35 +5446,35 @@
       <c r="T113" s="41"/>
     </row>
     <row r="114" spans="2:20" ht="20">
-      <c r="B114" s="222" t="s">
+      <c r="B114" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="223"/>
-      <c r="D114" s="223"/>
-      <c r="E114" s="223"/>
-      <c r="F114" s="223"/>
-      <c r="G114" s="223"/>
-      <c r="H114" s="223"/>
-      <c r="I114" s="223"/>
-      <c r="J114" s="223"/>
-      <c r="K114" s="223"/>
-      <c r="L114" s="223"/>
-      <c r="M114" s="223"/>
-      <c r="N114" s="223"/>
-      <c r="O114" s="223"/>
-      <c r="P114" s="223"/>
-      <c r="Q114" s="223"/>
-      <c r="R114" s="223"/>
-      <c r="S114" s="223"/>
-      <c r="T114" s="224"/>
+      <c r="C114" s="315"/>
+      <c r="D114" s="315"/>
+      <c r="E114" s="315"/>
+      <c r="F114" s="315"/>
+      <c r="G114" s="315"/>
+      <c r="H114" s="315"/>
+      <c r="I114" s="315"/>
+      <c r="J114" s="315"/>
+      <c r="K114" s="315"/>
+      <c r="L114" s="315"/>
+      <c r="M114" s="315"/>
+      <c r="N114" s="315"/>
+      <c r="O114" s="315"/>
+      <c r="P114" s="315"/>
+      <c r="Q114" s="315"/>
+      <c r="R114" s="315"/>
+      <c r="S114" s="315"/>
+      <c r="T114" s="316"/>
     </row>
     <row r="115" spans="2:20" ht="19">
       <c r="B115" s="76"/>
-      <c r="C115" s="262"/>
-      <c r="D115" s="262"/>
-      <c r="E115" s="262"/>
-      <c r="F115" s="262"/>
-      <c r="G115" s="262"/>
+      <c r="C115" s="343"/>
+      <c r="D115" s="343"/>
+      <c r="E115" s="343"/>
+      <c r="F115" s="343"/>
+      <c r="G115" s="343"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -5484,10 +5484,10 @@
       <c r="L115" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="M115" s="263" t="s">
+      <c r="M115" s="344" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="263"/>
+      <c r="N115" s="344"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="21"/>
@@ -5497,20 +5497,20 @@
     </row>
     <row r="116" spans="2:20" ht="20">
       <c r="B116" s="77"/>
-      <c r="C116" s="264" t="s">
+      <c r="C116" s="331" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="264"/>
-      <c r="E116" s="264"/>
-      <c r="F116" s="264"/>
-      <c r="G116" s="264"/>
-      <c r="H116" s="264"/>
+      <c r="D116" s="331"/>
+      <c r="E116" s="331"/>
+      <c r="F116" s="331"/>
+      <c r="G116" s="331"/>
+      <c r="H116" s="331"/>
       <c r="I116" s="78"/>
       <c r="J116" s="27"/>
       <c r="K116" s="200"/>
       <c r="L116" s="200"/>
-      <c r="M116" s="225"/>
-      <c r="N116" s="227"/>
+      <c r="M116" s="216"/>
+      <c r="N116" s="217"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="20"/>
@@ -5520,11 +5520,11 @@
     </row>
     <row r="117" spans="2:20" ht="19">
       <c r="B117" s="153"/>
-      <c r="C117" s="264"/>
-      <c r="D117" s="264"/>
-      <c r="E117" s="264"/>
-      <c r="F117" s="264"/>
-      <c r="G117" s="264"/>
+      <c r="C117" s="331"/>
+      <c r="D117" s="331"/>
+      <c r="E117" s="331"/>
+      <c r="F117" s="331"/>
+      <c r="G117" s="331"/>
       <c r="H117" s="152"/>
       <c r="I117" s="152"/>
       <c r="J117" s="152"/>
@@ -5547,23 +5547,23 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="265"/>
-      <c r="H118" s="265"/>
-      <c r="I118" s="266" t="s">
+      <c r="G118" s="274"/>
+      <c r="H118" s="274"/>
+      <c r="I118" s="345" t="s">
         <v>175</v>
       </c>
-      <c r="J118" s="266"/>
-      <c r="K118" s="266"/>
-      <c r="L118" s="266"/>
-      <c r="M118" s="266"/>
-      <c r="N118" s="266"/>
-      <c r="O118" s="267"/>
-      <c r="P118" s="271"/>
-      <c r="Q118" s="272"/>
-      <c r="R118" s="270" t="s">
+      <c r="J118" s="345"/>
+      <c r="K118" s="345"/>
+      <c r="L118" s="345"/>
+      <c r="M118" s="345"/>
+      <c r="N118" s="345"/>
+      <c r="O118" s="346"/>
+      <c r="P118" s="327"/>
+      <c r="Q118" s="328"/>
+      <c r="R118" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="S118" s="265"/>
+      <c r="S118" s="274"/>
       <c r="T118" s="41"/>
     </row>
     <row r="119" spans="2:20" ht="19">
@@ -5701,8 +5701,8 @@
       <c r="F124" s="202"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
-      <c r="I124" s="273"/>
-      <c r="J124" s="273"/>
+      <c r="I124" s="329"/>
+      <c r="J124" s="329"/>
       <c r="K124" s="86"/>
       <c r="L124" s="86"/>
       <c r="M124" s="86"/>
@@ -5730,10 +5730,10 @@
       <c r="L125" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="319" t="s">
+      <c r="M125" s="267" t="s">
         <v>83</v>
       </c>
-      <c r="N125" s="319"/>
+      <c r="N125" s="267"/>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="25"/>
@@ -5755,8 +5755,8 @@
       <c r="J126" s="24"/>
       <c r="K126" s="199"/>
       <c r="L126" s="199"/>
-      <c r="M126" s="320"/>
-      <c r="N126" s="321"/>
+      <c r="M126" s="220"/>
+      <c r="N126" s="221"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="25"/>
@@ -5787,29 +5787,29 @@
     </row>
     <row r="128" spans="2:20" ht="20">
       <c r="B128" s="80"/>
-      <c r="C128" s="260" t="s">
+      <c r="C128" s="307" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="260"/>
-      <c r="E128" s="260"/>
-      <c r="F128" s="247"/>
-      <c r="G128" s="247"/>
+      <c r="D128" s="307"/>
+      <c r="E128" s="307"/>
+      <c r="F128" s="326"/>
+      <c r="G128" s="326"/>
       <c r="H128" s="82"/>
-      <c r="I128" s="322" t="s">
+      <c r="I128" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="J128" s="322"/>
-      <c r="K128" s="322"/>
-      <c r="L128" s="322"/>
-      <c r="M128" s="322"/>
-      <c r="N128" s="322"/>
-      <c r="O128" s="323"/>
-      <c r="P128" s="250"/>
-      <c r="Q128" s="252"/>
-      <c r="R128" s="246" t="s">
+      <c r="J128" s="236"/>
+      <c r="K128" s="236"/>
+      <c r="L128" s="236"/>
+      <c r="M128" s="236"/>
+      <c r="N128" s="236"/>
+      <c r="O128" s="237"/>
+      <c r="P128" s="214"/>
+      <c r="Q128" s="215"/>
+      <c r="R128" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="S128" s="247"/>
+      <c r="S128" s="326"/>
       <c r="T128" s="81"/>
     </row>
     <row r="129" spans="2:20" ht="19">
@@ -5872,10 +5872,10 @@
       <c r="J131" s="199"/>
       <c r="K131" s="149"/>
       <c r="L131" s="149"/>
-      <c r="M131" s="319" t="s">
+      <c r="M131" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="N131" s="319"/>
+      <c r="N131" s="267"/>
       <c r="O131" s="199"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="177"/>
@@ -5899,14 +5899,14 @@
       <c r="J132" s="199"/>
       <c r="K132" s="149"/>
       <c r="L132" s="149"/>
-      <c r="M132" s="319" t="s">
+      <c r="M132" s="267" t="s">
         <v>78</v>
       </c>
-      <c r="N132" s="319"/>
-      <c r="O132" s="361"/>
-      <c r="P132" s="361"/>
-      <c r="Q132" s="361"/>
-      <c r="R132" s="361"/>
+      <c r="N132" s="267"/>
+      <c r="O132" s="225"/>
+      <c r="P132" s="225"/>
+      <c r="Q132" s="225"/>
+      <c r="R132" s="225"/>
       <c r="S132" s="171"/>
       <c r="T132" s="81"/>
     </row>
@@ -5949,10 +5949,10 @@
       <c r="L134" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="324" t="s">
+      <c r="M134" s="268" t="s">
         <v>83</v>
       </c>
-      <c r="N134" s="324"/>
+      <c r="N134" s="268"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="25"/>
@@ -5974,8 +5974,8 @@
       <c r="J135" s="25"/>
       <c r="K135" s="199"/>
       <c r="L135" s="199"/>
-      <c r="M135" s="238"/>
-      <c r="N135" s="240"/>
+      <c r="M135" s="269"/>
+      <c r="N135" s="270"/>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="25"/>
@@ -6006,29 +6006,29 @@
     </row>
     <row r="137" spans="2:20" ht="20">
       <c r="B137" s="80"/>
-      <c r="C137" s="245" t="s">
+      <c r="C137" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="245"/>
-      <c r="E137" s="245"/>
-      <c r="F137" s="247"/>
-      <c r="G137" s="247"/>
+      <c r="D137" s="332"/>
+      <c r="E137" s="332"/>
+      <c r="F137" s="326"/>
+      <c r="G137" s="326"/>
       <c r="H137" s="82"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="322" t="s">
+      <c r="J137" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="K137" s="322"/>
-      <c r="L137" s="322"/>
-      <c r="M137" s="322"/>
-      <c r="N137" s="322"/>
-      <c r="O137" s="323"/>
-      <c r="P137" s="250"/>
-      <c r="Q137" s="252"/>
-      <c r="R137" s="246" t="s">
+      <c r="K137" s="236"/>
+      <c r="L137" s="236"/>
+      <c r="M137" s="236"/>
+      <c r="N137" s="236"/>
+      <c r="O137" s="237"/>
+      <c r="P137" s="214"/>
+      <c r="Q137" s="215"/>
+      <c r="R137" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="S137" s="247"/>
+      <c r="S137" s="326"/>
       <c r="T137" s="81"/>
     </row>
     <row r="138" spans="2:20" ht="19">
@@ -6249,27 +6249,27 @@
       <c r="T146" s="41"/>
     </row>
     <row r="147" spans="2:20" ht="19">
-      <c r="B147" s="325" t="s">
+      <c r="B147" s="248" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="326"/>
-      <c r="D147" s="326"/>
-      <c r="E147" s="326"/>
-      <c r="F147" s="326"/>
-      <c r="G147" s="326"/>
-      <c r="H147" s="326"/>
-      <c r="I147" s="326"/>
-      <c r="J147" s="326"/>
-      <c r="K147" s="326"/>
-      <c r="L147" s="326"/>
-      <c r="M147" s="326"/>
-      <c r="N147" s="326"/>
-      <c r="O147" s="326"/>
-      <c r="P147" s="326"/>
-      <c r="Q147" s="326"/>
-      <c r="R147" s="326"/>
-      <c r="S147" s="326"/>
-      <c r="T147" s="327"/>
+      <c r="C147" s="249"/>
+      <c r="D147" s="249"/>
+      <c r="E147" s="249"/>
+      <c r="F147" s="249"/>
+      <c r="G147" s="249"/>
+      <c r="H147" s="249"/>
+      <c r="I147" s="249"/>
+      <c r="J147" s="249"/>
+      <c r="K147" s="249"/>
+      <c r="L147" s="249"/>
+      <c r="M147" s="249"/>
+      <c r="N147" s="249"/>
+      <c r="O147" s="249"/>
+      <c r="P147" s="249"/>
+      <c r="Q147" s="249"/>
+      <c r="R147" s="249"/>
+      <c r="S147" s="249"/>
+      <c r="T147" s="250"/>
     </row>
     <row r="148" spans="2:20" ht="19">
       <c r="B148" s="76"/>
@@ -6312,12 +6312,12 @@
       <c r="J149" s="104"/>
       <c r="K149" s="104"/>
       <c r="L149" s="104"/>
-      <c r="M149" s="316"/>
-      <c r="N149" s="317"/>
-      <c r="O149" s="317"/>
-      <c r="P149" s="317"/>
-      <c r="Q149" s="317"/>
-      <c r="R149" s="318"/>
+      <c r="M149" s="264"/>
+      <c r="N149" s="265"/>
+      <c r="O149" s="265"/>
+      <c r="P149" s="265"/>
+      <c r="Q149" s="265"/>
+      <c r="R149" s="266"/>
       <c r="S149" s="20"/>
       <c r="T149" s="41"/>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
-      <c r="E157" s="359"/>
-      <c r="F157" s="360"/>
+      <c r="E157" s="218"/>
+      <c r="F157" s="219"/>
       <c r="G157" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H157" s="178"/>
       <c r="I157" s="89"/>
-      <c r="J157" s="278" t="s">
+      <c r="J157" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="K157" s="278"/>
-      <c r="L157" s="278"/>
-      <c r="M157" s="278"/>
-      <c r="N157" s="328"/>
-      <c r="O157" s="225"/>
-      <c r="P157" s="227"/>
+      <c r="K157" s="271"/>
+      <c r="L157" s="271"/>
+      <c r="M157" s="271"/>
+      <c r="N157" s="272"/>
+      <c r="O157" s="216"/>
+      <c r="P157" s="217"/>
       <c r="Q157" s="20" t="s">
         <v>3</v>
       </c>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="359"/>
-      <c r="F159" s="360"/>
+      <c r="E159" s="218"/>
+      <c r="F159" s="219"/>
       <c r="G159" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H159" s="11"/>
-      <c r="I159" s="362" t="s">
+      <c r="I159" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="J159" s="362"/>
-      <c r="K159" s="363"/>
-      <c r="L159" s="359"/>
-      <c r="M159" s="360"/>
+      <c r="J159" s="226"/>
+      <c r="K159" s="227"/>
+      <c r="L159" s="218"/>
+      <c r="M159" s="219"/>
       <c r="N159" s="178" t="s">
         <v>3</v>
       </c>
@@ -6557,8 +6557,8 @@
         <v>45</v>
       </c>
       <c r="Q159" s="144"/>
-      <c r="R159" s="359"/>
-      <c r="S159" s="360"/>
+      <c r="R159" s="218"/>
+      <c r="S159" s="219"/>
       <c r="T159" s="41"/>
     </row>
     <row r="160" spans="2:20" ht="9" customHeight="1">
@@ -6583,27 +6583,27 @@
       <c r="T160" s="41"/>
     </row>
     <row r="161" spans="2:20" ht="19">
-      <c r="B161" s="325" t="s">
+      <c r="B161" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="326"/>
-      <c r="D161" s="326"/>
-      <c r="E161" s="326"/>
-      <c r="F161" s="326"/>
-      <c r="G161" s="326"/>
-      <c r="H161" s="326"/>
-      <c r="I161" s="326"/>
-      <c r="J161" s="326"/>
-      <c r="K161" s="326"/>
-      <c r="L161" s="326"/>
-      <c r="M161" s="326"/>
-      <c r="N161" s="326"/>
-      <c r="O161" s="326"/>
-      <c r="P161" s="326"/>
-      <c r="Q161" s="326"/>
-      <c r="R161" s="326"/>
-      <c r="S161" s="326"/>
-      <c r="T161" s="327"/>
+      <c r="C161" s="249"/>
+      <c r="D161" s="249"/>
+      <c r="E161" s="249"/>
+      <c r="F161" s="249"/>
+      <c r="G161" s="249"/>
+      <c r="H161" s="249"/>
+      <c r="I161" s="249"/>
+      <c r="J161" s="249"/>
+      <c r="K161" s="249"/>
+      <c r="L161" s="249"/>
+      <c r="M161" s="249"/>
+      <c r="N161" s="249"/>
+      <c r="O161" s="249"/>
+      <c r="P161" s="249"/>
+      <c r="Q161" s="249"/>
+      <c r="R161" s="249"/>
+      <c r="S161" s="249"/>
+      <c r="T161" s="250"/>
     </row>
     <row r="162" spans="2:20" ht="9" customHeight="1">
       <c r="B162" s="76"/>
@@ -6631,9 +6631,9 @@
         <v>90</v>
       </c>
       <c r="C163" s="20"/>
-      <c r="D163" s="225"/>
-      <c r="E163" s="226"/>
-      <c r="F163" s="227"/>
+      <c r="D163" s="216"/>
+      <c r="E163" s="273"/>
+      <c r="F163" s="217"/>
       <c r="G163" s="20" t="s">
         <v>88</v>
       </c>
@@ -6653,10 +6653,10 @@
         <v>65</v>
       </c>
       <c r="Q163" s="42"/>
-      <c r="R163" s="265" t="s">
+      <c r="R163" s="274" t="s">
         <v>66</v>
       </c>
-      <c r="S163" s="265"/>
+      <c r="S163" s="274"/>
       <c r="T163" s="90"/>
     </row>
     <row r="164" spans="2:20" ht="12" customHeight="1">
@@ -6686,8 +6686,8 @@
       </c>
       <c r="C165" s="92"/>
       <c r="D165" s="42"/>
-      <c r="E165" s="225"/>
-      <c r="F165" s="227"/>
+      <c r="E165" s="216"/>
+      <c r="F165" s="217"/>
       <c r="G165" s="178" t="s">
         <v>3</v>
       </c>
@@ -6732,8 +6732,8 @@
       </c>
       <c r="C167" s="20"/>
       <c r="D167" s="89"/>
-      <c r="E167" s="225"/>
-      <c r="F167" s="227"/>
+      <c r="E167" s="216"/>
+      <c r="F167" s="217"/>
       <c r="G167" s="178" t="s">
         <v>3</v>
       </c>
@@ -6785,15 +6785,15 @@
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="225"/>
-      <c r="I169" s="227"/>
-      <c r="J169" s="270" t="s">
+      <c r="H169" s="216"/>
+      <c r="I169" s="217"/>
+      <c r="J169" s="281" t="s">
         <v>125</v>
       </c>
-      <c r="K169" s="265"/>
-      <c r="L169" s="265"/>
-      <c r="M169" s="265"/>
-      <c r="N169" s="279"/>
+      <c r="K169" s="274"/>
+      <c r="L169" s="274"/>
+      <c r="M169" s="274"/>
+      <c r="N169" s="282"/>
       <c r="O169" s="202"/>
       <c r="P169" s="202"/>
       <c r="Q169" s="42"/>
@@ -6846,236 +6846,236 @@
       <c r="T171" s="94"/>
     </row>
     <row r="172" spans="2:20" ht="19">
-      <c r="B172" s="325" t="s">
+      <c r="B172" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="326"/>
-      <c r="D172" s="326"/>
-      <c r="E172" s="326"/>
-      <c r="F172" s="326"/>
-      <c r="G172" s="326"/>
-      <c r="H172" s="326"/>
-      <c r="I172" s="326"/>
-      <c r="J172" s="326"/>
-      <c r="K172" s="326"/>
-      <c r="L172" s="326"/>
-      <c r="M172" s="326"/>
-      <c r="N172" s="326"/>
-      <c r="O172" s="326"/>
-      <c r="P172" s="326"/>
-      <c r="Q172" s="326"/>
-      <c r="R172" s="326"/>
-      <c r="S172" s="326"/>
-      <c r="T172" s="327"/>
+      <c r="C172" s="249"/>
+      <c r="D172" s="249"/>
+      <c r="E172" s="249"/>
+      <c r="F172" s="249"/>
+      <c r="G172" s="249"/>
+      <c r="H172" s="249"/>
+      <c r="I172" s="249"/>
+      <c r="J172" s="249"/>
+      <c r="K172" s="249"/>
+      <c r="L172" s="249"/>
+      <c r="M172" s="249"/>
+      <c r="N172" s="249"/>
+      <c r="O172" s="249"/>
+      <c r="P172" s="249"/>
+      <c r="Q172" s="249"/>
+      <c r="R172" s="249"/>
+      <c r="S172" s="249"/>
+      <c r="T172" s="250"/>
     </row>
     <row r="173" spans="2:20" ht="19">
-      <c r="B173" s="338" t="s">
+      <c r="B173" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="339"/>
-      <c r="D173" s="339"/>
-      <c r="E173" s="340"/>
-      <c r="F173" s="344" t="s">
+      <c r="C173" s="245"/>
+      <c r="D173" s="245"/>
+      <c r="E173" s="246"/>
+      <c r="F173" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="G173" s="345"/>
-      <c r="H173" s="352" t="s">
+      <c r="G173" s="252"/>
+      <c r="H173" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="I173" s="354" t="s">
+      <c r="I173" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="356"/>
-      <c r="K173" s="354" t="s">
+      <c r="J173" s="229"/>
+      <c r="K173" s="228" t="s">
         <v>201</v>
       </c>
-      <c r="L173" s="356"/>
-      <c r="M173" s="354" t="s">
+      <c r="L173" s="229"/>
+      <c r="M173" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="N173" s="355"/>
-      <c r="O173" s="355"/>
-      <c r="P173" s="355"/>
-      <c r="Q173" s="356"/>
-      <c r="R173" s="346" t="s">
+      <c r="N173" s="261"/>
+      <c r="O173" s="261"/>
+      <c r="P173" s="261"/>
+      <c r="Q173" s="229"/>
+      <c r="R173" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="S173" s="347"/>
-      <c r="T173" s="348"/>
+      <c r="S173" s="254"/>
+      <c r="T173" s="255"/>
     </row>
     <row r="174" spans="2:20" ht="19">
-      <c r="B174" s="341"/>
-      <c r="C174" s="342"/>
-      <c r="D174" s="342"/>
-      <c r="E174" s="343"/>
+      <c r="B174" s="230"/>
+      <c r="C174" s="247"/>
+      <c r="D174" s="247"/>
+      <c r="E174" s="231"/>
       <c r="F174" s="102" t="s">
         <v>119</v>
       </c>
       <c r="G174" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H174" s="353"/>
-      <c r="I174" s="341"/>
-      <c r="J174" s="343"/>
-      <c r="K174" s="341"/>
-      <c r="L174" s="343"/>
-      <c r="M174" s="341"/>
-      <c r="N174" s="342"/>
-      <c r="O174" s="342"/>
-      <c r="P174" s="342"/>
-      <c r="Q174" s="343"/>
-      <c r="R174" s="349"/>
-      <c r="S174" s="350"/>
-      <c r="T174" s="351"/>
+      <c r="H174" s="260"/>
+      <c r="I174" s="230"/>
+      <c r="J174" s="231"/>
+      <c r="K174" s="230"/>
+      <c r="L174" s="231"/>
+      <c r="M174" s="230"/>
+      <c r="N174" s="247"/>
+      <c r="O174" s="247"/>
+      <c r="P174" s="247"/>
+      <c r="Q174" s="231"/>
+      <c r="R174" s="256"/>
+      <c r="S174" s="257"/>
+      <c r="T174" s="258"/>
     </row>
     <row r="175" spans="2:20" ht="20">
-      <c r="B175" s="301"/>
-      <c r="C175" s="302"/>
-      <c r="D175" s="302"/>
-      <c r="E175" s="303"/>
+      <c r="B175" s="232"/>
+      <c r="C175" s="243"/>
+      <c r="D175" s="243"/>
+      <c r="E175" s="233"/>
       <c r="F175" s="207"/>
       <c r="G175" s="207"/>
       <c r="H175" s="201"/>
-      <c r="I175" s="336"/>
-      <c r="J175" s="337"/>
-      <c r="K175" s="301"/>
-      <c r="L175" s="303"/>
-      <c r="M175" s="304"/>
-      <c r="N175" s="304"/>
-      <c r="O175" s="304"/>
-      <c r="P175" s="304"/>
-      <c r="Q175" s="304"/>
-      <c r="R175" s="301"/>
-      <c r="S175" s="302"/>
-      <c r="T175" s="303"/>
+      <c r="I175" s="241"/>
+      <c r="J175" s="242"/>
+      <c r="K175" s="232"/>
+      <c r="L175" s="233"/>
+      <c r="M175" s="285"/>
+      <c r="N175" s="285"/>
+      <c r="O175" s="285"/>
+      <c r="P175" s="285"/>
+      <c r="Q175" s="285"/>
+      <c r="R175" s="232"/>
+      <c r="S175" s="243"/>
+      <c r="T175" s="233"/>
     </row>
     <row r="176" spans="2:20" ht="20">
-      <c r="B176" s="301"/>
-      <c r="C176" s="302"/>
-      <c r="D176" s="302"/>
-      <c r="E176" s="303"/>
+      <c r="B176" s="232"/>
+      <c r="C176" s="243"/>
+      <c r="D176" s="243"/>
+      <c r="E176" s="233"/>
       <c r="F176" s="211"/>
       <c r="G176" s="211"/>
       <c r="H176" s="201"/>
-      <c r="I176" s="232"/>
-      <c r="J176" s="234"/>
-      <c r="K176" s="301"/>
-      <c r="L176" s="303"/>
-      <c r="M176" s="301"/>
-      <c r="N176" s="302"/>
-      <c r="O176" s="302"/>
-      <c r="P176" s="302"/>
-      <c r="Q176" s="303"/>
-      <c r="R176" s="301"/>
-      <c r="S176" s="302"/>
-      <c r="T176" s="303"/>
+      <c r="I176" s="239"/>
+      <c r="J176" s="240"/>
+      <c r="K176" s="232"/>
+      <c r="L176" s="233"/>
+      <c r="M176" s="232"/>
+      <c r="N176" s="243"/>
+      <c r="O176" s="243"/>
+      <c r="P176" s="243"/>
+      <c r="Q176" s="233"/>
+      <c r="R176" s="232"/>
+      <c r="S176" s="243"/>
+      <c r="T176" s="233"/>
     </row>
     <row r="177" spans="2:20" ht="20">
-      <c r="B177" s="301"/>
-      <c r="C177" s="302"/>
-      <c r="D177" s="302"/>
-      <c r="E177" s="303"/>
+      <c r="B177" s="232"/>
+      <c r="C177" s="243"/>
+      <c r="D177" s="243"/>
+      <c r="E177" s="233"/>
       <c r="F177" s="211"/>
       <c r="G177" s="211"/>
       <c r="H177" s="201"/>
-      <c r="I177" s="232"/>
-      <c r="J177" s="234"/>
-      <c r="K177" s="301"/>
-      <c r="L177" s="303"/>
-      <c r="M177" s="301"/>
-      <c r="N177" s="302"/>
-      <c r="O177" s="302"/>
-      <c r="P177" s="302"/>
-      <c r="Q177" s="303"/>
-      <c r="R177" s="301"/>
-      <c r="S177" s="302"/>
-      <c r="T177" s="303"/>
+      <c r="I177" s="239"/>
+      <c r="J177" s="240"/>
+      <c r="K177" s="232"/>
+      <c r="L177" s="233"/>
+      <c r="M177" s="232"/>
+      <c r="N177" s="243"/>
+      <c r="O177" s="243"/>
+      <c r="P177" s="243"/>
+      <c r="Q177" s="233"/>
+      <c r="R177" s="232"/>
+      <c r="S177" s="243"/>
+      <c r="T177" s="233"/>
     </row>
     <row r="178" spans="2:20" ht="20">
-      <c r="B178" s="301"/>
-      <c r="C178" s="302"/>
-      <c r="D178" s="302"/>
-      <c r="E178" s="303"/>
+      <c r="B178" s="232"/>
+      <c r="C178" s="243"/>
+      <c r="D178" s="243"/>
+      <c r="E178" s="233"/>
       <c r="F178" s="211"/>
       <c r="G178" s="211"/>
       <c r="H178" s="201"/>
-      <c r="I178" s="232"/>
-      <c r="J178" s="234"/>
-      <c r="K178" s="301"/>
-      <c r="L178" s="303"/>
-      <c r="M178" s="301"/>
-      <c r="N178" s="302"/>
-      <c r="O178" s="302"/>
-      <c r="P178" s="302"/>
-      <c r="Q178" s="303"/>
-      <c r="R178" s="301"/>
-      <c r="S178" s="302"/>
-      <c r="T178" s="303"/>
+      <c r="I178" s="239"/>
+      <c r="J178" s="240"/>
+      <c r="K178" s="232"/>
+      <c r="L178" s="233"/>
+      <c r="M178" s="232"/>
+      <c r="N178" s="243"/>
+      <c r="O178" s="243"/>
+      <c r="P178" s="243"/>
+      <c r="Q178" s="233"/>
+      <c r="R178" s="232"/>
+      <c r="S178" s="243"/>
+      <c r="T178" s="233"/>
     </row>
     <row r="179" spans="2:20" ht="20">
-      <c r="B179" s="301"/>
-      <c r="C179" s="302"/>
-      <c r="D179" s="302"/>
-      <c r="E179" s="303"/>
+      <c r="B179" s="232"/>
+      <c r="C179" s="243"/>
+      <c r="D179" s="243"/>
+      <c r="E179" s="233"/>
       <c r="F179" s="211"/>
       <c r="G179" s="211"/>
       <c r="H179" s="201"/>
-      <c r="I179" s="232"/>
-      <c r="J179" s="234"/>
-      <c r="K179" s="301"/>
-      <c r="L179" s="303"/>
-      <c r="M179" s="301"/>
-      <c r="N179" s="302"/>
-      <c r="O179" s="302"/>
-      <c r="P179" s="302"/>
-      <c r="Q179" s="303"/>
-      <c r="R179" s="301"/>
-      <c r="S179" s="302"/>
-      <c r="T179" s="303"/>
+      <c r="I179" s="239"/>
+      <c r="J179" s="240"/>
+      <c r="K179" s="232"/>
+      <c r="L179" s="233"/>
+      <c r="M179" s="232"/>
+      <c r="N179" s="243"/>
+      <c r="O179" s="243"/>
+      <c r="P179" s="243"/>
+      <c r="Q179" s="233"/>
+      <c r="R179" s="232"/>
+      <c r="S179" s="243"/>
+      <c r="T179" s="233"/>
     </row>
     <row r="180" spans="2:20" ht="20">
-      <c r="B180" s="301"/>
-      <c r="C180" s="302"/>
-      <c r="D180" s="302"/>
-      <c r="E180" s="303"/>
+      <c r="B180" s="232"/>
+      <c r="C180" s="243"/>
+      <c r="D180" s="243"/>
+      <c r="E180" s="233"/>
       <c r="F180" s="211"/>
       <c r="G180" s="211"/>
       <c r="H180" s="201"/>
-      <c r="I180" s="232"/>
-      <c r="J180" s="234"/>
-      <c r="K180" s="301"/>
-      <c r="L180" s="303"/>
-      <c r="M180" s="304"/>
-      <c r="N180" s="304"/>
-      <c r="O180" s="304"/>
-      <c r="P180" s="304"/>
-      <c r="Q180" s="304"/>
-      <c r="R180" s="301"/>
-      <c r="S180" s="302"/>
-      <c r="T180" s="303"/>
+      <c r="I180" s="239"/>
+      <c r="J180" s="240"/>
+      <c r="K180" s="232"/>
+      <c r="L180" s="233"/>
+      <c r="M180" s="285"/>
+      <c r="N180" s="285"/>
+      <c r="O180" s="285"/>
+      <c r="P180" s="285"/>
+      <c r="Q180" s="285"/>
+      <c r="R180" s="232"/>
+      <c r="S180" s="243"/>
+      <c r="T180" s="233"/>
     </row>
     <row r="181" spans="2:20" ht="17.5">
-      <c r="B181" s="329" t="s">
+      <c r="B181" s="275" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="330"/>
-      <c r="D181" s="330"/>
-      <c r="E181" s="330"/>
-      <c r="F181" s="330"/>
-      <c r="G181" s="330"/>
-      <c r="H181" s="330"/>
-      <c r="I181" s="330"/>
-      <c r="J181" s="330"/>
-      <c r="K181" s="330"/>
-      <c r="L181" s="330"/>
-      <c r="M181" s="330"/>
-      <c r="N181" s="330"/>
-      <c r="O181" s="330"/>
-      <c r="P181" s="330"/>
-      <c r="Q181" s="330"/>
-      <c r="R181" s="330"/>
-      <c r="S181" s="330"/>
-      <c r="T181" s="331"/>
+      <c r="C181" s="276"/>
+      <c r="D181" s="276"/>
+      <c r="E181" s="276"/>
+      <c r="F181" s="276"/>
+      <c r="G181" s="276"/>
+      <c r="H181" s="276"/>
+      <c r="I181" s="276"/>
+      <c r="J181" s="276"/>
+      <c r="K181" s="276"/>
+      <c r="L181" s="276"/>
+      <c r="M181" s="276"/>
+      <c r="N181" s="276"/>
+      <c r="O181" s="276"/>
+      <c r="P181" s="276"/>
+      <c r="Q181" s="276"/>
+      <c r="R181" s="276"/>
+      <c r="S181" s="276"/>
+      <c r="T181" s="277"/>
     </row>
     <row r="182" spans="2:20" ht="17.5">
       <c r="B182" s="107" t="s">
@@ -7123,12 +7123,12 @@
     </row>
     <row r="184" spans="2:20" ht="20">
       <c r="B184" s="44"/>
-      <c r="C184" s="332" t="s">
+      <c r="C184" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="D184" s="332"/>
-      <c r="E184" s="332"/>
-      <c r="F184" s="332"/>
+      <c r="D184" s="278"/>
+      <c r="E184" s="278"/>
+      <c r="F184" s="278"/>
       <c r="G184" s="12"/>
       <c r="H184" s="11"/>
       <c r="I184" s="68" t="s">
@@ -7148,24 +7148,24 @@
     </row>
     <row r="185" spans="2:20" ht="26.25" customHeight="1">
       <c r="B185" s="44"/>
-      <c r="C185" s="315"/>
-      <c r="D185" s="315"/>
-      <c r="E185" s="315"/>
-      <c r="F185" s="315"/>
+      <c r="C185" s="263"/>
+      <c r="D185" s="263"/>
+      <c r="E185" s="263"/>
+      <c r="F185" s="263"/>
       <c r="G185" s="12"/>
       <c r="H185" s="11"/>
-      <c r="I185" s="315"/>
-      <c r="J185" s="315"/>
-      <c r="K185" s="315"/>
-      <c r="L185" s="315"/>
-      <c r="M185" s="315"/>
-      <c r="N185" s="333" t="s">
+      <c r="I185" s="263"/>
+      <c r="J185" s="263"/>
+      <c r="K185" s="263"/>
+      <c r="L185" s="263"/>
+      <c r="M185" s="263"/>
+      <c r="N185" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="333"/>
-      <c r="P185" s="334"/>
-      <c r="Q185" s="357"/>
-      <c r="R185" s="358"/>
+      <c r="O185" s="279"/>
+      <c r="P185" s="280"/>
+      <c r="Q185" s="212"/>
+      <c r="R185" s="213"/>
       <c r="S185" s="155" t="s">
         <v>3</v>
       </c>
@@ -7173,17 +7173,17 @@
     </row>
     <row r="186" spans="2:20" ht="28.5" customHeight="1">
       <c r="B186" s="44"/>
-      <c r="C186" s="335"/>
-      <c r="D186" s="335"/>
-      <c r="E186" s="335"/>
-      <c r="F186" s="335"/>
+      <c r="C186" s="238"/>
+      <c r="D186" s="238"/>
+      <c r="E186" s="238"/>
+      <c r="F186" s="238"/>
       <c r="G186" s="12"/>
       <c r="H186" s="11"/>
-      <c r="I186" s="335"/>
-      <c r="J186" s="335"/>
-      <c r="K186" s="335"/>
-      <c r="L186" s="335"/>
-      <c r="M186" s="335"/>
+      <c r="I186" s="238"/>
+      <c r="J186" s="238"/>
+      <c r="K186" s="238"/>
+      <c r="L186" s="238"/>
+      <c r="M186" s="238"/>
       <c r="N186" s="12"/>
       <c r="O186" s="95"/>
       <c r="P186" s="95"/>
@@ -7200,13 +7200,13 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="11"/>
-      <c r="I187" s="314" t="s">
+      <c r="I187" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="J187" s="314"/>
-      <c r="K187" s="314"/>
-      <c r="L187" s="314"/>
-      <c r="M187" s="314"/>
+      <c r="J187" s="262"/>
+      <c r="K187" s="262"/>
+      <c r="L187" s="262"/>
+      <c r="M187" s="262"/>
       <c r="N187" s="12"/>
       <c r="O187" s="95"/>
       <c r="P187" s="95"/>
@@ -7223,11 +7223,11 @@
       <c r="F188" s="12"/>
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
-      <c r="I188" s="315"/>
-      <c r="J188" s="315"/>
-      <c r="K188" s="315"/>
-      <c r="L188" s="315"/>
-      <c r="M188" s="315"/>
+      <c r="I188" s="263"/>
+      <c r="J188" s="263"/>
+      <c r="K188" s="263"/>
+      <c r="L188" s="263"/>
+      <c r="M188" s="263"/>
       <c r="N188" s="37"/>
       <c r="O188" s="37"/>
       <c r="P188" s="95"/>
@@ -7259,6 +7259,198 @@
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B75:J76"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:O118"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="B114:T114"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:I39"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M38:Q39"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="R178:T178"/>
+    <mergeCell ref="R179:T179"/>
+    <mergeCell ref="R180:T180"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="M43:R44"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="M149:R149"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B147:T147"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="B161:T161"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B173:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B172:T172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="R173:T174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="M173:Q174"/>
+    <mergeCell ref="I173:J174"/>
+    <mergeCell ref="R175:T175"/>
     <mergeCell ref="Q185:R185"/>
     <mergeCell ref="P137:Q137"/>
     <mergeCell ref="O157:P157"/>
@@ -7283,198 +7475,6 @@
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="J137:O137"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="M176:Q176"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B173:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B172:T172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="R173:T174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="M173:Q174"/>
-    <mergeCell ref="I173:J174"/>
-    <mergeCell ref="R175:T175"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="M149:R149"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B147:T147"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="B161:T161"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="R178:T178"/>
-    <mergeCell ref="R179:T179"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="M175:Q175"/>
-    <mergeCell ref="M180:Q180"/>
-    <mergeCell ref="M178:Q178"/>
-    <mergeCell ref="M177:Q177"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="M43:R44"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I109:O109"/>
-    <mergeCell ref="B114:T114"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B37:T37"/>
-    <mergeCell ref="B38:I39"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M38:Q39"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B75:J76"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:O118"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="B79:T79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Formatos/Estudio_de_caso_nCOV_2020.xlsx
+++ b/Formatos/Estudio_de_caso_nCOV_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\source\repos\OneProject.Medical.Forms\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E1291-BA05-416C-84B2-9D913578004C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32791FF-0461-4508-B7B9-891C0085410F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QUWXMaeGjuUt4zZYobJ34740iStqnl0RVGXUprJ17ILmK1kNCmObGDVVeU06GYkJRAcZKQIy0ExsOiQwMD2ezw==" workbookSaltValue="nXkPjPfGI4aEBZ1SH2jd/A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1732,43 +1732,451 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,414 +2187,6 @@
     </xf>
     <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2693,7 +2693,7 @@
   <dimension ref="B1:Y189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2804,78 +2804,78 @@
       <c r="T4" s="45"/>
     </row>
     <row r="5" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
-      <c r="T5" s="359"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="214"/>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="315"/>
-      <c r="N6" s="315"/>
-      <c r="O6" s="315"/>
-      <c r="P6" s="315"/>
-      <c r="Q6" s="315"/>
-      <c r="R6" s="315"/>
-      <c r="S6" s="315"/>
-      <c r="T6" s="316"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="224"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
       <c r="B7" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="211"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="350"/>
+      <c r="E7" s="236"/>
       <c r="F7" s="201"/>
-      <c r="G7" s="351" t="s">
+      <c r="G7" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="350"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="354"/>
-      <c r="K7" s="350" t="s">
+      <c r="H7" s="236"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="350"/>
-      <c r="M7" s="350"/>
-      <c r="N7" s="350"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
       <c r="O7" s="101"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="348"/>
-      <c r="R7" s="348"/>
-      <c r="S7" s="240"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
       <c r="T7" s="47"/>
     </row>
     <row r="8" spans="2:20" ht="9" customHeight="1">
@@ -2903,21 +2903,21 @@
       <c r="B9" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="240"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="36"/>
       <c r="G9" s="184" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="348"/>
-      <c r="O9" s="240"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="234"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
@@ -2925,27 +2925,27 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="2:20" ht="28.5" customHeight="1">
-      <c r="B10" s="314" t="s">
+      <c r="B10" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="315"/>
-      <c r="K10" s="315"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="315"/>
-      <c r="N10" s="315"/>
-      <c r="O10" s="315"/>
-      <c r="P10" s="315"/>
-      <c r="Q10" s="315"/>
-      <c r="R10" s="315"/>
-      <c r="S10" s="315"/>
-      <c r="T10" s="316"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="223"/>
+      <c r="T10" s="224"/>
     </row>
     <row r="11" spans="2:20" ht="24.75" customHeight="1">
       <c r="B11" s="189" t="s">
@@ -2953,9 +2953,9 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="356"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2974,10 +2974,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="349" t="s">
+      <c r="E12" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="349"/>
+      <c r="F12" s="235"/>
       <c r="G12" s="157"/>
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
@@ -3015,32 +3015,32 @@
       <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B14" s="302" t="s">
+      <c r="B14" s="228" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="303"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="216" t="s">
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="225" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="273"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="302" t="s">
+      <c r="F14" s="226"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="303"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="273"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="302" t="s">
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="273"/>
-      <c r="S14" s="217"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="227"/>
       <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" ht="9.75" customHeight="1">
@@ -3089,12 +3089,12 @@
       <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="222"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="224"/>
+      <c r="N16" s="216"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="217"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="218"/>
       <c r="T16" s="49"/>
     </row>
     <row r="17" spans="2:20" ht="9.75" customHeight="1">
@@ -3119,66 +3119,66 @@
       <c r="T17" s="49"/>
     </row>
     <row r="18" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B18" s="362" t="s">
+      <c r="B18" s="220" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="148"/>
-      <c r="E18" s="363" t="s">
+      <c r="E18" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="360"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="360" t="s">
+      <c r="I18" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="360"/>
+      <c r="J18" s="215"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="360" t="s">
+      <c r="M18" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="360"/>
-      <c r="O18" s="360"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
       <c r="P18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="Q18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="361" t="s">
+      <c r="R18" s="219" t="s">
         <v>166</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" ht="23.25" customHeight="1">
-      <c r="B19" s="362"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="148"/>
-      <c r="E19" s="363"/>
-      <c r="F19" s="360"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="215"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="360"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
       <c r="K19" s="148"/>
       <c r="L19" s="162"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="360"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
       <c r="P19" s="148"/>
       <c r="Q19" s="148"/>
-      <c r="R19" s="361"/>
+      <c r="R19" s="219"/>
       <c r="S19" s="148"/>
       <c r="T19" s="51"/>
     </row>
@@ -3214,24 +3214,24 @@
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="222"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="308" t="s">
+      <c r="F21" s="216"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="283" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="310"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="224"/>
+      <c r="I21" s="296"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="218"/>
       <c r="L21" s="162"/>
       <c r="M21" s="145"/>
-      <c r="N21" s="355" t="s">
+      <c r="N21" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="355"/>
-      <c r="P21" s="355"/>
-      <c r="Q21" s="355"/>
-      <c r="R21" s="220"/>
-      <c r="S21" s="221"/>
+      <c r="O21" s="243"/>
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243"/>
+      <c r="R21" s="320"/>
+      <c r="S21" s="321"/>
       <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" ht="14.25" customHeight="1">
@@ -3256,14 +3256,14 @@
       <c r="T22" s="51"/>
     </row>
     <row r="23" spans="2:20" ht="30.75" customHeight="1">
-      <c r="B23" s="317" t="s">
+      <c r="B23" s="280" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="318"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3" t="s">
         <v>106</v>
@@ -3273,12 +3273,12 @@
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="269"/>
-      <c r="P23" s="352"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="323"/>
-      <c r="S23" s="323"/>
-      <c r="T23" s="324"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="288"/>
+      <c r="S23" s="288"/>
+      <c r="T23" s="289"/>
     </row>
     <row r="24" spans="2:20" s="14" customFormat="1" ht="9.75" customHeight="1">
       <c r="B24" s="164"/>
@@ -3307,9 +3307,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="296"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3317,10 +3317,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="296"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="296"/>
+      <c r="M25" s="290"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="290"/>
+      <c r="P25" s="290"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3353,25 +3353,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="217"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="227"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="217"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="227"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="303" t="s">
+      <c r="P27" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="304"/>
-      <c r="R27" s="216"/>
-      <c r="S27" s="217"/>
+      <c r="Q27" s="230"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="227"/>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="2:20" ht="11.25" customHeight="1">
@@ -3401,23 +3401,23 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="273"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="273"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="302" t="s">
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="303"/>
-      <c r="M29" s="304"/>
-      <c r="N29" s="216"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="273"/>
-      <c r="S29" s="217"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="227"/>
       <c r="T29" s="49"/>
     </row>
     <row r="30" spans="2:20" s="14" customFormat="1" ht="11.25" customHeight="1">
@@ -3447,25 +3447,25 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="217"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="227"/>
       <c r="H31" s="155"/>
       <c r="I31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="216"/>
-      <c r="K31" s="217"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="227"/>
       <c r="L31" s="157"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="303" t="s">
+      <c r="N31" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="304"/>
-      <c r="P31" s="347"/>
-      <c r="Q31" s="347"/>
-      <c r="R31" s="347"/>
-      <c r="S31" s="347"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
       <c r="T31" s="49"/>
     </row>
     <row r="32" spans="2:20" ht="24.75" customHeight="1">
@@ -3506,14 +3506,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
-      <c r="H33" s="302" t="s">
+      <c r="H33" s="228" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="303"/>
-      <c r="J33" s="303"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="303"/>
-      <c r="M33" s="304"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="230"/>
       <c r="N33" s="156"/>
       <c r="O33" s="156"/>
       <c r="P33" s="3"/>
@@ -3573,10 +3573,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="296"/>
-      <c r="F36" s="296"/>
-      <c r="G36" s="296"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
       <c r="H36" s="54"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -3594,39 +3594,39 @@
       <c r="T36" s="56"/>
     </row>
     <row r="37" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B37" s="314" t="s">
+      <c r="B37" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="315"/>
-      <c r="D37" s="315"/>
-      <c r="E37" s="315"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="315"/>
-      <c r="J37" s="315"/>
-      <c r="K37" s="315"/>
-      <c r="L37" s="315"/>
-      <c r="M37" s="315"/>
-      <c r="N37" s="315"/>
-      <c r="O37" s="315"/>
-      <c r="P37" s="315"/>
-      <c r="Q37" s="315"/>
-      <c r="R37" s="315"/>
-      <c r="S37" s="315"/>
-      <c r="T37" s="316"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="223"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="223"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="223"/>
+      <c r="K37" s="223"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223"/>
+      <c r="O37" s="223"/>
+      <c r="P37" s="223"/>
+      <c r="Q37" s="223"/>
+      <c r="R37" s="223"/>
+      <c r="S37" s="223"/>
+      <c r="T37" s="224"/>
     </row>
     <row r="38" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B38" s="320" t="s">
+      <c r="B38" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="285"/>
       <c r="J38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>62</v>
       </c>
       <c r="L38" s="157"/>
-      <c r="M38" s="322" t="s">
+      <c r="M38" s="287" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="322"/>
-      <c r="O38" s="322"/>
-      <c r="P38" s="322"/>
-      <c r="Q38" s="322"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="287"/>
+      <c r="P38" s="287"/>
+      <c r="Q38" s="287"/>
       <c r="R38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3650,22 +3650,22 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B39" s="320"/>
-      <c r="C39" s="321"/>
-      <c r="D39" s="321"/>
-      <c r="E39" s="321"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="321"/>
+      <c r="B39" s="284"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="285"/>
+      <c r="H39" s="285"/>
+      <c r="I39" s="285"/>
       <c r="J39" s="202"/>
       <c r="K39" s="202"/>
       <c r="L39" s="31"/>
-      <c r="M39" s="322"/>
-      <c r="N39" s="322"/>
-      <c r="O39" s="322"/>
-      <c r="P39" s="322"/>
-      <c r="Q39" s="322"/>
+      <c r="M39" s="287"/>
+      <c r="N39" s="287"/>
+      <c r="O39" s="287"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="R39" s="202"/>
       <c r="S39" s="202"/>
       <c r="T39" s="47"/>
@@ -3692,12 +3692,12 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="293" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="287"/>
+      <c r="C41" s="294"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="294"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
       <c r="H41" s="34"/>
@@ -3728,12 +3728,12 @@
       <c r="J42" s="162"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="288"/>
-      <c r="N42" s="288"/>
-      <c r="O42" s="288"/>
-      <c r="P42" s="288"/>
-      <c r="Q42" s="288"/>
-      <c r="R42" s="288"/>
+      <c r="M42" s="286"/>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
       <c r="S42" s="166"/>
       <c r="T42" s="53"/>
     </row>
@@ -3744,21 +3744,21 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="289" t="s">
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="305" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="289"/>
-      <c r="J43" s="289"/>
-      <c r="K43" s="289"/>
+      <c r="I43" s="305"/>
+      <c r="J43" s="305"/>
+      <c r="K43" s="305"/>
       <c r="L43" s="167"/>
-      <c r="M43" s="290"/>
-      <c r="N43" s="291"/>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291"/>
-      <c r="R43" s="292"/>
+      <c r="M43" s="306"/>
+      <c r="N43" s="307"/>
+      <c r="O43" s="307"/>
+      <c r="P43" s="307"/>
+      <c r="Q43" s="307"/>
+      <c r="R43" s="308"/>
       <c r="S43" s="4"/>
       <c r="T43" s="51"/>
     </row>
@@ -3769,17 +3769,17 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="289"/>
-      <c r="I44" s="289"/>
-      <c r="J44" s="289"/>
-      <c r="K44" s="289"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="305"/>
+      <c r="K44" s="305"/>
       <c r="L44" s="167"/>
-      <c r="M44" s="293"/>
-      <c r="N44" s="294"/>
-      <c r="O44" s="294"/>
-      <c r="P44" s="294"/>
-      <c r="Q44" s="294"/>
-      <c r="R44" s="295"/>
+      <c r="M44" s="309"/>
+      <c r="N44" s="310"/>
+      <c r="O44" s="310"/>
+      <c r="P44" s="310"/>
+      <c r="Q44" s="310"/>
+      <c r="R44" s="311"/>
       <c r="S44" s="4"/>
       <c r="T44" s="51"/>
     </row>
@@ -3787,52 +3787,52 @@
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="157"/>
-      <c r="E45" s="309" t="s">
+      <c r="E45" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="309"/>
+      <c r="F45" s="295"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="308"/>
-      <c r="N45" s="308"/>
-      <c r="O45" s="308"/>
-      <c r="P45" s="308"/>
-      <c r="Q45" s="308"/>
-      <c r="R45" s="308"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="283"/>
+      <c r="Q45" s="283"/>
+      <c r="R45" s="283"/>
       <c r="S45" s="4"/>
       <c r="T45" s="51"/>
     </row>
     <row r="46" spans="2:20" ht="21" customHeight="1">
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="301"/>
-      <c r="D46" s="301"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="296"/>
+      <c r="C46" s="313"/>
+      <c r="D46" s="313"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="308"/>
-      <c r="N46" s="308"/>
-      <c r="O46" s="308"/>
-      <c r="P46" s="308"/>
-      <c r="Q46" s="308"/>
-      <c r="R46" s="308"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
       <c r="S46" s="4"/>
       <c r="T46" s="51"/>
     </row>
     <row r="47" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B47" s="283"/>
-      <c r="C47" s="284"/>
-      <c r="D47" s="284"/>
+      <c r="B47" s="299"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="300"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -3866,10 +3866,10 @@
       <c r="J48" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="339" t="s">
+      <c r="K48" s="257" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="339"/>
+      <c r="L48" s="257"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="29"/>
@@ -3891,8 +3891,8 @@
       <c r="H49" s="25"/>
       <c r="I49" s="28"/>
       <c r="J49" s="204"/>
-      <c r="K49" s="305"/>
-      <c r="L49" s="305"/>
+      <c r="K49" s="291"/>
+      <c r="L49" s="291"/>
       <c r="M49" s="12"/>
       <c r="N49" s="29"/>
       <c r="O49" s="12"/>
@@ -3952,8 +3952,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
+      <c r="G52" s="268"/>
+      <c r="H52" s="268"/>
       <c r="I52" s="159" t="s">
         <v>94</v>
       </c>
@@ -4028,11 +4028,11 @@
       <c r="I55" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="222"/>
-      <c r="K55" s="223"/>
-      <c r="L55" s="223"/>
-      <c r="M55" s="223"/>
-      <c r="N55" s="224"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="217"/>
+      <c r="L55" s="217"/>
+      <c r="M55" s="217"/>
+      <c r="N55" s="218"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
@@ -4062,11 +4062,11 @@
       <c r="T56" s="47"/>
     </row>
     <row r="57" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B57" s="306" t="s">
+      <c r="B57" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="307"/>
-      <c r="D57" s="307"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
       <c r="E57" s="171"/>
       <c r="F57" s="159"/>
       <c r="G57" s="25"/>
@@ -4129,10 +4129,10 @@
       <c r="N59" s="176"/>
       <c r="O59" s="26"/>
       <c r="P59" s="24"/>
-      <c r="Q59" s="342" t="s">
+      <c r="Q59" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="342"/>
+      <c r="R59" s="261"/>
       <c r="S59" s="25"/>
       <c r="T59" s="47"/>
     </row>
@@ -4148,16 +4148,16 @@
       <c r="J60" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="214"/>
-      <c r="L60" s="335"/>
-      <c r="M60" s="335"/>
-      <c r="N60" s="215"/>
+      <c r="K60" s="250"/>
+      <c r="L60" s="251"/>
+      <c r="M60" s="251"/>
+      <c r="N60" s="252"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="Q60" s="214"/>
-      <c r="R60" s="215"/>
+      <c r="Q60" s="250"/>
+      <c r="R60" s="252"/>
       <c r="S60" s="25"/>
       <c r="T60" s="47"/>
     </row>
@@ -4183,18 +4183,18 @@
       <c r="T61" s="47"/>
     </row>
     <row r="62" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B62" s="311" t="s">
+      <c r="B62" s="297" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="312"/>
-      <c r="D62" s="312"/>
-      <c r="E62" s="312"/>
-      <c r="F62" s="312"/>
-      <c r="G62" s="312"/>
-      <c r="H62" s="312"/>
-      <c r="I62" s="312"/>
-      <c r="J62" s="312"/>
-      <c r="K62" s="312"/>
+      <c r="C62" s="298"/>
+      <c r="D62" s="298"/>
+      <c r="E62" s="298"/>
+      <c r="F62" s="298"/>
+      <c r="G62" s="298"/>
+      <c r="H62" s="298"/>
+      <c r="I62" s="298"/>
+      <c r="J62" s="298"/>
+      <c r="K62" s="298"/>
       <c r="L62" s="163"/>
       <c r="M62" s="138"/>
       <c r="N62" s="162"/>
@@ -4206,16 +4206,16 @@
       <c r="T62" s="47"/>
     </row>
     <row r="63" spans="2:20" ht="24" customHeight="1">
-      <c r="B63" s="311"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="312"/>
-      <c r="E63" s="312"/>
-      <c r="F63" s="312"/>
-      <c r="G63" s="312"/>
-      <c r="H63" s="312"/>
-      <c r="I63" s="312"/>
-      <c r="J63" s="312"/>
-      <c r="K63" s="312"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="298"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="298"/>
+      <c r="F63" s="298"/>
+      <c r="G63" s="298"/>
+      <c r="H63" s="298"/>
+      <c r="I63" s="298"/>
+      <c r="J63" s="298"/>
+      <c r="K63" s="298"/>
       <c r="L63" s="163"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
@@ -4227,36 +4227,36 @@
       <c r="T63" s="47"/>
     </row>
     <row r="64" spans="2:20" ht="37.5" customHeight="1">
-      <c r="B64" s="286" t="s">
+      <c r="B64" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="287"/>
-      <c r="D64" s="287"/>
-      <c r="E64" s="287"/>
-      <c r="F64" s="234" t="s">
+      <c r="C64" s="294"/>
+      <c r="D64" s="294"/>
+      <c r="E64" s="294"/>
+      <c r="F64" s="268" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="234"/>
-      <c r="H64" s="235" t="s">
+      <c r="G64" s="268"/>
+      <c r="H64" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="235"/>
-      <c r="J64" s="235"/>
-      <c r="K64" s="235" t="s">
+      <c r="I64" s="269"/>
+      <c r="J64" s="269"/>
+      <c r="K64" s="269" t="s">
         <v>190</v>
       </c>
-      <c r="L64" s="235"/>
-      <c r="M64" s="234"/>
-      <c r="N64" s="234"/>
-      <c r="O64" s="297" t="s">
+      <c r="L64" s="269"/>
+      <c r="M64" s="268"/>
+      <c r="N64" s="268"/>
+      <c r="O64" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="298"/>
-      <c r="Q64" s="299"/>
-      <c r="R64" s="297" t="s">
+      <c r="P64" s="275"/>
+      <c r="Q64" s="276"/>
+      <c r="R64" s="274" t="s">
         <v>188</v>
       </c>
-      <c r="S64" s="299"/>
+      <c r="S64" s="276"/>
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="31.5" customHeight="1">
@@ -4264,20 +4264,20 @@
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
       <c r="E65" s="161"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="235"/>
-      <c r="I65" s="235"/>
-      <c r="J65" s="235"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="234"/>
-      <c r="N65" s="234"/>
-      <c r="O65" s="297"/>
-      <c r="P65" s="298"/>
-      <c r="Q65" s="299"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="299"/>
+      <c r="F65" s="268"/>
+      <c r="G65" s="268"/>
+      <c r="H65" s="269"/>
+      <c r="I65" s="269"/>
+      <c r="J65" s="269"/>
+      <c r="K65" s="268"/>
+      <c r="L65" s="268"/>
+      <c r="M65" s="268"/>
+      <c r="N65" s="268"/>
+      <c r="O65" s="274"/>
+      <c r="P65" s="275"/>
+      <c r="Q65" s="276"/>
+      <c r="R65" s="274"/>
+      <c r="S65" s="276"/>
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="27.75" customHeight="1">
@@ -4285,20 +4285,20 @@
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
       <c r="E66" s="161"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="235"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="235"/>
-      <c r="K66" s="234"/>
-      <c r="L66" s="234"/>
-      <c r="M66" s="234"/>
-      <c r="N66" s="234"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="298"/>
-      <c r="Q66" s="299"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="299"/>
+      <c r="F66" s="268"/>
+      <c r="G66" s="268"/>
+      <c r="H66" s="269"/>
+      <c r="I66" s="269"/>
+      <c r="J66" s="269"/>
+      <c r="K66" s="268"/>
+      <c r="L66" s="268"/>
+      <c r="M66" s="268"/>
+      <c r="N66" s="268"/>
+      <c r="O66" s="274"/>
+      <c r="P66" s="275"/>
+      <c r="Q66" s="276"/>
+      <c r="R66" s="274"/>
+      <c r="S66" s="276"/>
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="27.75" customHeight="1">
@@ -4306,20 +4306,20 @@
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="235"/>
-      <c r="I67" s="235"/>
-      <c r="J67" s="235"/>
-      <c r="K67" s="234"/>
-      <c r="L67" s="234"/>
-      <c r="M67" s="234"/>
-      <c r="N67" s="234"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="298"/>
-      <c r="Q67" s="299"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="299"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="268"/>
+      <c r="H67" s="269"/>
+      <c r="I67" s="269"/>
+      <c r="J67" s="269"/>
+      <c r="K67" s="268"/>
+      <c r="L67" s="268"/>
+      <c r="M67" s="268"/>
+      <c r="N67" s="268"/>
+      <c r="O67" s="274"/>
+      <c r="P67" s="275"/>
+      <c r="Q67" s="276"/>
+      <c r="R67" s="274"/>
+      <c r="S67" s="276"/>
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="27.75" customHeight="1">
@@ -4327,20 +4327,20 @@
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="234"/>
-      <c r="L68" s="234"/>
-      <c r="M68" s="234"/>
-      <c r="N68" s="234"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="299"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="299"/>
+      <c r="F68" s="268"/>
+      <c r="G68" s="268"/>
+      <c r="H68" s="269"/>
+      <c r="I68" s="269"/>
+      <c r="J68" s="269"/>
+      <c r="K68" s="268"/>
+      <c r="L68" s="268"/>
+      <c r="M68" s="268"/>
+      <c r="N68" s="268"/>
+      <c r="O68" s="274"/>
+      <c r="P68" s="275"/>
+      <c r="Q68" s="276"/>
+      <c r="R68" s="274"/>
+      <c r="S68" s="276"/>
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="27.75" customHeight="1">
@@ -4348,20 +4348,20 @@
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="235"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="235"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="297"/>
-      <c r="P69" s="298"/>
-      <c r="Q69" s="299"/>
-      <c r="R69" s="297"/>
-      <c r="S69" s="299"/>
+      <c r="F69" s="268"/>
+      <c r="G69" s="268"/>
+      <c r="H69" s="269"/>
+      <c r="I69" s="269"/>
+      <c r="J69" s="269"/>
+      <c r="K69" s="268"/>
+      <c r="L69" s="268"/>
+      <c r="M69" s="268"/>
+      <c r="N69" s="268"/>
+      <c r="O69" s="274"/>
+      <c r="P69" s="275"/>
+      <c r="Q69" s="276"/>
+      <c r="R69" s="274"/>
+      <c r="S69" s="276"/>
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="11.25" customHeight="1">
@@ -4436,21 +4436,21 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="27" customHeight="1">
-      <c r="B73" s="336" t="s">
+      <c r="B73" s="253" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="313"/>
-      <c r="D73" s="313"/>
-      <c r="E73" s="313"/>
-      <c r="F73" s="313"/>
-      <c r="G73" s="313"/>
-      <c r="H73" s="313"/>
-      <c r="I73" s="313"/>
-      <c r="J73" s="313"/>
-      <c r="K73" s="313"/>
-      <c r="L73" s="313"/>
-      <c r="M73" s="313"/>
-      <c r="N73" s="313"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="254"/>
+      <c r="F73" s="254"/>
+      <c r="G73" s="254"/>
+      <c r="H73" s="254"/>
+      <c r="I73" s="254"/>
+      <c r="J73" s="254"/>
+      <c r="K73" s="254"/>
+      <c r="L73" s="254"/>
+      <c r="M73" s="254"/>
+      <c r="N73" s="254"/>
       <c r="O73" s="157" t="s">
         <v>165</v>
       </c>
@@ -4465,21 +4465,21 @@
       <c r="T73" s="62"/>
     </row>
     <row r="74" spans="2:20" s="32" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B74" s="337" t="s">
+      <c r="B74" s="255" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="338"/>
-      <c r="D74" s="338"/>
-      <c r="E74" s="338"/>
-      <c r="F74" s="338"/>
-      <c r="G74" s="338"/>
-      <c r="H74" s="338"/>
-      <c r="I74" s="338"/>
-      <c r="J74" s="338"/>
-      <c r="K74" s="338"/>
-      <c r="L74" s="338"/>
-      <c r="M74" s="338"/>
-      <c r="N74" s="338"/>
+      <c r="C74" s="256"/>
+      <c r="D74" s="256"/>
+      <c r="E74" s="256"/>
+      <c r="F74" s="256"/>
+      <c r="G74" s="256"/>
+      <c r="H74" s="256"/>
+      <c r="I74" s="256"/>
+      <c r="J74" s="256"/>
+      <c r="K74" s="256"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="256"/>
+      <c r="N74" s="256"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
@@ -4488,17 +4488,17 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="2:20" s="32" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B75" s="340" t="s">
+      <c r="B75" s="258" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="341"/>
-      <c r="D75" s="341"/>
-      <c r="E75" s="341"/>
-      <c r="F75" s="341"/>
-      <c r="G75" s="341"/>
-      <c r="H75" s="341"/>
-      <c r="I75" s="341"/>
-      <c r="J75" s="341"/>
+      <c r="C75" s="259"/>
+      <c r="D75" s="259"/>
+      <c r="E75" s="259"/>
+      <c r="F75" s="259"/>
+      <c r="G75" s="259"/>
+      <c r="H75" s="259"/>
+      <c r="I75" s="259"/>
+      <c r="J75" s="259"/>
       <c r="K75" s="197"/>
       <c r="L75" s="197"/>
       <c r="M75" s="162" t="s">
@@ -4510,20 +4510,20 @@
       <c r="O75" s="197"/>
       <c r="P75" s="197"/>
       <c r="Q75" s="29"/>
-      <c r="R75" s="333"/>
-      <c r="S75" s="333"/>
-      <c r="T75" s="334"/>
+      <c r="R75" s="248"/>
+      <c r="S75" s="248"/>
+      <c r="T75" s="249"/>
     </row>
     <row r="76" spans="2:20" ht="30" customHeight="1">
-      <c r="B76" s="340"/>
-      <c r="C76" s="341"/>
-      <c r="D76" s="341"/>
-      <c r="E76" s="341"/>
-      <c r="F76" s="341"/>
-      <c r="G76" s="341"/>
-      <c r="H76" s="341"/>
-      <c r="I76" s="341"/>
-      <c r="J76" s="341"/>
+      <c r="B76" s="258"/>
+      <c r="C76" s="259"/>
+      <c r="D76" s="259"/>
+      <c r="E76" s="259"/>
+      <c r="F76" s="259"/>
+      <c r="G76" s="259"/>
+      <c r="H76" s="259"/>
+      <c r="I76" s="259"/>
+      <c r="J76" s="259"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="28"/>
@@ -4578,36 +4578,36 @@
       <c r="T78" s="168"/>
     </row>
     <row r="79" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B79" s="314" t="s">
+      <c r="B79" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="315"/>
-      <c r="D79" s="315"/>
-      <c r="E79" s="315"/>
-      <c r="F79" s="315"/>
-      <c r="G79" s="315"/>
-      <c r="H79" s="315"/>
-      <c r="I79" s="315"/>
-      <c r="J79" s="315"/>
-      <c r="K79" s="315"/>
-      <c r="L79" s="315"/>
-      <c r="M79" s="315"/>
-      <c r="N79" s="315"/>
-      <c r="O79" s="315"/>
-      <c r="P79" s="315"/>
-      <c r="Q79" s="315"/>
-      <c r="R79" s="315"/>
-      <c r="S79" s="315"/>
-      <c r="T79" s="316"/>
+      <c r="C79" s="223"/>
+      <c r="D79" s="223"/>
+      <c r="E79" s="223"/>
+      <c r="F79" s="223"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+      <c r="K79" s="223"/>
+      <c r="L79" s="223"/>
+      <c r="M79" s="223"/>
+      <c r="N79" s="223"/>
+      <c r="O79" s="223"/>
+      <c r="P79" s="223"/>
+      <c r="Q79" s="223"/>
+      <c r="R79" s="223"/>
+      <c r="S79" s="223"/>
+      <c r="T79" s="224"/>
     </row>
     <row r="80" spans="2:20" ht="27.75" customHeight="1">
       <c r="B80" s="115"/>
       <c r="C80" s="116"/>
       <c r="D80" s="116"/>
-      <c r="E80" s="344" t="s">
+      <c r="E80" s="263" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="344"/>
+      <c r="F80" s="263"/>
       <c r="G80" s="116"/>
       <c r="H80" s="116"/>
       <c r="I80" s="116"/>
@@ -4629,8 +4629,8 @@
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="216"/>
-      <c r="F81" s="217"/>
+      <c r="E81" s="225"/>
+      <c r="F81" s="227"/>
       <c r="G81" s="152"/>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -4659,10 +4659,10 @@
       <c r="K82" s="116"/>
       <c r="L82" s="116"/>
       <c r="M82" s="116"/>
-      <c r="N82" s="331" t="s">
+      <c r="N82" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="331"/>
+      <c r="O82" s="264"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="152" t="s">
@@ -4736,8 +4736,8 @@
       <c r="C85" s="20"/>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
-      <c r="F85" s="274"/>
-      <c r="G85" s="274"/>
+      <c r="F85" s="265"/>
+      <c r="G85" s="265"/>
       <c r="H85" s="20" t="s">
         <v>6</v>
       </c>
@@ -4980,11 +4980,11 @@
       <c r="N94" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O94" s="330"/>
-      <c r="P94" s="330"/>
-      <c r="Q94" s="330"/>
-      <c r="R94" s="330"/>
-      <c r="S94" s="330"/>
+      <c r="O94" s="277"/>
+      <c r="P94" s="277"/>
+      <c r="Q94" s="277"/>
+      <c r="R94" s="277"/>
+      <c r="S94" s="277"/>
       <c r="T94" s="41"/>
     </row>
     <row r="95" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
@@ -5006,9 +5006,9 @@
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
       <c r="Q95" s="20"/>
-      <c r="R95" s="274"/>
-      <c r="S95" s="274"/>
-      <c r="T95" s="282"/>
+      <c r="R95" s="265"/>
+      <c r="S95" s="265"/>
+      <c r="T95" s="279"/>
     </row>
     <row r="96" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="B96" s="93"/>
@@ -5115,11 +5115,11 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="21"/>
-      <c r="K100" s="330"/>
-      <c r="L100" s="330"/>
-      <c r="M100" s="330"/>
-      <c r="N100" s="330"/>
-      <c r="O100" s="330"/>
+      <c r="K100" s="277"/>
+      <c r="L100" s="277"/>
+      <c r="M100" s="277"/>
+      <c r="N100" s="277"/>
+      <c r="O100" s="277"/>
       <c r="P100" s="20"/>
       <c r="Q100" s="20"/>
       <c r="R100" s="21"/>
@@ -5199,15 +5199,15 @@
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="E104" s="216"/>
-      <c r="F104" s="273"/>
-      <c r="G104" s="217"/>
+      <c r="E104" s="225"/>
+      <c r="F104" s="226"/>
+      <c r="G104" s="227"/>
       <c r="H104" s="178"/>
-      <c r="I104" s="313" t="s">
+      <c r="I104" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="313"/>
-      <c r="K104" s="313"/>
+      <c r="J104" s="254"/>
+      <c r="K104" s="254"/>
       <c r="L104" s="169"/>
       <c r="M104" s="178" t="s">
         <v>60</v>
@@ -5250,8 +5250,8 @@
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="216"/>
-      <c r="G106" s="217"/>
+      <c r="F106" s="225"/>
+      <c r="G106" s="227"/>
       <c r="H106" s="20" t="s">
         <v>3</v>
       </c>
@@ -5334,15 +5334,15 @@
       <c r="F109" s="178"/>
       <c r="G109" s="20"/>
       <c r="H109" s="178"/>
-      <c r="I109" s="271" t="s">
+      <c r="I109" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="271"/>
-      <c r="K109" s="271"/>
-      <c r="L109" s="271"/>
-      <c r="M109" s="271"/>
-      <c r="N109" s="271"/>
-      <c r="O109" s="271"/>
+      <c r="J109" s="278"/>
+      <c r="K109" s="278"/>
+      <c r="L109" s="278"/>
+      <c r="M109" s="278"/>
+      <c r="N109" s="278"/>
+      <c r="O109" s="278"/>
       <c r="P109" s="169" t="s">
         <v>81</v>
       </c>
@@ -5446,35 +5446,35 @@
       <c r="T113" s="41"/>
     </row>
     <row r="114" spans="2:20" ht="20">
-      <c r="B114" s="314" t="s">
+      <c r="B114" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="315"/>
-      <c r="D114" s="315"/>
-      <c r="E114" s="315"/>
-      <c r="F114" s="315"/>
-      <c r="G114" s="315"/>
-      <c r="H114" s="315"/>
-      <c r="I114" s="315"/>
-      <c r="J114" s="315"/>
-      <c r="K114" s="315"/>
-      <c r="L114" s="315"/>
-      <c r="M114" s="315"/>
-      <c r="N114" s="315"/>
-      <c r="O114" s="315"/>
-      <c r="P114" s="315"/>
-      <c r="Q114" s="315"/>
-      <c r="R114" s="315"/>
-      <c r="S114" s="315"/>
-      <c r="T114" s="316"/>
+      <c r="C114" s="223"/>
+      <c r="D114" s="223"/>
+      <c r="E114" s="223"/>
+      <c r="F114" s="223"/>
+      <c r="G114" s="223"/>
+      <c r="H114" s="223"/>
+      <c r="I114" s="223"/>
+      <c r="J114" s="223"/>
+      <c r="K114" s="223"/>
+      <c r="L114" s="223"/>
+      <c r="M114" s="223"/>
+      <c r="N114" s="223"/>
+      <c r="O114" s="223"/>
+      <c r="P114" s="223"/>
+      <c r="Q114" s="223"/>
+      <c r="R114" s="223"/>
+      <c r="S114" s="223"/>
+      <c r="T114" s="224"/>
     </row>
     <row r="115" spans="2:20" ht="19">
       <c r="B115" s="76"/>
-      <c r="C115" s="343"/>
-      <c r="D115" s="343"/>
-      <c r="E115" s="343"/>
-      <c r="F115" s="343"/>
-      <c r="G115" s="343"/>
+      <c r="C115" s="262"/>
+      <c r="D115" s="262"/>
+      <c r="E115" s="262"/>
+      <c r="F115" s="262"/>
+      <c r="G115" s="262"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -5484,10 +5484,10 @@
       <c r="L115" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="M115" s="344" t="s">
+      <c r="M115" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="344"/>
+      <c r="N115" s="263"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="21"/>
@@ -5497,20 +5497,20 @@
     </row>
     <row r="116" spans="2:20" ht="20">
       <c r="B116" s="77"/>
-      <c r="C116" s="331" t="s">
+      <c r="C116" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="331"/>
-      <c r="E116" s="331"/>
-      <c r="F116" s="331"/>
-      <c r="G116" s="331"/>
-      <c r="H116" s="331"/>
+      <c r="D116" s="264"/>
+      <c r="E116" s="264"/>
+      <c r="F116" s="264"/>
+      <c r="G116" s="264"/>
+      <c r="H116" s="264"/>
       <c r="I116" s="78"/>
       <c r="J116" s="27"/>
       <c r="K116" s="200"/>
       <c r="L116" s="200"/>
-      <c r="M116" s="216"/>
-      <c r="N116" s="217"/>
+      <c r="M116" s="225"/>
+      <c r="N116" s="227"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="20"/>
@@ -5520,11 +5520,11 @@
     </row>
     <row r="117" spans="2:20" ht="19">
       <c r="B117" s="153"/>
-      <c r="C117" s="331"/>
-      <c r="D117" s="331"/>
-      <c r="E117" s="331"/>
-      <c r="F117" s="331"/>
-      <c r="G117" s="331"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
+      <c r="E117" s="264"/>
+      <c r="F117" s="264"/>
+      <c r="G117" s="264"/>
       <c r="H117" s="152"/>
       <c r="I117" s="152"/>
       <c r="J117" s="152"/>
@@ -5547,23 +5547,23 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="274"/>
-      <c r="H118" s="274"/>
-      <c r="I118" s="345" t="s">
+      <c r="G118" s="265"/>
+      <c r="H118" s="265"/>
+      <c r="I118" s="266" t="s">
         <v>175</v>
       </c>
-      <c r="J118" s="345"/>
-      <c r="K118" s="345"/>
-      <c r="L118" s="345"/>
-      <c r="M118" s="345"/>
-      <c r="N118" s="345"/>
-      <c r="O118" s="346"/>
-      <c r="P118" s="327"/>
-      <c r="Q118" s="328"/>
-      <c r="R118" s="281" t="s">
+      <c r="J118" s="266"/>
+      <c r="K118" s="266"/>
+      <c r="L118" s="266"/>
+      <c r="M118" s="266"/>
+      <c r="N118" s="266"/>
+      <c r="O118" s="267"/>
+      <c r="P118" s="271"/>
+      <c r="Q118" s="272"/>
+      <c r="R118" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="S118" s="274"/>
+      <c r="S118" s="265"/>
       <c r="T118" s="41"/>
     </row>
     <row r="119" spans="2:20" ht="19">
@@ -5701,8 +5701,8 @@
       <c r="F124" s="202"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
-      <c r="I124" s="329"/>
-      <c r="J124" s="329"/>
+      <c r="I124" s="273"/>
+      <c r="J124" s="273"/>
       <c r="K124" s="86"/>
       <c r="L124" s="86"/>
       <c r="M124" s="86"/>
@@ -5730,10 +5730,10 @@
       <c r="L125" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="267" t="s">
+      <c r="M125" s="319" t="s">
         <v>83</v>
       </c>
-      <c r="N125" s="267"/>
+      <c r="N125" s="319"/>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="25"/>
@@ -5755,8 +5755,8 @@
       <c r="J126" s="24"/>
       <c r="K126" s="199"/>
       <c r="L126" s="199"/>
-      <c r="M126" s="220"/>
-      <c r="N126" s="221"/>
+      <c r="M126" s="320"/>
+      <c r="N126" s="321"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="25"/>
@@ -5787,29 +5787,29 @@
     </row>
     <row r="128" spans="2:20" ht="20">
       <c r="B128" s="80"/>
-      <c r="C128" s="307" t="s">
+      <c r="C128" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="307"/>
-      <c r="E128" s="307"/>
-      <c r="F128" s="326"/>
-      <c r="G128" s="326"/>
+      <c r="D128" s="260"/>
+      <c r="E128" s="260"/>
+      <c r="F128" s="247"/>
+      <c r="G128" s="247"/>
       <c r="H128" s="82"/>
-      <c r="I128" s="236" t="s">
+      <c r="I128" s="322" t="s">
         <v>85</v>
       </c>
-      <c r="J128" s="236"/>
-      <c r="K128" s="236"/>
-      <c r="L128" s="236"/>
-      <c r="M128" s="236"/>
-      <c r="N128" s="236"/>
-      <c r="O128" s="237"/>
-      <c r="P128" s="214"/>
-      <c r="Q128" s="215"/>
-      <c r="R128" s="325" t="s">
+      <c r="J128" s="322"/>
+      <c r="K128" s="322"/>
+      <c r="L128" s="322"/>
+      <c r="M128" s="322"/>
+      <c r="N128" s="322"/>
+      <c r="O128" s="323"/>
+      <c r="P128" s="250"/>
+      <c r="Q128" s="252"/>
+      <c r="R128" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="S128" s="326"/>
+      <c r="S128" s="247"/>
       <c r="T128" s="81"/>
     </row>
     <row r="129" spans="2:20" ht="19">
@@ -5872,10 +5872,10 @@
       <c r="J131" s="199"/>
       <c r="K131" s="149"/>
       <c r="L131" s="149"/>
-      <c r="M131" s="267" t="s">
+      <c r="M131" s="319" t="s">
         <v>193</v>
       </c>
-      <c r="N131" s="267"/>
+      <c r="N131" s="319"/>
       <c r="O131" s="199"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="177"/>
@@ -5899,14 +5899,14 @@
       <c r="J132" s="199"/>
       <c r="K132" s="149"/>
       <c r="L132" s="149"/>
-      <c r="M132" s="267" t="s">
+      <c r="M132" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="N132" s="267"/>
-      <c r="O132" s="225"/>
-      <c r="P132" s="225"/>
-      <c r="Q132" s="225"/>
-      <c r="R132" s="225"/>
+      <c r="N132" s="319"/>
+      <c r="O132" s="361"/>
+      <c r="P132" s="361"/>
+      <c r="Q132" s="361"/>
+      <c r="R132" s="361"/>
       <c r="S132" s="171"/>
       <c r="T132" s="81"/>
     </row>
@@ -5949,10 +5949,10 @@
       <c r="L134" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="268" t="s">
+      <c r="M134" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="N134" s="268"/>
+      <c r="N134" s="324"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="25"/>
@@ -5974,8 +5974,8 @@
       <c r="J135" s="25"/>
       <c r="K135" s="199"/>
       <c r="L135" s="199"/>
-      <c r="M135" s="269"/>
-      <c r="N135" s="270"/>
+      <c r="M135" s="238"/>
+      <c r="N135" s="240"/>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="25"/>
@@ -6006,29 +6006,29 @@
     </row>
     <row r="137" spans="2:20" ht="20">
       <c r="B137" s="80"/>
-      <c r="C137" s="332" t="s">
+      <c r="C137" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="332"/>
-      <c r="E137" s="332"/>
-      <c r="F137" s="326"/>
-      <c r="G137" s="326"/>
+      <c r="D137" s="245"/>
+      <c r="E137" s="245"/>
+      <c r="F137" s="247"/>
+      <c r="G137" s="247"/>
       <c r="H137" s="82"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="236" t="s">
+      <c r="J137" s="322" t="s">
         <v>87</v>
       </c>
-      <c r="K137" s="236"/>
-      <c r="L137" s="236"/>
-      <c r="M137" s="236"/>
-      <c r="N137" s="236"/>
-      <c r="O137" s="237"/>
-      <c r="P137" s="214"/>
-      <c r="Q137" s="215"/>
-      <c r="R137" s="325" t="s">
+      <c r="K137" s="322"/>
+      <c r="L137" s="322"/>
+      <c r="M137" s="322"/>
+      <c r="N137" s="322"/>
+      <c r="O137" s="323"/>
+      <c r="P137" s="250"/>
+      <c r="Q137" s="252"/>
+      <c r="R137" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="S137" s="326"/>
+      <c r="S137" s="247"/>
       <c r="T137" s="81"/>
     </row>
     <row r="138" spans="2:20" ht="19">
@@ -6249,27 +6249,27 @@
       <c r="T146" s="41"/>
     </row>
     <row r="147" spans="2:20" ht="19">
-      <c r="B147" s="248" t="s">
+      <c r="B147" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="249"/>
-      <c r="D147" s="249"/>
-      <c r="E147" s="249"/>
-      <c r="F147" s="249"/>
-      <c r="G147" s="249"/>
-      <c r="H147" s="249"/>
-      <c r="I147" s="249"/>
-      <c r="J147" s="249"/>
-      <c r="K147" s="249"/>
-      <c r="L147" s="249"/>
-      <c r="M147" s="249"/>
-      <c r="N147" s="249"/>
-      <c r="O147" s="249"/>
-      <c r="P147" s="249"/>
-      <c r="Q147" s="249"/>
-      <c r="R147" s="249"/>
-      <c r="S147" s="249"/>
-      <c r="T147" s="250"/>
+      <c r="C147" s="326"/>
+      <c r="D147" s="326"/>
+      <c r="E147" s="326"/>
+      <c r="F147" s="326"/>
+      <c r="G147" s="326"/>
+      <c r="H147" s="326"/>
+      <c r="I147" s="326"/>
+      <c r="J147" s="326"/>
+      <c r="K147" s="326"/>
+      <c r="L147" s="326"/>
+      <c r="M147" s="326"/>
+      <c r="N147" s="326"/>
+      <c r="O147" s="326"/>
+      <c r="P147" s="326"/>
+      <c r="Q147" s="326"/>
+      <c r="R147" s="326"/>
+      <c r="S147" s="326"/>
+      <c r="T147" s="327"/>
     </row>
     <row r="148" spans="2:20" ht="19">
       <c r="B148" s="76"/>
@@ -6312,12 +6312,12 @@
       <c r="J149" s="104"/>
       <c r="K149" s="104"/>
       <c r="L149" s="104"/>
-      <c r="M149" s="264"/>
-      <c r="N149" s="265"/>
-      <c r="O149" s="265"/>
-      <c r="P149" s="265"/>
-      <c r="Q149" s="265"/>
-      <c r="R149" s="266"/>
+      <c r="M149" s="316"/>
+      <c r="N149" s="317"/>
+      <c r="O149" s="317"/>
+      <c r="P149" s="317"/>
+      <c r="Q149" s="317"/>
+      <c r="R149" s="318"/>
       <c r="S149" s="20"/>
       <c r="T149" s="41"/>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
-      <c r="E157" s="218"/>
-      <c r="F157" s="219"/>
+      <c r="E157" s="359"/>
+      <c r="F157" s="360"/>
       <c r="G157" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H157" s="178"/>
       <c r="I157" s="89"/>
-      <c r="J157" s="271" t="s">
+      <c r="J157" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="K157" s="271"/>
-      <c r="L157" s="271"/>
-      <c r="M157" s="271"/>
-      <c r="N157" s="272"/>
-      <c r="O157" s="216"/>
-      <c r="P157" s="217"/>
+      <c r="K157" s="278"/>
+      <c r="L157" s="278"/>
+      <c r="M157" s="278"/>
+      <c r="N157" s="328"/>
+      <c r="O157" s="225"/>
+      <c r="P157" s="227"/>
       <c r="Q157" s="20" t="s">
         <v>3</v>
       </c>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="218"/>
-      <c r="F159" s="219"/>
+      <c r="E159" s="359"/>
+      <c r="F159" s="360"/>
       <c r="G159" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H159" s="11"/>
-      <c r="I159" s="226" t="s">
+      <c r="I159" s="362" t="s">
         <v>200</v>
       </c>
-      <c r="J159" s="226"/>
-      <c r="K159" s="227"/>
-      <c r="L159" s="218"/>
-      <c r="M159" s="219"/>
+      <c r="J159" s="362"/>
+      <c r="K159" s="363"/>
+      <c r="L159" s="359"/>
+      <c r="M159" s="360"/>
       <c r="N159" s="178" t="s">
         <v>3</v>
       </c>
@@ -6557,8 +6557,8 @@
         <v>45</v>
       </c>
       <c r="Q159" s="144"/>
-      <c r="R159" s="218"/>
-      <c r="S159" s="219"/>
+      <c r="R159" s="359"/>
+      <c r="S159" s="360"/>
       <c r="T159" s="41"/>
     </row>
     <row r="160" spans="2:20" ht="9" customHeight="1">
@@ -6583,27 +6583,27 @@
       <c r="T160" s="41"/>
     </row>
     <row r="161" spans="2:20" ht="19">
-      <c r="B161" s="248" t="s">
+      <c r="B161" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="249"/>
-      <c r="D161" s="249"/>
-      <c r="E161" s="249"/>
-      <c r="F161" s="249"/>
-      <c r="G161" s="249"/>
-      <c r="H161" s="249"/>
-      <c r="I161" s="249"/>
-      <c r="J161" s="249"/>
-      <c r="K161" s="249"/>
-      <c r="L161" s="249"/>
-      <c r="M161" s="249"/>
-      <c r="N161" s="249"/>
-      <c r="O161" s="249"/>
-      <c r="P161" s="249"/>
-      <c r="Q161" s="249"/>
-      <c r="R161" s="249"/>
-      <c r="S161" s="249"/>
-      <c r="T161" s="250"/>
+      <c r="C161" s="326"/>
+      <c r="D161" s="326"/>
+      <c r="E161" s="326"/>
+      <c r="F161" s="326"/>
+      <c r="G161" s="326"/>
+      <c r="H161" s="326"/>
+      <c r="I161" s="326"/>
+      <c r="J161" s="326"/>
+      <c r="K161" s="326"/>
+      <c r="L161" s="326"/>
+      <c r="M161" s="326"/>
+      <c r="N161" s="326"/>
+      <c r="O161" s="326"/>
+      <c r="P161" s="326"/>
+      <c r="Q161" s="326"/>
+      <c r="R161" s="326"/>
+      <c r="S161" s="326"/>
+      <c r="T161" s="327"/>
     </row>
     <row r="162" spans="2:20" ht="9" customHeight="1">
       <c r="B162" s="76"/>
@@ -6631,9 +6631,9 @@
         <v>90</v>
       </c>
       <c r="C163" s="20"/>
-      <c r="D163" s="216"/>
-      <c r="E163" s="273"/>
-      <c r="F163" s="217"/>
+      <c r="D163" s="225"/>
+      <c r="E163" s="226"/>
+      <c r="F163" s="227"/>
       <c r="G163" s="20" t="s">
         <v>88</v>
       </c>
@@ -6653,10 +6653,10 @@
         <v>65</v>
       </c>
       <c r="Q163" s="42"/>
-      <c r="R163" s="274" t="s">
+      <c r="R163" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="S163" s="274"/>
+      <c r="S163" s="265"/>
       <c r="T163" s="90"/>
     </row>
     <row r="164" spans="2:20" ht="12" customHeight="1">
@@ -6686,8 +6686,8 @@
       </c>
       <c r="C165" s="92"/>
       <c r="D165" s="42"/>
-      <c r="E165" s="216"/>
-      <c r="F165" s="217"/>
+      <c r="E165" s="225"/>
+      <c r="F165" s="227"/>
       <c r="G165" s="178" t="s">
         <v>3</v>
       </c>
@@ -6732,8 +6732,8 @@
       </c>
       <c r="C167" s="20"/>
       <c r="D167" s="89"/>
-      <c r="E167" s="216"/>
-      <c r="F167" s="217"/>
+      <c r="E167" s="225"/>
+      <c r="F167" s="227"/>
       <c r="G167" s="178" t="s">
         <v>3</v>
       </c>
@@ -6785,15 +6785,15 @@
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="216"/>
-      <c r="I169" s="217"/>
-      <c r="J169" s="281" t="s">
+      <c r="H169" s="225"/>
+      <c r="I169" s="227"/>
+      <c r="J169" s="270" t="s">
         <v>125</v>
       </c>
-      <c r="K169" s="274"/>
-      <c r="L169" s="274"/>
-      <c r="M169" s="274"/>
-      <c r="N169" s="282"/>
+      <c r="K169" s="265"/>
+      <c r="L169" s="265"/>
+      <c r="M169" s="265"/>
+      <c r="N169" s="279"/>
       <c r="O169" s="202"/>
       <c r="P169" s="202"/>
       <c r="Q169" s="42"/>
@@ -6846,236 +6846,236 @@
       <c r="T171" s="94"/>
     </row>
     <row r="172" spans="2:20" ht="19">
-      <c r="B172" s="248" t="s">
+      <c r="B172" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="249"/>
-      <c r="D172" s="249"/>
-      <c r="E172" s="249"/>
-      <c r="F172" s="249"/>
-      <c r="G172" s="249"/>
-      <c r="H172" s="249"/>
-      <c r="I172" s="249"/>
-      <c r="J172" s="249"/>
-      <c r="K172" s="249"/>
-      <c r="L172" s="249"/>
-      <c r="M172" s="249"/>
-      <c r="N172" s="249"/>
-      <c r="O172" s="249"/>
-      <c r="P172" s="249"/>
-      <c r="Q172" s="249"/>
-      <c r="R172" s="249"/>
-      <c r="S172" s="249"/>
-      <c r="T172" s="250"/>
+      <c r="C172" s="326"/>
+      <c r="D172" s="326"/>
+      <c r="E172" s="326"/>
+      <c r="F172" s="326"/>
+      <c r="G172" s="326"/>
+      <c r="H172" s="326"/>
+      <c r="I172" s="326"/>
+      <c r="J172" s="326"/>
+      <c r="K172" s="326"/>
+      <c r="L172" s="326"/>
+      <c r="M172" s="326"/>
+      <c r="N172" s="326"/>
+      <c r="O172" s="326"/>
+      <c r="P172" s="326"/>
+      <c r="Q172" s="326"/>
+      <c r="R172" s="326"/>
+      <c r="S172" s="326"/>
+      <c r="T172" s="327"/>
     </row>
     <row r="173" spans="2:20" ht="19">
-      <c r="B173" s="244" t="s">
+      <c r="B173" s="338" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="245"/>
-      <c r="D173" s="245"/>
-      <c r="E173" s="246"/>
-      <c r="F173" s="251" t="s">
+      <c r="C173" s="339"/>
+      <c r="D173" s="339"/>
+      <c r="E173" s="340"/>
+      <c r="F173" s="344" t="s">
         <v>118</v>
       </c>
-      <c r="G173" s="252"/>
-      <c r="H173" s="259" t="s">
+      <c r="G173" s="345"/>
+      <c r="H173" s="352" t="s">
         <v>77</v>
       </c>
-      <c r="I173" s="228" t="s">
+      <c r="I173" s="354" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="229"/>
-      <c r="K173" s="228" t="s">
+      <c r="J173" s="356"/>
+      <c r="K173" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="L173" s="229"/>
-      <c r="M173" s="228" t="s">
+      <c r="L173" s="356"/>
+      <c r="M173" s="354" t="s">
         <v>121</v>
       </c>
-      <c r="N173" s="261"/>
-      <c r="O173" s="261"/>
-      <c r="P173" s="261"/>
-      <c r="Q173" s="229"/>
-      <c r="R173" s="253" t="s">
+      <c r="N173" s="355"/>
+      <c r="O173" s="355"/>
+      <c r="P173" s="355"/>
+      <c r="Q173" s="356"/>
+      <c r="R173" s="346" t="s">
         <v>123</v>
       </c>
-      <c r="S173" s="254"/>
-      <c r="T173" s="255"/>
+      <c r="S173" s="347"/>
+      <c r="T173" s="348"/>
     </row>
     <row r="174" spans="2:20" ht="19">
-      <c r="B174" s="230"/>
-      <c r="C174" s="247"/>
-      <c r="D174" s="247"/>
-      <c r="E174" s="231"/>
+      <c r="B174" s="341"/>
+      <c r="C174" s="342"/>
+      <c r="D174" s="342"/>
+      <c r="E174" s="343"/>
       <c r="F174" s="102" t="s">
         <v>119</v>
       </c>
       <c r="G174" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H174" s="260"/>
-      <c r="I174" s="230"/>
-      <c r="J174" s="231"/>
-      <c r="K174" s="230"/>
-      <c r="L174" s="231"/>
-      <c r="M174" s="230"/>
-      <c r="N174" s="247"/>
-      <c r="O174" s="247"/>
-      <c r="P174" s="247"/>
-      <c r="Q174" s="231"/>
-      <c r="R174" s="256"/>
-      <c r="S174" s="257"/>
-      <c r="T174" s="258"/>
+      <c r="H174" s="353"/>
+      <c r="I174" s="341"/>
+      <c r="J174" s="343"/>
+      <c r="K174" s="341"/>
+      <c r="L174" s="343"/>
+      <c r="M174" s="341"/>
+      <c r="N174" s="342"/>
+      <c r="O174" s="342"/>
+      <c r="P174" s="342"/>
+      <c r="Q174" s="343"/>
+      <c r="R174" s="349"/>
+      <c r="S174" s="350"/>
+      <c r="T174" s="351"/>
     </row>
     <row r="175" spans="2:20" ht="20">
-      <c r="B175" s="232"/>
-      <c r="C175" s="243"/>
-      <c r="D175" s="243"/>
-      <c r="E175" s="233"/>
+      <c r="B175" s="301"/>
+      <c r="C175" s="302"/>
+      <c r="D175" s="302"/>
+      <c r="E175" s="303"/>
       <c r="F175" s="207"/>
       <c r="G175" s="207"/>
       <c r="H175" s="201"/>
-      <c r="I175" s="241"/>
-      <c r="J175" s="242"/>
-      <c r="K175" s="232"/>
-      <c r="L175" s="233"/>
-      <c r="M175" s="285"/>
-      <c r="N175" s="285"/>
-      <c r="O175" s="285"/>
-      <c r="P175" s="285"/>
-      <c r="Q175" s="285"/>
-      <c r="R175" s="232"/>
-      <c r="S175" s="243"/>
-      <c r="T175" s="233"/>
+      <c r="I175" s="336"/>
+      <c r="J175" s="337"/>
+      <c r="K175" s="301"/>
+      <c r="L175" s="303"/>
+      <c r="M175" s="304"/>
+      <c r="N175" s="304"/>
+      <c r="O175" s="304"/>
+      <c r="P175" s="304"/>
+      <c r="Q175" s="304"/>
+      <c r="R175" s="301"/>
+      <c r="S175" s="302"/>
+      <c r="T175" s="303"/>
     </row>
     <row r="176" spans="2:20" ht="20">
-      <c r="B176" s="232"/>
-      <c r="C176" s="243"/>
-      <c r="D176" s="243"/>
-      <c r="E176" s="233"/>
+      <c r="B176" s="301"/>
+      <c r="C176" s="302"/>
+      <c r="D176" s="302"/>
+      <c r="E176" s="303"/>
       <c r="F176" s="211"/>
       <c r="G176" s="211"/>
       <c r="H176" s="201"/>
-      <c r="I176" s="239"/>
-      <c r="J176" s="240"/>
-      <c r="K176" s="232"/>
-      <c r="L176" s="233"/>
-      <c r="M176" s="232"/>
-      <c r="N176" s="243"/>
-      <c r="O176" s="243"/>
-      <c r="P176" s="243"/>
-      <c r="Q176" s="233"/>
-      <c r="R176" s="232"/>
-      <c r="S176" s="243"/>
-      <c r="T176" s="233"/>
+      <c r="I176" s="232"/>
+      <c r="J176" s="234"/>
+      <c r="K176" s="301"/>
+      <c r="L176" s="303"/>
+      <c r="M176" s="301"/>
+      <c r="N176" s="302"/>
+      <c r="O176" s="302"/>
+      <c r="P176" s="302"/>
+      <c r="Q176" s="303"/>
+      <c r="R176" s="301"/>
+      <c r="S176" s="302"/>
+      <c r="T176" s="303"/>
     </row>
     <row r="177" spans="2:20" ht="20">
-      <c r="B177" s="232"/>
-      <c r="C177" s="243"/>
-      <c r="D177" s="243"/>
-      <c r="E177" s="233"/>
+      <c r="B177" s="301"/>
+      <c r="C177" s="302"/>
+      <c r="D177" s="302"/>
+      <c r="E177" s="303"/>
       <c r="F177" s="211"/>
       <c r="G177" s="211"/>
       <c r="H177" s="201"/>
-      <c r="I177" s="239"/>
-      <c r="J177" s="240"/>
-      <c r="K177" s="232"/>
-      <c r="L177" s="233"/>
-      <c r="M177" s="232"/>
-      <c r="N177" s="243"/>
-      <c r="O177" s="243"/>
-      <c r="P177" s="243"/>
-      <c r="Q177" s="233"/>
-      <c r="R177" s="232"/>
-      <c r="S177" s="243"/>
-      <c r="T177" s="233"/>
+      <c r="I177" s="232"/>
+      <c r="J177" s="234"/>
+      <c r="K177" s="301"/>
+      <c r="L177" s="303"/>
+      <c r="M177" s="301"/>
+      <c r="N177" s="302"/>
+      <c r="O177" s="302"/>
+      <c r="P177" s="302"/>
+      <c r="Q177" s="303"/>
+      <c r="R177" s="301"/>
+      <c r="S177" s="302"/>
+      <c r="T177" s="303"/>
     </row>
     <row r="178" spans="2:20" ht="20">
-      <c r="B178" s="232"/>
-      <c r="C178" s="243"/>
-      <c r="D178" s="243"/>
-      <c r="E178" s="233"/>
+      <c r="B178" s="301"/>
+      <c r="C178" s="302"/>
+      <c r="D178" s="302"/>
+      <c r="E178" s="303"/>
       <c r="F178" s="211"/>
       <c r="G178" s="211"/>
       <c r="H178" s="201"/>
-      <c r="I178" s="239"/>
-      <c r="J178" s="240"/>
-      <c r="K178" s="232"/>
-      <c r="L178" s="233"/>
-      <c r="M178" s="232"/>
-      <c r="N178" s="243"/>
-      <c r="O178" s="243"/>
-      <c r="P178" s="243"/>
-      <c r="Q178" s="233"/>
-      <c r="R178" s="232"/>
-      <c r="S178" s="243"/>
-      <c r="T178" s="233"/>
+      <c r="I178" s="232"/>
+      <c r="J178" s="234"/>
+      <c r="K178" s="301"/>
+      <c r="L178" s="303"/>
+      <c r="M178" s="301"/>
+      <c r="N178" s="302"/>
+      <c r="O178" s="302"/>
+      <c r="P178" s="302"/>
+      <c r="Q178" s="303"/>
+      <c r="R178" s="301"/>
+      <c r="S178" s="302"/>
+      <c r="T178" s="303"/>
     </row>
     <row r="179" spans="2:20" ht="20">
-      <c r="B179" s="232"/>
-      <c r="C179" s="243"/>
-      <c r="D179" s="243"/>
-      <c r="E179" s="233"/>
+      <c r="B179" s="301"/>
+      <c r="C179" s="302"/>
+      <c r="D179" s="302"/>
+      <c r="E179" s="303"/>
       <c r="F179" s="211"/>
       <c r="G179" s="211"/>
       <c r="H179" s="201"/>
-      <c r="I179" s="239"/>
-      <c r="J179" s="240"/>
-      <c r="K179" s="232"/>
-      <c r="L179" s="233"/>
-      <c r="M179" s="232"/>
-      <c r="N179" s="243"/>
-      <c r="O179" s="243"/>
-      <c r="P179" s="243"/>
-      <c r="Q179" s="233"/>
-      <c r="R179" s="232"/>
-      <c r="S179" s="243"/>
-      <c r="T179" s="233"/>
+      <c r="I179" s="232"/>
+      <c r="J179" s="234"/>
+      <c r="K179" s="301"/>
+      <c r="L179" s="303"/>
+      <c r="M179" s="301"/>
+      <c r="N179" s="302"/>
+      <c r="O179" s="302"/>
+      <c r="P179" s="302"/>
+      <c r="Q179" s="303"/>
+      <c r="R179" s="301"/>
+      <c r="S179" s="302"/>
+      <c r="T179" s="303"/>
     </row>
     <row r="180" spans="2:20" ht="20">
-      <c r="B180" s="232"/>
-      <c r="C180" s="243"/>
-      <c r="D180" s="243"/>
-      <c r="E180" s="233"/>
+      <c r="B180" s="301"/>
+      <c r="C180" s="302"/>
+      <c r="D180" s="302"/>
+      <c r="E180" s="303"/>
       <c r="F180" s="211"/>
       <c r="G180" s="211"/>
       <c r="H180" s="201"/>
-      <c r="I180" s="239"/>
-      <c r="J180" s="240"/>
-      <c r="K180" s="232"/>
-      <c r="L180" s="233"/>
-      <c r="M180" s="285"/>
-      <c r="N180" s="285"/>
-      <c r="O180" s="285"/>
-      <c r="P180" s="285"/>
-      <c r="Q180" s="285"/>
-      <c r="R180" s="232"/>
-      <c r="S180" s="243"/>
-      <c r="T180" s="233"/>
+      <c r="I180" s="232"/>
+      <c r="J180" s="234"/>
+      <c r="K180" s="301"/>
+      <c r="L180" s="303"/>
+      <c r="M180" s="304"/>
+      <c r="N180" s="304"/>
+      <c r="O180" s="304"/>
+      <c r="P180" s="304"/>
+      <c r="Q180" s="304"/>
+      <c r="R180" s="301"/>
+      <c r="S180" s="302"/>
+      <c r="T180" s="303"/>
     </row>
     <row r="181" spans="2:20" ht="17.5">
-      <c r="B181" s="275" t="s">
+      <c r="B181" s="329" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="276"/>
-      <c r="D181" s="276"/>
-      <c r="E181" s="276"/>
-      <c r="F181" s="276"/>
-      <c r="G181" s="276"/>
-      <c r="H181" s="276"/>
-      <c r="I181" s="276"/>
-      <c r="J181" s="276"/>
-      <c r="K181" s="276"/>
-      <c r="L181" s="276"/>
-      <c r="M181" s="276"/>
-      <c r="N181" s="276"/>
-      <c r="O181" s="276"/>
-      <c r="P181" s="276"/>
-      <c r="Q181" s="276"/>
-      <c r="R181" s="276"/>
-      <c r="S181" s="276"/>
-      <c r="T181" s="277"/>
+      <c r="C181" s="330"/>
+      <c r="D181" s="330"/>
+      <c r="E181" s="330"/>
+      <c r="F181" s="330"/>
+      <c r="G181" s="330"/>
+      <c r="H181" s="330"/>
+      <c r="I181" s="330"/>
+      <c r="J181" s="330"/>
+      <c r="K181" s="330"/>
+      <c r="L181" s="330"/>
+      <c r="M181" s="330"/>
+      <c r="N181" s="330"/>
+      <c r="O181" s="330"/>
+      <c r="P181" s="330"/>
+      <c r="Q181" s="330"/>
+      <c r="R181" s="330"/>
+      <c r="S181" s="330"/>
+      <c r="T181" s="331"/>
     </row>
     <row r="182" spans="2:20" ht="17.5">
       <c r="B182" s="107" t="s">
@@ -7123,12 +7123,12 @@
     </row>
     <row r="184" spans="2:20" ht="20">
       <c r="B184" s="44"/>
-      <c r="C184" s="278" t="s">
+      <c r="C184" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="D184" s="278"/>
-      <c r="E184" s="278"/>
-      <c r="F184" s="278"/>
+      <c r="D184" s="332"/>
+      <c r="E184" s="332"/>
+      <c r="F184" s="332"/>
       <c r="G184" s="12"/>
       <c r="H184" s="11"/>
       <c r="I184" s="68" t="s">
@@ -7148,24 +7148,24 @@
     </row>
     <row r="185" spans="2:20" ht="26.25" customHeight="1">
       <c r="B185" s="44"/>
-      <c r="C185" s="263"/>
-      <c r="D185" s="263"/>
-      <c r="E185" s="263"/>
-      <c r="F185" s="263"/>
+      <c r="C185" s="315"/>
+      <c r="D185" s="315"/>
+      <c r="E185" s="315"/>
+      <c r="F185" s="315"/>
       <c r="G185" s="12"/>
       <c r="H185" s="11"/>
-      <c r="I185" s="263"/>
-      <c r="J185" s="263"/>
-      <c r="K185" s="263"/>
-      <c r="L185" s="263"/>
-      <c r="M185" s="263"/>
-      <c r="N185" s="279" t="s">
+      <c r="I185" s="315"/>
+      <c r="J185" s="315"/>
+      <c r="K185" s="315"/>
+      <c r="L185" s="315"/>
+      <c r="M185" s="315"/>
+      <c r="N185" s="333" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="279"/>
-      <c r="P185" s="280"/>
-      <c r="Q185" s="212"/>
-      <c r="R185" s="213"/>
+      <c r="O185" s="333"/>
+      <c r="P185" s="334"/>
+      <c r="Q185" s="357"/>
+      <c r="R185" s="358"/>
       <c r="S185" s="155" t="s">
         <v>3</v>
       </c>
@@ -7173,17 +7173,17 @@
     </row>
     <row r="186" spans="2:20" ht="28.5" customHeight="1">
       <c r="B186" s="44"/>
-      <c r="C186" s="238"/>
-      <c r="D186" s="238"/>
-      <c r="E186" s="238"/>
-      <c r="F186" s="238"/>
+      <c r="C186" s="335"/>
+      <c r="D186" s="335"/>
+      <c r="E186" s="335"/>
+      <c r="F186" s="335"/>
       <c r="G186" s="12"/>
       <c r="H186" s="11"/>
-      <c r="I186" s="238"/>
-      <c r="J186" s="238"/>
-      <c r="K186" s="238"/>
-      <c r="L186" s="238"/>
-      <c r="M186" s="238"/>
+      <c r="I186" s="335"/>
+      <c r="J186" s="335"/>
+      <c r="K186" s="335"/>
+      <c r="L186" s="335"/>
+      <c r="M186" s="335"/>
       <c r="N186" s="12"/>
       <c r="O186" s="95"/>
       <c r="P186" s="95"/>
@@ -7200,13 +7200,13 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="11"/>
-      <c r="I187" s="262" t="s">
+      <c r="I187" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="J187" s="262"/>
-      <c r="K187" s="262"/>
-      <c r="L187" s="262"/>
-      <c r="M187" s="262"/>
+      <c r="J187" s="314"/>
+      <c r="K187" s="314"/>
+      <c r="L187" s="314"/>
+      <c r="M187" s="314"/>
       <c r="N187" s="12"/>
       <c r="O187" s="95"/>
       <c r="P187" s="95"/>
@@ -7223,11 +7223,11 @@
       <c r="F188" s="12"/>
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
-      <c r="I188" s="263"/>
-      <c r="J188" s="263"/>
-      <c r="K188" s="263"/>
-      <c r="L188" s="263"/>
-      <c r="M188" s="263"/>
+      <c r="I188" s="315"/>
+      <c r="J188" s="315"/>
+      <c r="K188" s="315"/>
+      <c r="L188" s="315"/>
+      <c r="M188" s="315"/>
       <c r="N188" s="37"/>
       <c r="O188" s="37"/>
       <c r="P188" s="95"/>
@@ -7259,35 +7259,169 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="O132:R132"/>
+    <mergeCell ref="R159:S159"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="I159:K159"/>
+    <mergeCell ref="K173:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="J137:O137"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B173:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B172:T172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="R173:T174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="M173:Q174"/>
+    <mergeCell ref="I173:J174"/>
+    <mergeCell ref="R175:T175"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="M149:R149"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B147:T147"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="B161:T161"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="R178:T178"/>
+    <mergeCell ref="R179:T179"/>
+    <mergeCell ref="R180:T180"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="M43:R44"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="B114:T114"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:I39"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M38:Q39"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
     <mergeCell ref="C137:E137"/>
     <mergeCell ref="R137:S137"/>
     <mergeCell ref="F128:G128"/>
@@ -7312,169 +7446,35 @@
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E104:G104"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I109:O109"/>
-    <mergeCell ref="B114:T114"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B37:T37"/>
-    <mergeCell ref="B38:I39"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M38:Q39"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="R178:T178"/>
-    <mergeCell ref="R179:T179"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="M175:Q175"/>
-    <mergeCell ref="M180:Q180"/>
-    <mergeCell ref="M178:Q178"/>
-    <mergeCell ref="M177:Q177"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="M43:R44"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="M149:R149"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B147:T147"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="B161:T161"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="M176:Q176"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B173:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B172:T172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="R173:T174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="M173:Q174"/>
-    <mergeCell ref="I173:J174"/>
-    <mergeCell ref="R175:T175"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="O132:R132"/>
-    <mergeCell ref="R159:S159"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="I159:K159"/>
-    <mergeCell ref="K173:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="J137:O137"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Formatos/Estudio_de_caso_nCOV_2020.xlsx
+++ b/Formatos/Estudio_de_caso_nCOV_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\source\repos\OneProject.Medical.Forms\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32791FF-0461-4508-B7B9-891C0085410F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358113C9-0B65-4311-B6CE-8370649528A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QUWXMaeGjuUt4zZYobJ34740iStqnl0RVGXUprJ17ILmK1kNCmObGDVVeU06GYkJRAcZKQIy0ExsOiQwMD2ezw==" workbookSaltValue="nXkPjPfGI4aEBZ1SH2jd/A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1732,6 +1732,435 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,15 +2173,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1762,431 +2182,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2692,8 +2692,8 @@
   </sheetPr>
   <dimension ref="B1:Y189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B157" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180:J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2804,78 +2804,78 @@
       <c r="T4" s="45"/>
     </row>
     <row r="5" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="214"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="356"/>
+      <c r="I5" s="356"/>
+      <c r="J5" s="356"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="356"/>
+      <c r="M5" s="356"/>
+      <c r="N5" s="356"/>
+      <c r="O5" s="356"/>
+      <c r="P5" s="356"/>
+      <c r="Q5" s="356"/>
+      <c r="R5" s="356"/>
+      <c r="S5" s="356"/>
+      <c r="T5" s="357"/>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="224"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="313"/>
+      <c r="P6" s="313"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="314"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
       <c r="B7" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="211"/>
-      <c r="D7" s="236" t="s">
+      <c r="D7" s="348" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="236"/>
+      <c r="E7" s="348"/>
       <c r="F7" s="201"/>
-      <c r="G7" s="237" t="s">
+      <c r="G7" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="236"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="236" t="s">
+      <c r="H7" s="348"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="348" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
+      <c r="L7" s="348"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
       <c r="O7" s="101"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="234"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="346"/>
+      <c r="R7" s="346"/>
+      <c r="S7" s="240"/>
       <c r="T7" s="47"/>
     </row>
     <row r="8" spans="2:20" ht="9" customHeight="1">
@@ -2903,21 +2903,21 @@
       <c r="B9" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="240"/>
       <c r="F9" s="36"/>
       <c r="G9" s="184" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="234"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="240"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
@@ -2925,27 +2925,27 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="2:20" ht="28.5" customHeight="1">
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="223"/>
-      <c r="T10" s="224"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="313"/>
+      <c r="K10" s="313"/>
+      <c r="L10" s="313"/>
+      <c r="M10" s="313"/>
+      <c r="N10" s="313"/>
+      <c r="O10" s="313"/>
+      <c r="P10" s="313"/>
+      <c r="Q10" s="313"/>
+      <c r="R10" s="313"/>
+      <c r="S10" s="313"/>
+      <c r="T10" s="314"/>
     </row>
     <row r="11" spans="2:20" ht="24.75" customHeight="1">
       <c r="B11" s="189" t="s">
@@ -2953,9 +2953,9 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2974,10 +2974,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="235" t="s">
+      <c r="E12" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="235"/>
+      <c r="F12" s="347"/>
       <c r="G12" s="157"/>
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
@@ -3015,32 +3015,32 @@
       <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="225" t="s">
+      <c r="C14" s="301"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="228" t="s">
+      <c r="F14" s="271"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="229"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="228" t="s">
+      <c r="I14" s="301"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="300" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="225"/>
-      <c r="R14" s="226"/>
-      <c r="S14" s="227"/>
+      <c r="P14" s="302"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="271"/>
+      <c r="S14" s="217"/>
       <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" ht="9.75" customHeight="1">
@@ -3089,12 +3089,12 @@
       <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="216"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="218"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="224"/>
       <c r="T16" s="49"/>
     </row>
     <row r="17" spans="2:20" ht="9.75" customHeight="1">
@@ -3119,66 +3119,66 @@
       <c r="T17" s="49"/>
     </row>
     <row r="18" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="360" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="148"/>
-      <c r="E18" s="221" t="s">
+      <c r="E18" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="215"/>
+      <c r="F18" s="358"/>
       <c r="G18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="358" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="215"/>
+      <c r="J18" s="358"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="215" t="s">
+      <c r="M18" s="358" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="215"/>
-      <c r="O18" s="215"/>
+      <c r="N18" s="358"/>
+      <c r="O18" s="358"/>
       <c r="P18" s="162" t="s">
         <v>165</v>
       </c>
       <c r="Q18" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="219" t="s">
+      <c r="R18" s="359" t="s">
         <v>166</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" ht="23.25" customHeight="1">
-      <c r="B19" s="220"/>
+      <c r="B19" s="360"/>
       <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="148"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="215"/>
+      <c r="E19" s="361"/>
+      <c r="F19" s="358"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
+      <c r="I19" s="358"/>
+      <c r="J19" s="358"/>
       <c r="K19" s="148"/>
       <c r="L19" s="162"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
+      <c r="M19" s="358"/>
+      <c r="N19" s="358"/>
+      <c r="O19" s="358"/>
       <c r="P19" s="148"/>
       <c r="Q19" s="148"/>
-      <c r="R19" s="219"/>
+      <c r="R19" s="359"/>
       <c r="S19" s="148"/>
       <c r="T19" s="51"/>
     </row>
@@ -3214,24 +3214,24 @@
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="216"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="283" t="s">
+      <c r="F21" s="222"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="306" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="296"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="218"/>
+      <c r="I21" s="308"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="224"/>
       <c r="L21" s="162"/>
       <c r="M21" s="145"/>
-      <c r="N21" s="243" t="s">
+      <c r="N21" s="353" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="243"/>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="320"/>
-      <c r="S21" s="321"/>
+      <c r="O21" s="353"/>
+      <c r="P21" s="353"/>
+      <c r="Q21" s="353"/>
+      <c r="R21" s="220"/>
+      <c r="S21" s="221"/>
       <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" ht="14.25" customHeight="1">
@@ -3256,14 +3256,14 @@
       <c r="T22" s="51"/>
     </row>
     <row r="23" spans="2:20" ht="30.75" customHeight="1">
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="315" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="316"/>
+      <c r="E23" s="317"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3" t="s">
         <v>106</v>
@@ -3273,12 +3273,12 @@
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="288"/>
-      <c r="S23" s="288"/>
-      <c r="T23" s="289"/>
+      <c r="O23" s="267"/>
+      <c r="P23" s="350"/>
+      <c r="Q23" s="268"/>
+      <c r="R23" s="321"/>
+      <c r="S23" s="321"/>
+      <c r="T23" s="322"/>
     </row>
     <row r="24" spans="2:20" s="14" customFormat="1" ht="9.75" customHeight="1">
       <c r="B24" s="164"/>
@@ -3307,9 +3307,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3317,10 +3317,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="290"/>
-      <c r="N25" s="290"/>
-      <c r="O25" s="290"/>
-      <c r="P25" s="290"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="294"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3353,25 +3353,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="227"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="227"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="217"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="229" t="s">
+      <c r="P27" s="301" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="230"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="227"/>
+      <c r="Q27" s="302"/>
+      <c r="R27" s="216"/>
+      <c r="S27" s="217"/>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="2:20" ht="11.25" customHeight="1">
@@ -3401,23 +3401,23 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="228" t="s">
+      <c r="E29" s="216"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="271"/>
+      <c r="H29" s="271"/>
+      <c r="I29" s="271"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="229"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="226"/>
-      <c r="P29" s="226"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="226"/>
-      <c r="S29" s="227"/>
+      <c r="L29" s="301"/>
+      <c r="M29" s="302"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="271"/>
+      <c r="P29" s="271"/>
+      <c r="Q29" s="271"/>
+      <c r="R29" s="271"/>
+      <c r="S29" s="217"/>
       <c r="T29" s="49"/>
     </row>
     <row r="30" spans="2:20" s="14" customFormat="1" ht="11.25" customHeight="1">
@@ -3447,25 +3447,25 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="227"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="217"/>
       <c r="H31" s="155"/>
       <c r="I31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="227"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
       <c r="L31" s="157"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="229" t="s">
+      <c r="N31" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
+      <c r="O31" s="302"/>
+      <c r="P31" s="345"/>
+      <c r="Q31" s="345"/>
+      <c r="R31" s="345"/>
+      <c r="S31" s="345"/>
       <c r="T31" s="49"/>
     </row>
     <row r="32" spans="2:20" ht="24.75" customHeight="1">
@@ -3506,14 +3506,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
-      <c r="H33" s="228" t="s">
+      <c r="H33" s="300" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="229"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="229"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="230"/>
+      <c r="I33" s="301"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="301"/>
+      <c r="M33" s="302"/>
       <c r="N33" s="156"/>
       <c r="O33" s="156"/>
       <c r="P33" s="3"/>
@@ -3573,10 +3573,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
       <c r="H36" s="54"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -3594,39 +3594,39 @@
       <c r="T36" s="56"/>
     </row>
     <row r="37" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B37" s="222" t="s">
+      <c r="B37" s="312" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="223"/>
-      <c r="O37" s="223"/>
-      <c r="P37" s="223"/>
-      <c r="Q37" s="223"/>
-      <c r="R37" s="223"/>
-      <c r="S37" s="223"/>
-      <c r="T37" s="224"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="313"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="313"/>
+      <c r="I37" s="313"/>
+      <c r="J37" s="313"/>
+      <c r="K37" s="313"/>
+      <c r="L37" s="313"/>
+      <c r="M37" s="313"/>
+      <c r="N37" s="313"/>
+      <c r="O37" s="313"/>
+      <c r="P37" s="313"/>
+      <c r="Q37" s="313"/>
+      <c r="R37" s="313"/>
+      <c r="S37" s="313"/>
+      <c r="T37" s="314"/>
     </row>
     <row r="38" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B38" s="284" t="s">
+      <c r="B38" s="318" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="285"/>
-      <c r="I38" s="285"/>
+      <c r="C38" s="319"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
       <c r="J38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>62</v>
       </c>
       <c r="L38" s="157"/>
-      <c r="M38" s="287" t="s">
+      <c r="M38" s="320" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="287"/>
-      <c r="O38" s="287"/>
-      <c r="P38" s="287"/>
-      <c r="Q38" s="287"/>
+      <c r="N38" s="320"/>
+      <c r="O38" s="320"/>
+      <c r="P38" s="320"/>
+      <c r="Q38" s="320"/>
       <c r="R38" s="157" t="s">
         <v>165</v>
       </c>
@@ -3650,22 +3650,22 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B39" s="284"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="285"/>
-      <c r="I39" s="285"/>
+      <c r="B39" s="318"/>
+      <c r="C39" s="319"/>
+      <c r="D39" s="319"/>
+      <c r="E39" s="319"/>
+      <c r="F39" s="319"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="319"/>
       <c r="J39" s="202"/>
       <c r="K39" s="202"/>
       <c r="L39" s="31"/>
-      <c r="M39" s="287"/>
-      <c r="N39" s="287"/>
-      <c r="O39" s="287"/>
-      <c r="P39" s="287"/>
-      <c r="Q39" s="287"/>
+      <c r="M39" s="320"/>
+      <c r="N39" s="320"/>
+      <c r="O39" s="320"/>
+      <c r="P39" s="320"/>
+      <c r="Q39" s="320"/>
       <c r="R39" s="202"/>
       <c r="S39" s="202"/>
       <c r="T39" s="47"/>
@@ -3692,12 +3692,12 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="24.75" customHeight="1">
-      <c r="B41" s="293" t="s">
+      <c r="B41" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="294"/>
-      <c r="D41" s="294"/>
-      <c r="E41" s="294"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
       <c r="H41" s="34"/>
@@ -3744,21 +3744,21 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="305" t="s">
+      <c r="F43" s="216"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="287" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="305"/>
-      <c r="J43" s="305"/>
-      <c r="K43" s="305"/>
+      <c r="I43" s="287"/>
+      <c r="J43" s="287"/>
+      <c r="K43" s="287"/>
       <c r="L43" s="167"/>
-      <c r="M43" s="306"/>
-      <c r="N43" s="307"/>
-      <c r="O43" s="307"/>
-      <c r="P43" s="307"/>
-      <c r="Q43" s="307"/>
-      <c r="R43" s="308"/>
+      <c r="M43" s="288"/>
+      <c r="N43" s="289"/>
+      <c r="O43" s="289"/>
+      <c r="P43" s="289"/>
+      <c r="Q43" s="289"/>
+      <c r="R43" s="290"/>
       <c r="S43" s="4"/>
       <c r="T43" s="51"/>
     </row>
@@ -3769,17 +3769,17 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="305"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="305"/>
-      <c r="K44" s="305"/>
+      <c r="H44" s="287"/>
+      <c r="I44" s="287"/>
+      <c r="J44" s="287"/>
+      <c r="K44" s="287"/>
       <c r="L44" s="167"/>
-      <c r="M44" s="309"/>
-      <c r="N44" s="310"/>
-      <c r="O44" s="310"/>
-      <c r="P44" s="310"/>
-      <c r="Q44" s="310"/>
-      <c r="R44" s="311"/>
+      <c r="M44" s="291"/>
+      <c r="N44" s="292"/>
+      <c r="O44" s="292"/>
+      <c r="P44" s="292"/>
+      <c r="Q44" s="292"/>
+      <c r="R44" s="293"/>
       <c r="S44" s="4"/>
       <c r="T44" s="51"/>
     </row>
@@ -3787,52 +3787,52 @@
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="157"/>
-      <c r="E45" s="295" t="s">
+      <c r="E45" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="295"/>
+      <c r="F45" s="307"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="283"/>
-      <c r="Q45" s="283"/>
-      <c r="R45" s="283"/>
+      <c r="M45" s="306"/>
+      <c r="N45" s="306"/>
+      <c r="O45" s="306"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="306"/>
+      <c r="R45" s="306"/>
       <c r="S45" s="4"/>
       <c r="T45" s="51"/>
     </row>
     <row r="46" spans="2:20" ht="21" customHeight="1">
-      <c r="B46" s="312" t="s">
+      <c r="B46" s="298" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="313"/>
-      <c r="D46" s="313"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="299"/>
+      <c r="E46" s="294"/>
+      <c r="F46" s="294"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="283"/>
-      <c r="N46" s="283"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="283"/>
-      <c r="Q46" s="283"/>
-      <c r="R46" s="283"/>
+      <c r="M46" s="306"/>
+      <c r="N46" s="306"/>
+      <c r="O46" s="306"/>
+      <c r="P46" s="306"/>
+      <c r="Q46" s="306"/>
+      <c r="R46" s="306"/>
       <c r="S46" s="4"/>
       <c r="T46" s="51"/>
     </row>
     <row r="47" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B47" s="299"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="300"/>
+      <c r="B47" s="281"/>
+      <c r="C47" s="282"/>
+      <c r="D47" s="282"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -3866,10 +3866,10 @@
       <c r="J48" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="257" t="s">
+      <c r="K48" s="337" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="257"/>
+      <c r="L48" s="337"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="29"/>
@@ -3891,8 +3891,8 @@
       <c r="H49" s="25"/>
       <c r="I49" s="28"/>
       <c r="J49" s="204"/>
-      <c r="K49" s="291"/>
-      <c r="L49" s="291"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
       <c r="M49" s="12"/>
       <c r="N49" s="29"/>
       <c r="O49" s="12"/>
@@ -3952,8 +3952,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="268"/>
-      <c r="H52" s="268"/>
+      <c r="G52" s="234"/>
+      <c r="H52" s="234"/>
       <c r="I52" s="159" t="s">
         <v>94</v>
       </c>
@@ -4028,11 +4028,11 @@
       <c r="I55" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="216"/>
-      <c r="K55" s="217"/>
-      <c r="L55" s="217"/>
-      <c r="M55" s="217"/>
-      <c r="N55" s="218"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="223"/>
+      <c r="L55" s="223"/>
+      <c r="M55" s="223"/>
+      <c r="N55" s="224"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
@@ -4062,11 +4062,11 @@
       <c r="T56" s="47"/>
     </row>
     <row r="57" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B57" s="292" t="s">
+      <c r="B57" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="260"/>
-      <c r="D57" s="260"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="305"/>
       <c r="E57" s="171"/>
       <c r="F57" s="159"/>
       <c r="G57" s="25"/>
@@ -4129,10 +4129,10 @@
       <c r="N59" s="176"/>
       <c r="O59" s="26"/>
       <c r="P59" s="24"/>
-      <c r="Q59" s="261" t="s">
+      <c r="Q59" s="340" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="261"/>
+      <c r="R59" s="340"/>
       <c r="S59" s="25"/>
       <c r="T59" s="47"/>
     </row>
@@ -4148,16 +4148,16 @@
       <c r="J60" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="250"/>
-      <c r="L60" s="251"/>
-      <c r="M60" s="251"/>
-      <c r="N60" s="252"/>
+      <c r="K60" s="214"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="333"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="Q60" s="250"/>
-      <c r="R60" s="252"/>
+      <c r="Q60" s="214"/>
+      <c r="R60" s="215"/>
       <c r="S60" s="25"/>
       <c r="T60" s="47"/>
     </row>
@@ -4183,18 +4183,18 @@
       <c r="T61" s="47"/>
     </row>
     <row r="62" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B62" s="297" t="s">
+      <c r="B62" s="309" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="298"/>
-      <c r="D62" s="298"/>
-      <c r="E62" s="298"/>
-      <c r="F62" s="298"/>
-      <c r="G62" s="298"/>
-      <c r="H62" s="298"/>
-      <c r="I62" s="298"/>
-      <c r="J62" s="298"/>
-      <c r="K62" s="298"/>
+      <c r="C62" s="310"/>
+      <c r="D62" s="310"/>
+      <c r="E62" s="310"/>
+      <c r="F62" s="310"/>
+      <c r="G62" s="310"/>
+      <c r="H62" s="310"/>
+      <c r="I62" s="310"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="310"/>
       <c r="L62" s="163"/>
       <c r="M62" s="138"/>
       <c r="N62" s="162"/>
@@ -4206,16 +4206,16 @@
       <c r="T62" s="47"/>
     </row>
     <row r="63" spans="2:20" ht="24" customHeight="1">
-      <c r="B63" s="297"/>
-      <c r="C63" s="298"/>
-      <c r="D63" s="298"/>
-      <c r="E63" s="298"/>
-      <c r="F63" s="298"/>
-      <c r="G63" s="298"/>
-      <c r="H63" s="298"/>
-      <c r="I63" s="298"/>
-      <c r="J63" s="298"/>
-      <c r="K63" s="298"/>
+      <c r="B63" s="309"/>
+      <c r="C63" s="310"/>
+      <c r="D63" s="310"/>
+      <c r="E63" s="310"/>
+      <c r="F63" s="310"/>
+      <c r="G63" s="310"/>
+      <c r="H63" s="310"/>
+      <c r="I63" s="310"/>
+      <c r="J63" s="310"/>
+      <c r="K63" s="310"/>
       <c r="L63" s="163"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
@@ -4227,36 +4227,36 @@
       <c r="T63" s="47"/>
     </row>
     <row r="64" spans="2:20" ht="37.5" customHeight="1">
-      <c r="B64" s="293" t="s">
+      <c r="B64" s="284" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="294"/>
-      <c r="D64" s="294"/>
-      <c r="E64" s="294"/>
-      <c r="F64" s="268" t="s">
+      <c r="C64" s="285"/>
+      <c r="D64" s="285"/>
+      <c r="E64" s="285"/>
+      <c r="F64" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="268"/>
-      <c r="H64" s="269" t="s">
+      <c r="G64" s="234"/>
+      <c r="H64" s="235" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="269"/>
-      <c r="J64" s="269"/>
-      <c r="K64" s="269" t="s">
+      <c r="I64" s="235"/>
+      <c r="J64" s="235"/>
+      <c r="K64" s="235" t="s">
         <v>190</v>
       </c>
-      <c r="L64" s="269"/>
-      <c r="M64" s="268"/>
-      <c r="N64" s="268"/>
-      <c r="O64" s="274" t="s">
+      <c r="L64" s="235"/>
+      <c r="M64" s="234"/>
+      <c r="N64" s="234"/>
+      <c r="O64" s="295" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="275"/>
-      <c r="Q64" s="276"/>
-      <c r="R64" s="274" t="s">
+      <c r="P64" s="296"/>
+      <c r="Q64" s="297"/>
+      <c r="R64" s="295" t="s">
         <v>188</v>
       </c>
-      <c r="S64" s="276"/>
+      <c r="S64" s="297"/>
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="31.5" customHeight="1">
@@ -4264,20 +4264,20 @@
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
       <c r="E65" s="161"/>
-      <c r="F65" s="268"/>
-      <c r="G65" s="268"/>
-      <c r="H65" s="269"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="269"/>
-      <c r="K65" s="268"/>
-      <c r="L65" s="268"/>
-      <c r="M65" s="268"/>
-      <c r="N65" s="268"/>
-      <c r="O65" s="274"/>
-      <c r="P65" s="275"/>
-      <c r="Q65" s="276"/>
-      <c r="R65" s="274"/>
-      <c r="S65" s="276"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
+      <c r="J65" s="235"/>
+      <c r="K65" s="234"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="234"/>
+      <c r="N65" s="234"/>
+      <c r="O65" s="295"/>
+      <c r="P65" s="296"/>
+      <c r="Q65" s="297"/>
+      <c r="R65" s="295"/>
+      <c r="S65" s="297"/>
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="27.75" customHeight="1">
@@ -4285,20 +4285,20 @@
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
       <c r="E66" s="161"/>
-      <c r="F66" s="268"/>
-      <c r="G66" s="268"/>
-      <c r="H66" s="269"/>
-      <c r="I66" s="269"/>
-      <c r="J66" s="269"/>
-      <c r="K66" s="268"/>
-      <c r="L66" s="268"/>
-      <c r="M66" s="268"/>
-      <c r="N66" s="268"/>
-      <c r="O66" s="274"/>
-      <c r="P66" s="275"/>
-      <c r="Q66" s="276"/>
-      <c r="R66" s="274"/>
-      <c r="S66" s="276"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="234"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="235"/>
+      <c r="K66" s="234"/>
+      <c r="L66" s="234"/>
+      <c r="M66" s="234"/>
+      <c r="N66" s="234"/>
+      <c r="O66" s="295"/>
+      <c r="P66" s="296"/>
+      <c r="Q66" s="297"/>
+      <c r="R66" s="295"/>
+      <c r="S66" s="297"/>
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="27.75" customHeight="1">
@@ -4306,20 +4306,20 @@
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
-      <c r="F67" s="268"/>
-      <c r="G67" s="268"/>
-      <c r="H67" s="269"/>
-      <c r="I67" s="269"/>
-      <c r="J67" s="269"/>
-      <c r="K67" s="268"/>
-      <c r="L67" s="268"/>
-      <c r="M67" s="268"/>
-      <c r="N67" s="268"/>
-      <c r="O67" s="274"/>
-      <c r="P67" s="275"/>
-      <c r="Q67" s="276"/>
-      <c r="R67" s="274"/>
-      <c r="S67" s="276"/>
+      <c r="F67" s="234"/>
+      <c r="G67" s="234"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
+      <c r="J67" s="235"/>
+      <c r="K67" s="234"/>
+      <c r="L67" s="234"/>
+      <c r="M67" s="234"/>
+      <c r="N67" s="234"/>
+      <c r="O67" s="295"/>
+      <c r="P67" s="296"/>
+      <c r="Q67" s="297"/>
+      <c r="R67" s="295"/>
+      <c r="S67" s="297"/>
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="27.75" customHeight="1">
@@ -4327,20 +4327,20 @@
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
-      <c r="F68" s="268"/>
-      <c r="G68" s="268"/>
-      <c r="H68" s="269"/>
-      <c r="I68" s="269"/>
-      <c r="J68" s="269"/>
-      <c r="K68" s="268"/>
-      <c r="L68" s="268"/>
-      <c r="M68" s="268"/>
-      <c r="N68" s="268"/>
-      <c r="O68" s="274"/>
-      <c r="P68" s="275"/>
-      <c r="Q68" s="276"/>
-      <c r="R68" s="274"/>
-      <c r="S68" s="276"/>
+      <c r="F68" s="234"/>
+      <c r="G68" s="234"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="234"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="234"/>
+      <c r="O68" s="295"/>
+      <c r="P68" s="296"/>
+      <c r="Q68" s="297"/>
+      <c r="R68" s="295"/>
+      <c r="S68" s="297"/>
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="27.75" customHeight="1">
@@ -4348,20 +4348,20 @@
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
-      <c r="F69" s="268"/>
-      <c r="G69" s="268"/>
-      <c r="H69" s="269"/>
-      <c r="I69" s="269"/>
-      <c r="J69" s="269"/>
-      <c r="K69" s="268"/>
-      <c r="L69" s="268"/>
-      <c r="M69" s="268"/>
-      <c r="N69" s="268"/>
-      <c r="O69" s="274"/>
-      <c r="P69" s="275"/>
-      <c r="Q69" s="276"/>
-      <c r="R69" s="274"/>
-      <c r="S69" s="276"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="295"/>
+      <c r="P69" s="296"/>
+      <c r="Q69" s="297"/>
+      <c r="R69" s="295"/>
+      <c r="S69" s="297"/>
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="11.25" customHeight="1">
@@ -4436,21 +4436,21 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="27" customHeight="1">
-      <c r="B73" s="253" t="s">
+      <c r="B73" s="334" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="254"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="254"/>
-      <c r="F73" s="254"/>
-      <c r="G73" s="254"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="254"/>
-      <c r="J73" s="254"/>
-      <c r="K73" s="254"/>
-      <c r="L73" s="254"/>
-      <c r="M73" s="254"/>
-      <c r="N73" s="254"/>
+      <c r="C73" s="311"/>
+      <c r="D73" s="311"/>
+      <c r="E73" s="311"/>
+      <c r="F73" s="311"/>
+      <c r="G73" s="311"/>
+      <c r="H73" s="311"/>
+      <c r="I73" s="311"/>
+      <c r="J73" s="311"/>
+      <c r="K73" s="311"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="311"/>
+      <c r="N73" s="311"/>
       <c r="O73" s="157" t="s">
         <v>165</v>
       </c>
@@ -4465,21 +4465,21 @@
       <c r="T73" s="62"/>
     </row>
     <row r="74" spans="2:20" s="32" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B74" s="255" t="s">
+      <c r="B74" s="335" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="256"/>
-      <c r="D74" s="256"/>
-      <c r="E74" s="256"/>
-      <c r="F74" s="256"/>
-      <c r="G74" s="256"/>
-      <c r="H74" s="256"/>
-      <c r="I74" s="256"/>
-      <c r="J74" s="256"/>
-      <c r="K74" s="256"/>
-      <c r="L74" s="256"/>
-      <c r="M74" s="256"/>
-      <c r="N74" s="256"/>
+      <c r="C74" s="336"/>
+      <c r="D74" s="336"/>
+      <c r="E74" s="336"/>
+      <c r="F74" s="336"/>
+      <c r="G74" s="336"/>
+      <c r="H74" s="336"/>
+      <c r="I74" s="336"/>
+      <c r="J74" s="336"/>
+      <c r="K74" s="336"/>
+      <c r="L74" s="336"/>
+      <c r="M74" s="336"/>
+      <c r="N74" s="336"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
@@ -4488,17 +4488,17 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="2:20" s="32" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B75" s="258" t="s">
+      <c r="B75" s="338" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="259"/>
-      <c r="D75" s="259"/>
-      <c r="E75" s="259"/>
-      <c r="F75" s="259"/>
-      <c r="G75" s="259"/>
-      <c r="H75" s="259"/>
-      <c r="I75" s="259"/>
-      <c r="J75" s="259"/>
+      <c r="C75" s="339"/>
+      <c r="D75" s="339"/>
+      <c r="E75" s="339"/>
+      <c r="F75" s="339"/>
+      <c r="G75" s="339"/>
+      <c r="H75" s="339"/>
+      <c r="I75" s="339"/>
+      <c r="J75" s="339"/>
       <c r="K75" s="197"/>
       <c r="L75" s="197"/>
       <c r="M75" s="162" t="s">
@@ -4510,20 +4510,20 @@
       <c r="O75" s="197"/>
       <c r="P75" s="197"/>
       <c r="Q75" s="29"/>
-      <c r="R75" s="248"/>
-      <c r="S75" s="248"/>
-      <c r="T75" s="249"/>
+      <c r="R75" s="331"/>
+      <c r="S75" s="331"/>
+      <c r="T75" s="332"/>
     </row>
     <row r="76" spans="2:20" ht="30" customHeight="1">
-      <c r="B76" s="258"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
-      <c r="F76" s="259"/>
-      <c r="G76" s="259"/>
-      <c r="H76" s="259"/>
-      <c r="I76" s="259"/>
-      <c r="J76" s="259"/>
+      <c r="B76" s="338"/>
+      <c r="C76" s="339"/>
+      <c r="D76" s="339"/>
+      <c r="E76" s="339"/>
+      <c r="F76" s="339"/>
+      <c r="G76" s="339"/>
+      <c r="H76" s="339"/>
+      <c r="I76" s="339"/>
+      <c r="J76" s="339"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="28"/>
@@ -4578,36 +4578,36 @@
       <c r="T78" s="168"/>
     </row>
     <row r="79" spans="2:20" ht="25.5" customHeight="1">
-      <c r="B79" s="222" t="s">
+      <c r="B79" s="312" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="223"/>
-      <c r="D79" s="223"/>
-      <c r="E79" s="223"/>
-      <c r="F79" s="223"/>
-      <c r="G79" s="223"/>
-      <c r="H79" s="223"/>
-      <c r="I79" s="223"/>
-      <c r="J79" s="223"/>
-      <c r="K79" s="223"/>
-      <c r="L79" s="223"/>
-      <c r="M79" s="223"/>
-      <c r="N79" s="223"/>
-      <c r="O79" s="223"/>
-      <c r="P79" s="223"/>
-      <c r="Q79" s="223"/>
-      <c r="R79" s="223"/>
-      <c r="S79" s="223"/>
-      <c r="T79" s="224"/>
+      <c r="C79" s="313"/>
+      <c r="D79" s="313"/>
+      <c r="E79" s="313"/>
+      <c r="F79" s="313"/>
+      <c r="G79" s="313"/>
+      <c r="H79" s="313"/>
+      <c r="I79" s="313"/>
+      <c r="J79" s="313"/>
+      <c r="K79" s="313"/>
+      <c r="L79" s="313"/>
+      <c r="M79" s="313"/>
+      <c r="N79" s="313"/>
+      <c r="O79" s="313"/>
+      <c r="P79" s="313"/>
+      <c r="Q79" s="313"/>
+      <c r="R79" s="313"/>
+      <c r="S79" s="313"/>
+      <c r="T79" s="314"/>
     </row>
     <row r="80" spans="2:20" ht="27.75" customHeight="1">
       <c r="B80" s="115"/>
       <c r="C80" s="116"/>
       <c r="D80" s="116"/>
-      <c r="E80" s="263" t="s">
+      <c r="E80" s="342" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="263"/>
+      <c r="F80" s="342"/>
       <c r="G80" s="116"/>
       <c r="H80" s="116"/>
       <c r="I80" s="116"/>
@@ -4629,8 +4629,8 @@
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="225"/>
-      <c r="F81" s="227"/>
+      <c r="E81" s="216"/>
+      <c r="F81" s="217"/>
       <c r="G81" s="152"/>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -4659,10 +4659,10 @@
       <c r="K82" s="116"/>
       <c r="L82" s="116"/>
       <c r="M82" s="116"/>
-      <c r="N82" s="264" t="s">
+      <c r="N82" s="329" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="264"/>
+      <c r="O82" s="329"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="152" t="s">
@@ -4736,8 +4736,8 @@
       <c r="C85" s="20"/>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
-      <c r="F85" s="265"/>
-      <c r="G85" s="265"/>
+      <c r="F85" s="272"/>
+      <c r="G85" s="272"/>
       <c r="H85" s="20" t="s">
         <v>6</v>
       </c>
@@ -4980,11 +4980,11 @@
       <c r="N94" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O94" s="277"/>
-      <c r="P94" s="277"/>
-      <c r="Q94" s="277"/>
-      <c r="R94" s="277"/>
-      <c r="S94" s="277"/>
+      <c r="O94" s="328"/>
+      <c r="P94" s="328"/>
+      <c r="Q94" s="328"/>
+      <c r="R94" s="328"/>
+      <c r="S94" s="328"/>
       <c r="T94" s="41"/>
     </row>
     <row r="95" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
@@ -5006,9 +5006,9 @@
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
       <c r="Q95" s="20"/>
-      <c r="R95" s="265"/>
-      <c r="S95" s="265"/>
-      <c r="T95" s="279"/>
+      <c r="R95" s="272"/>
+      <c r="S95" s="272"/>
+      <c r="T95" s="280"/>
     </row>
     <row r="96" spans="2:20" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="B96" s="93"/>
@@ -5115,11 +5115,11 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="21"/>
-      <c r="K100" s="277"/>
-      <c r="L100" s="277"/>
-      <c r="M100" s="277"/>
-      <c r="N100" s="277"/>
-      <c r="O100" s="277"/>
+      <c r="K100" s="328"/>
+      <c r="L100" s="328"/>
+      <c r="M100" s="328"/>
+      <c r="N100" s="328"/>
+      <c r="O100" s="328"/>
       <c r="P100" s="20"/>
       <c r="Q100" s="20"/>
       <c r="R100" s="21"/>
@@ -5199,15 +5199,15 @@
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="E104" s="225"/>
-      <c r="F104" s="226"/>
-      <c r="G104" s="227"/>
+      <c r="E104" s="216"/>
+      <c r="F104" s="271"/>
+      <c r="G104" s="217"/>
       <c r="H104" s="178"/>
-      <c r="I104" s="254" t="s">
+      <c r="I104" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="254"/>
-      <c r="K104" s="254"/>
+      <c r="J104" s="311"/>
+      <c r="K104" s="311"/>
       <c r="L104" s="169"/>
       <c r="M104" s="178" t="s">
         <v>60</v>
@@ -5250,8 +5250,8 @@
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="225"/>
-      <c r="G106" s="227"/>
+      <c r="F106" s="216"/>
+      <c r="G106" s="217"/>
       <c r="H106" s="20" t="s">
         <v>3</v>
       </c>
@@ -5334,15 +5334,15 @@
       <c r="F109" s="178"/>
       <c r="G109" s="20"/>
       <c r="H109" s="178"/>
-      <c r="I109" s="278" t="s">
+      <c r="I109" s="269" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="278"/>
-      <c r="K109" s="278"/>
-      <c r="L109" s="278"/>
-      <c r="M109" s="278"/>
-      <c r="N109" s="278"/>
-      <c r="O109" s="278"/>
+      <c r="J109" s="269"/>
+      <c r="K109" s="269"/>
+      <c r="L109" s="269"/>
+      <c r="M109" s="269"/>
+      <c r="N109" s="269"/>
+      <c r="O109" s="269"/>
       <c r="P109" s="169" t="s">
         <v>81</v>
       </c>
@@ -5446,35 +5446,35 @@
       <c r="T113" s="41"/>
     </row>
     <row r="114" spans="2:20" ht="20">
-      <c r="B114" s="222" t="s">
+      <c r="B114" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="223"/>
-      <c r="D114" s="223"/>
-      <c r="E114" s="223"/>
-      <c r="F114" s="223"/>
-      <c r="G114" s="223"/>
-      <c r="H114" s="223"/>
-      <c r="I114" s="223"/>
-      <c r="J114" s="223"/>
-      <c r="K114" s="223"/>
-      <c r="L114" s="223"/>
-      <c r="M114" s="223"/>
-      <c r="N114" s="223"/>
-      <c r="O114" s="223"/>
-      <c r="P114" s="223"/>
-      <c r="Q114" s="223"/>
-      <c r="R114" s="223"/>
-      <c r="S114" s="223"/>
-      <c r="T114" s="224"/>
+      <c r="C114" s="313"/>
+      <c r="D114" s="313"/>
+      <c r="E114" s="313"/>
+      <c r="F114" s="313"/>
+      <c r="G114" s="313"/>
+      <c r="H114" s="313"/>
+      <c r="I114" s="313"/>
+      <c r="J114" s="313"/>
+      <c r="K114" s="313"/>
+      <c r="L114" s="313"/>
+      <c r="M114" s="313"/>
+      <c r="N114" s="313"/>
+      <c r="O114" s="313"/>
+      <c r="P114" s="313"/>
+      <c r="Q114" s="313"/>
+      <c r="R114" s="313"/>
+      <c r="S114" s="313"/>
+      <c r="T114" s="314"/>
     </row>
     <row r="115" spans="2:20" ht="19">
       <c r="B115" s="76"/>
-      <c r="C115" s="262"/>
-      <c r="D115" s="262"/>
-      <c r="E115" s="262"/>
-      <c r="F115" s="262"/>
-      <c r="G115" s="262"/>
+      <c r="C115" s="341"/>
+      <c r="D115" s="341"/>
+      <c r="E115" s="341"/>
+      <c r="F115" s="341"/>
+      <c r="G115" s="341"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -5484,10 +5484,10 @@
       <c r="L115" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="M115" s="263" t="s">
+      <c r="M115" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="263"/>
+      <c r="N115" s="342"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="21"/>
@@ -5497,20 +5497,20 @@
     </row>
     <row r="116" spans="2:20" ht="20">
       <c r="B116" s="77"/>
-      <c r="C116" s="264" t="s">
+      <c r="C116" s="329" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="264"/>
-      <c r="E116" s="264"/>
-      <c r="F116" s="264"/>
-      <c r="G116" s="264"/>
-      <c r="H116" s="264"/>
+      <c r="D116" s="329"/>
+      <c r="E116" s="329"/>
+      <c r="F116" s="329"/>
+      <c r="G116" s="329"/>
+      <c r="H116" s="329"/>
       <c r="I116" s="78"/>
       <c r="J116" s="27"/>
       <c r="K116" s="200"/>
       <c r="L116" s="200"/>
-      <c r="M116" s="225"/>
-      <c r="N116" s="227"/>
+      <c r="M116" s="216"/>
+      <c r="N116" s="217"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="20"/>
@@ -5520,11 +5520,11 @@
     </row>
     <row r="117" spans="2:20" ht="19">
       <c r="B117" s="153"/>
-      <c r="C117" s="264"/>
-      <c r="D117" s="264"/>
-      <c r="E117" s="264"/>
-      <c r="F117" s="264"/>
-      <c r="G117" s="264"/>
+      <c r="C117" s="329"/>
+      <c r="D117" s="329"/>
+      <c r="E117" s="329"/>
+      <c r="F117" s="329"/>
+      <c r="G117" s="329"/>
       <c r="H117" s="152"/>
       <c r="I117" s="152"/>
       <c r="J117" s="152"/>
@@ -5547,23 +5547,23 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="265"/>
-      <c r="H118" s="265"/>
-      <c r="I118" s="266" t="s">
+      <c r="G118" s="272"/>
+      <c r="H118" s="272"/>
+      <c r="I118" s="343" t="s">
         <v>175</v>
       </c>
-      <c r="J118" s="266"/>
-      <c r="K118" s="266"/>
-      <c r="L118" s="266"/>
-      <c r="M118" s="266"/>
-      <c r="N118" s="266"/>
-      <c r="O118" s="267"/>
-      <c r="P118" s="271"/>
-      <c r="Q118" s="272"/>
-      <c r="R118" s="270" t="s">
+      <c r="J118" s="343"/>
+      <c r="K118" s="343"/>
+      <c r="L118" s="343"/>
+      <c r="M118" s="343"/>
+      <c r="N118" s="343"/>
+      <c r="O118" s="344"/>
+      <c r="P118" s="325"/>
+      <c r="Q118" s="326"/>
+      <c r="R118" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="S118" s="265"/>
+      <c r="S118" s="272"/>
       <c r="T118" s="41"/>
     </row>
     <row r="119" spans="2:20" ht="19">
@@ -5701,8 +5701,8 @@
       <c r="F124" s="202"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
-      <c r="I124" s="273"/>
-      <c r="J124" s="273"/>
+      <c r="I124" s="327"/>
+      <c r="J124" s="327"/>
       <c r="K124" s="86"/>
       <c r="L124" s="86"/>
       <c r="M124" s="86"/>
@@ -5730,10 +5730,10 @@
       <c r="L125" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="319" t="s">
+      <c r="M125" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="N125" s="319"/>
+      <c r="N125" s="265"/>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="25"/>
@@ -5755,8 +5755,8 @@
       <c r="J126" s="24"/>
       <c r="K126" s="199"/>
       <c r="L126" s="199"/>
-      <c r="M126" s="320"/>
-      <c r="N126" s="321"/>
+      <c r="M126" s="220"/>
+      <c r="N126" s="221"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="25"/>
@@ -5787,29 +5787,29 @@
     </row>
     <row r="128" spans="2:20" ht="20">
       <c r="B128" s="80"/>
-      <c r="C128" s="260" t="s">
+      <c r="C128" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="260"/>
-      <c r="E128" s="260"/>
-      <c r="F128" s="247"/>
-      <c r="G128" s="247"/>
+      <c r="D128" s="305"/>
+      <c r="E128" s="305"/>
+      <c r="F128" s="324"/>
+      <c r="G128" s="324"/>
       <c r="H128" s="82"/>
-      <c r="I128" s="322" t="s">
+      <c r="I128" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="J128" s="322"/>
-      <c r="K128" s="322"/>
-      <c r="L128" s="322"/>
-      <c r="M128" s="322"/>
-      <c r="N128" s="322"/>
-      <c r="O128" s="323"/>
-      <c r="P128" s="250"/>
-      <c r="Q128" s="252"/>
-      <c r="R128" s="246" t="s">
+      <c r="J128" s="236"/>
+      <c r="K128" s="236"/>
+      <c r="L128" s="236"/>
+      <c r="M128" s="236"/>
+      <c r="N128" s="236"/>
+      <c r="O128" s="237"/>
+      <c r="P128" s="214"/>
+      <c r="Q128" s="215"/>
+      <c r="R128" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="S128" s="247"/>
+      <c r="S128" s="324"/>
       <c r="T128" s="81"/>
     </row>
     <row r="129" spans="2:20" ht="19">
@@ -5872,10 +5872,10 @@
       <c r="J131" s="199"/>
       <c r="K131" s="149"/>
       <c r="L131" s="149"/>
-      <c r="M131" s="319" t="s">
+      <c r="M131" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="N131" s="319"/>
+      <c r="N131" s="265"/>
       <c r="O131" s="199"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="177"/>
@@ -5899,14 +5899,14 @@
       <c r="J132" s="199"/>
       <c r="K132" s="149"/>
       <c r="L132" s="149"/>
-      <c r="M132" s="319" t="s">
+      <c r="M132" s="265" t="s">
         <v>78</v>
       </c>
-      <c r="N132" s="319"/>
-      <c r="O132" s="361"/>
-      <c r="P132" s="361"/>
-      <c r="Q132" s="361"/>
-      <c r="R132" s="361"/>
+      <c r="N132" s="265"/>
+      <c r="O132" s="225"/>
+      <c r="P132" s="225"/>
+      <c r="Q132" s="225"/>
+      <c r="R132" s="225"/>
       <c r="S132" s="171"/>
       <c r="T132" s="81"/>
     </row>
@@ -5949,10 +5949,10 @@
       <c r="L134" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="324" t="s">
+      <c r="M134" s="266" t="s">
         <v>83</v>
       </c>
-      <c r="N134" s="324"/>
+      <c r="N134" s="266"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="25"/>
@@ -5974,8 +5974,8 @@
       <c r="J135" s="25"/>
       <c r="K135" s="199"/>
       <c r="L135" s="199"/>
-      <c r="M135" s="238"/>
-      <c r="N135" s="240"/>
+      <c r="M135" s="267"/>
+      <c r="N135" s="268"/>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="25"/>
@@ -6006,29 +6006,29 @@
     </row>
     <row r="137" spans="2:20" ht="20">
       <c r="B137" s="80"/>
-      <c r="C137" s="245" t="s">
+      <c r="C137" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="245"/>
-      <c r="E137" s="245"/>
-      <c r="F137" s="247"/>
-      <c r="G137" s="247"/>
+      <c r="D137" s="330"/>
+      <c r="E137" s="330"/>
+      <c r="F137" s="324"/>
+      <c r="G137" s="324"/>
       <c r="H137" s="82"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="322" t="s">
+      <c r="J137" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="K137" s="322"/>
-      <c r="L137" s="322"/>
-      <c r="M137" s="322"/>
-      <c r="N137" s="322"/>
-      <c r="O137" s="323"/>
-      <c r="P137" s="250"/>
-      <c r="Q137" s="252"/>
-      <c r="R137" s="246" t="s">
+      <c r="K137" s="236"/>
+      <c r="L137" s="236"/>
+      <c r="M137" s="236"/>
+      <c r="N137" s="236"/>
+      <c r="O137" s="237"/>
+      <c r="P137" s="214"/>
+      <c r="Q137" s="215"/>
+      <c r="R137" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="S137" s="247"/>
+      <c r="S137" s="324"/>
       <c r="T137" s="81"/>
     </row>
     <row r="138" spans="2:20" ht="19">
@@ -6249,27 +6249,27 @@
       <c r="T146" s="41"/>
     </row>
     <row r="147" spans="2:20" ht="19">
-      <c r="B147" s="325" t="s">
+      <c r="B147" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="326"/>
-      <c r="D147" s="326"/>
-      <c r="E147" s="326"/>
-      <c r="F147" s="326"/>
-      <c r="G147" s="326"/>
-      <c r="H147" s="326"/>
-      <c r="I147" s="326"/>
-      <c r="J147" s="326"/>
-      <c r="K147" s="326"/>
-      <c r="L147" s="326"/>
-      <c r="M147" s="326"/>
-      <c r="N147" s="326"/>
-      <c r="O147" s="326"/>
-      <c r="P147" s="326"/>
-      <c r="Q147" s="326"/>
-      <c r="R147" s="326"/>
-      <c r="S147" s="326"/>
-      <c r="T147" s="327"/>
+      <c r="C147" s="247"/>
+      <c r="D147" s="247"/>
+      <c r="E147" s="247"/>
+      <c r="F147" s="247"/>
+      <c r="G147" s="247"/>
+      <c r="H147" s="247"/>
+      <c r="I147" s="247"/>
+      <c r="J147" s="247"/>
+      <c r="K147" s="247"/>
+      <c r="L147" s="247"/>
+      <c r="M147" s="247"/>
+      <c r="N147" s="247"/>
+      <c r="O147" s="247"/>
+      <c r="P147" s="247"/>
+      <c r="Q147" s="247"/>
+      <c r="R147" s="247"/>
+      <c r="S147" s="247"/>
+      <c r="T147" s="248"/>
     </row>
     <row r="148" spans="2:20" ht="19">
       <c r="B148" s="76"/>
@@ -6312,12 +6312,12 @@
       <c r="J149" s="104"/>
       <c r="K149" s="104"/>
       <c r="L149" s="104"/>
-      <c r="M149" s="316"/>
-      <c r="N149" s="317"/>
-      <c r="O149" s="317"/>
-      <c r="P149" s="317"/>
-      <c r="Q149" s="317"/>
-      <c r="R149" s="318"/>
+      <c r="M149" s="262"/>
+      <c r="N149" s="263"/>
+      <c r="O149" s="263"/>
+      <c r="P149" s="263"/>
+      <c r="Q149" s="263"/>
+      <c r="R149" s="264"/>
       <c r="S149" s="20"/>
       <c r="T149" s="41"/>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
-      <c r="E157" s="359"/>
-      <c r="F157" s="360"/>
+      <c r="E157" s="218"/>
+      <c r="F157" s="219"/>
       <c r="G157" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H157" s="178"/>
       <c r="I157" s="89"/>
-      <c r="J157" s="278" t="s">
+      <c r="J157" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="K157" s="278"/>
-      <c r="L157" s="278"/>
-      <c r="M157" s="278"/>
-      <c r="N157" s="328"/>
-      <c r="O157" s="225"/>
-      <c r="P157" s="227"/>
+      <c r="K157" s="269"/>
+      <c r="L157" s="269"/>
+      <c r="M157" s="269"/>
+      <c r="N157" s="270"/>
+      <c r="O157" s="216"/>
+      <c r="P157" s="217"/>
       <c r="Q157" s="20" t="s">
         <v>3</v>
       </c>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="359"/>
-      <c r="F159" s="360"/>
+      <c r="E159" s="218"/>
+      <c r="F159" s="219"/>
       <c r="G159" s="178" t="s">
         <v>3</v>
       </c>
       <c r="H159" s="11"/>
-      <c r="I159" s="362" t="s">
+      <c r="I159" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="J159" s="362"/>
-      <c r="K159" s="363"/>
-      <c r="L159" s="359"/>
-      <c r="M159" s="360"/>
+      <c r="J159" s="226"/>
+      <c r="K159" s="227"/>
+      <c r="L159" s="218"/>
+      <c r="M159" s="219"/>
       <c r="N159" s="178" t="s">
         <v>3</v>
       </c>
@@ -6557,8 +6557,8 @@
         <v>45</v>
       </c>
       <c r="Q159" s="144"/>
-      <c r="R159" s="359"/>
-      <c r="S159" s="360"/>
+      <c r="R159" s="218"/>
+      <c r="S159" s="219"/>
       <c r="T159" s="41"/>
     </row>
     <row r="160" spans="2:20" ht="9" customHeight="1">
@@ -6583,27 +6583,27 @@
       <c r="T160" s="41"/>
     </row>
     <row r="161" spans="2:20" ht="19">
-      <c r="B161" s="325" t="s">
+      <c r="B161" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="326"/>
-      <c r="D161" s="326"/>
-      <c r="E161" s="326"/>
-      <c r="F161" s="326"/>
-      <c r="G161" s="326"/>
-      <c r="H161" s="326"/>
-      <c r="I161" s="326"/>
-      <c r="J161" s="326"/>
-      <c r="K161" s="326"/>
-      <c r="L161" s="326"/>
-      <c r="M161" s="326"/>
-      <c r="N161" s="326"/>
-      <c r="O161" s="326"/>
-      <c r="P161" s="326"/>
-      <c r="Q161" s="326"/>
-      <c r="R161" s="326"/>
-      <c r="S161" s="326"/>
-      <c r="T161" s="327"/>
+      <c r="C161" s="247"/>
+      <c r="D161" s="247"/>
+      <c r="E161" s="247"/>
+      <c r="F161" s="247"/>
+      <c r="G161" s="247"/>
+      <c r="H161" s="247"/>
+      <c r="I161" s="247"/>
+      <c r="J161" s="247"/>
+      <c r="K161" s="247"/>
+      <c r="L161" s="247"/>
+      <c r="M161" s="247"/>
+      <c r="N161" s="247"/>
+      <c r="O161" s="247"/>
+      <c r="P161" s="247"/>
+      <c r="Q161" s="247"/>
+      <c r="R161" s="247"/>
+      <c r="S161" s="247"/>
+      <c r="T161" s="248"/>
     </row>
     <row r="162" spans="2:20" ht="9" customHeight="1">
       <c r="B162" s="76"/>
@@ -6631,9 +6631,9 @@
         <v>90</v>
       </c>
       <c r="C163" s="20"/>
-      <c r="D163" s="225"/>
-      <c r="E163" s="226"/>
-      <c r="F163" s="227"/>
+      <c r="D163" s="216"/>
+      <c r="E163" s="271"/>
+      <c r="F163" s="217"/>
       <c r="G163" s="20" t="s">
         <v>88</v>
       </c>
@@ -6653,10 +6653,10 @@
         <v>65</v>
       </c>
       <c r="Q163" s="42"/>
-      <c r="R163" s="265" t="s">
+      <c r="R163" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="S163" s="265"/>
+      <c r="S163" s="272"/>
       <c r="T163" s="90"/>
     </row>
     <row r="164" spans="2:20" ht="12" customHeight="1">
@@ -6686,8 +6686,8 @@
       </c>
       <c r="C165" s="92"/>
       <c r="D165" s="42"/>
-      <c r="E165" s="225"/>
-      <c r="F165" s="227"/>
+      <c r="E165" s="216"/>
+      <c r="F165" s="217"/>
       <c r="G165" s="178" t="s">
         <v>3</v>
       </c>
@@ -6732,8 +6732,8 @@
       </c>
       <c r="C167" s="20"/>
       <c r="D167" s="89"/>
-      <c r="E167" s="225"/>
-      <c r="F167" s="227"/>
+      <c r="E167" s="216"/>
+      <c r="F167" s="217"/>
       <c r="G167" s="178" t="s">
         <v>3</v>
       </c>
@@ -6785,15 +6785,15 @@
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="225"/>
-      <c r="I169" s="227"/>
-      <c r="J169" s="270" t="s">
+      <c r="H169" s="216"/>
+      <c r="I169" s="217"/>
+      <c r="J169" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="K169" s="265"/>
-      <c r="L169" s="265"/>
-      <c r="M169" s="265"/>
-      <c r="N169" s="279"/>
+      <c r="K169" s="272"/>
+      <c r="L169" s="272"/>
+      <c r="M169" s="272"/>
+      <c r="N169" s="280"/>
       <c r="O169" s="202"/>
       <c r="P169" s="202"/>
       <c r="Q169" s="42"/>
@@ -6846,236 +6846,236 @@
       <c r="T171" s="94"/>
     </row>
     <row r="172" spans="2:20" ht="19">
-      <c r="B172" s="325" t="s">
+      <c r="B172" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="326"/>
-      <c r="D172" s="326"/>
-      <c r="E172" s="326"/>
-      <c r="F172" s="326"/>
-      <c r="G172" s="326"/>
-      <c r="H172" s="326"/>
-      <c r="I172" s="326"/>
-      <c r="J172" s="326"/>
-      <c r="K172" s="326"/>
-      <c r="L172" s="326"/>
-      <c r="M172" s="326"/>
-      <c r="N172" s="326"/>
-      <c r="O172" s="326"/>
-      <c r="P172" s="326"/>
-      <c r="Q172" s="326"/>
-      <c r="R172" s="326"/>
-      <c r="S172" s="326"/>
-      <c r="T172" s="327"/>
+      <c r="C172" s="247"/>
+      <c r="D172" s="247"/>
+      <c r="E172" s="247"/>
+      <c r="F172" s="247"/>
+      <c r="G172" s="247"/>
+      <c r="H172" s="247"/>
+      <c r="I172" s="247"/>
+      <c r="J172" s="247"/>
+      <c r="K172" s="247"/>
+      <c r="L172" s="247"/>
+      <c r="M172" s="247"/>
+      <c r="N172" s="247"/>
+      <c r="O172" s="247"/>
+      <c r="P172" s="247"/>
+      <c r="Q172" s="247"/>
+      <c r="R172" s="247"/>
+      <c r="S172" s="247"/>
+      <c r="T172" s="248"/>
     </row>
     <row r="173" spans="2:20" ht="19">
-      <c r="B173" s="338" t="s">
+      <c r="B173" s="242" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="339"/>
-      <c r="D173" s="339"/>
-      <c r="E173" s="340"/>
-      <c r="F173" s="344" t="s">
+      <c r="C173" s="243"/>
+      <c r="D173" s="243"/>
+      <c r="E173" s="244"/>
+      <c r="F173" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="G173" s="345"/>
-      <c r="H173" s="352" t="s">
+      <c r="G173" s="250"/>
+      <c r="H173" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="I173" s="354" t="s">
+      <c r="I173" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="356"/>
-      <c r="K173" s="354" t="s">
+      <c r="J173" s="229"/>
+      <c r="K173" s="228" t="s">
         <v>201</v>
       </c>
-      <c r="L173" s="356"/>
-      <c r="M173" s="354" t="s">
+      <c r="L173" s="229"/>
+      <c r="M173" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="N173" s="355"/>
-      <c r="O173" s="355"/>
-      <c r="P173" s="355"/>
-      <c r="Q173" s="356"/>
-      <c r="R173" s="346" t="s">
+      <c r="N173" s="259"/>
+      <c r="O173" s="259"/>
+      <c r="P173" s="259"/>
+      <c r="Q173" s="229"/>
+      <c r="R173" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="S173" s="347"/>
-      <c r="T173" s="348"/>
+      <c r="S173" s="252"/>
+      <c r="T173" s="253"/>
     </row>
     <row r="174" spans="2:20" ht="19">
-      <c r="B174" s="341"/>
-      <c r="C174" s="342"/>
-      <c r="D174" s="342"/>
-      <c r="E174" s="343"/>
+      <c r="B174" s="230"/>
+      <c r="C174" s="245"/>
+      <c r="D174" s="245"/>
+      <c r="E174" s="231"/>
       <c r="F174" s="102" t="s">
         <v>119</v>
       </c>
       <c r="G174" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H174" s="353"/>
-      <c r="I174" s="341"/>
-      <c r="J174" s="343"/>
-      <c r="K174" s="341"/>
-      <c r="L174" s="343"/>
-      <c r="M174" s="341"/>
-      <c r="N174" s="342"/>
-      <c r="O174" s="342"/>
-      <c r="P174" s="342"/>
-      <c r="Q174" s="343"/>
-      <c r="R174" s="349"/>
-      <c r="S174" s="350"/>
-      <c r="T174" s="351"/>
+      <c r="H174" s="258"/>
+      <c r="I174" s="230"/>
+      <c r="J174" s="231"/>
+      <c r="K174" s="230"/>
+      <c r="L174" s="231"/>
+      <c r="M174" s="230"/>
+      <c r="N174" s="245"/>
+      <c r="O174" s="245"/>
+      <c r="P174" s="245"/>
+      <c r="Q174" s="231"/>
+      <c r="R174" s="254"/>
+      <c r="S174" s="255"/>
+      <c r="T174" s="256"/>
     </row>
     <row r="175" spans="2:20" ht="20">
-      <c r="B175" s="301"/>
-      <c r="C175" s="302"/>
-      <c r="D175" s="302"/>
-      <c r="E175" s="303"/>
+      <c r="B175" s="232"/>
+      <c r="C175" s="241"/>
+      <c r="D175" s="241"/>
+      <c r="E175" s="233"/>
       <c r="F175" s="207"/>
       <c r="G175" s="207"/>
       <c r="H175" s="201"/>
-      <c r="I175" s="336"/>
-      <c r="J175" s="337"/>
-      <c r="K175" s="301"/>
-      <c r="L175" s="303"/>
-      <c r="M175" s="304"/>
-      <c r="N175" s="304"/>
-      <c r="O175" s="304"/>
-      <c r="P175" s="304"/>
-      <c r="Q175" s="304"/>
-      <c r="R175" s="301"/>
-      <c r="S175" s="302"/>
-      <c r="T175" s="303"/>
+      <c r="I175" s="362"/>
+      <c r="J175" s="363"/>
+      <c r="K175" s="232"/>
+      <c r="L175" s="233"/>
+      <c r="M175" s="283"/>
+      <c r="N175" s="283"/>
+      <c r="O175" s="283"/>
+      <c r="P175" s="283"/>
+      <c r="Q175" s="283"/>
+      <c r="R175" s="232"/>
+      <c r="S175" s="241"/>
+      <c r="T175" s="233"/>
     </row>
     <row r="176" spans="2:20" ht="20">
-      <c r="B176" s="301"/>
-      <c r="C176" s="302"/>
-      <c r="D176" s="302"/>
-      <c r="E176" s="303"/>
+      <c r="B176" s="232"/>
+      <c r="C176" s="241"/>
+      <c r="D176" s="241"/>
+      <c r="E176" s="233"/>
       <c r="F176" s="211"/>
       <c r="G176" s="211"/>
       <c r="H176" s="201"/>
       <c r="I176" s="232"/>
-      <c r="J176" s="234"/>
-      <c r="K176" s="301"/>
-      <c r="L176" s="303"/>
-      <c r="M176" s="301"/>
-      <c r="N176" s="302"/>
-      <c r="O176" s="302"/>
-      <c r="P176" s="302"/>
-      <c r="Q176" s="303"/>
-      <c r="R176" s="301"/>
-      <c r="S176" s="302"/>
-      <c r="T176" s="303"/>
+      <c r="J176" s="233"/>
+      <c r="K176" s="232"/>
+      <c r="L176" s="233"/>
+      <c r="M176" s="232"/>
+      <c r="N176" s="241"/>
+      <c r="O176" s="241"/>
+      <c r="P176" s="241"/>
+      <c r="Q176" s="233"/>
+      <c r="R176" s="232"/>
+      <c r="S176" s="241"/>
+      <c r="T176" s="233"/>
     </row>
     <row r="177" spans="2:20" ht="20">
-      <c r="B177" s="301"/>
-      <c r="C177" s="302"/>
-      <c r="D177" s="302"/>
-      <c r="E177" s="303"/>
+      <c r="B177" s="232"/>
+      <c r="C177" s="241"/>
+      <c r="D177" s="241"/>
+      <c r="E177" s="233"/>
       <c r="F177" s="211"/>
       <c r="G177" s="211"/>
       <c r="H177" s="201"/>
       <c r="I177" s="232"/>
-      <c r="J177" s="234"/>
-      <c r="K177" s="301"/>
-      <c r="L177" s="303"/>
-      <c r="M177" s="301"/>
-      <c r="N177" s="302"/>
-      <c r="O177" s="302"/>
-      <c r="P177" s="302"/>
-      <c r="Q177" s="303"/>
-      <c r="R177" s="301"/>
-      <c r="S177" s="302"/>
-      <c r="T177" s="303"/>
+      <c r="J177" s="233"/>
+      <c r="K177" s="232"/>
+      <c r="L177" s="233"/>
+      <c r="M177" s="232"/>
+      <c r="N177" s="241"/>
+      <c r="O177" s="241"/>
+      <c r="P177" s="241"/>
+      <c r="Q177" s="233"/>
+      <c r="R177" s="232"/>
+      <c r="S177" s="241"/>
+      <c r="T177" s="233"/>
     </row>
     <row r="178" spans="2:20" ht="20">
-      <c r="B178" s="301"/>
-      <c r="C178" s="302"/>
-      <c r="D178" s="302"/>
-      <c r="E178" s="303"/>
+      <c r="B178" s="232"/>
+      <c r="C178" s="241"/>
+      <c r="D178" s="241"/>
+      <c r="E178" s="233"/>
       <c r="F178" s="211"/>
       <c r="G178" s="211"/>
       <c r="H178" s="201"/>
       <c r="I178" s="232"/>
-      <c r="J178" s="234"/>
-      <c r="K178" s="301"/>
-      <c r="L178" s="303"/>
-      <c r="M178" s="301"/>
-      <c r="N178" s="302"/>
-      <c r="O178" s="302"/>
-      <c r="P178" s="302"/>
-      <c r="Q178" s="303"/>
-      <c r="R178" s="301"/>
-      <c r="S178" s="302"/>
-      <c r="T178" s="303"/>
+      <c r="J178" s="233"/>
+      <c r="K178" s="232"/>
+      <c r="L178" s="233"/>
+      <c r="M178" s="232"/>
+      <c r="N178" s="241"/>
+      <c r="O178" s="241"/>
+      <c r="P178" s="241"/>
+      <c r="Q178" s="233"/>
+      <c r="R178" s="232"/>
+      <c r="S178" s="241"/>
+      <c r="T178" s="233"/>
     </row>
     <row r="179" spans="2:20" ht="20">
-      <c r="B179" s="301"/>
-      <c r="C179" s="302"/>
-      <c r="D179" s="302"/>
-      <c r="E179" s="303"/>
+      <c r="B179" s="232"/>
+      <c r="C179" s="241"/>
+      <c r="D179" s="241"/>
+      <c r="E179" s="233"/>
       <c r="F179" s="211"/>
       <c r="G179" s="211"/>
       <c r="H179" s="201"/>
       <c r="I179" s="232"/>
-      <c r="J179" s="234"/>
-      <c r="K179" s="301"/>
-      <c r="L179" s="303"/>
-      <c r="M179" s="301"/>
-      <c r="N179" s="302"/>
-      <c r="O179" s="302"/>
-      <c r="P179" s="302"/>
-      <c r="Q179" s="303"/>
-      <c r="R179" s="301"/>
-      <c r="S179" s="302"/>
-      <c r="T179" s="303"/>
+      <c r="J179" s="233"/>
+      <c r="K179" s="232"/>
+      <c r="L179" s="233"/>
+      <c r="M179" s="232"/>
+      <c r="N179" s="241"/>
+      <c r="O179" s="241"/>
+      <c r="P179" s="241"/>
+      <c r="Q179" s="233"/>
+      <c r="R179" s="232"/>
+      <c r="S179" s="241"/>
+      <c r="T179" s="233"/>
     </row>
     <row r="180" spans="2:20" ht="20">
-      <c r="B180" s="301"/>
-      <c r="C180" s="302"/>
-      <c r="D180" s="302"/>
-      <c r="E180" s="303"/>
+      <c r="B180" s="232"/>
+      <c r="C180" s="241"/>
+      <c r="D180" s="241"/>
+      <c r="E180" s="233"/>
       <c r="F180" s="211"/>
       <c r="G180" s="211"/>
       <c r="H180" s="201"/>
       <c r="I180" s="232"/>
-      <c r="J180" s="234"/>
-      <c r="K180" s="301"/>
-      <c r="L180" s="303"/>
-      <c r="M180" s="304"/>
-      <c r="N180" s="304"/>
-      <c r="O180" s="304"/>
-      <c r="P180" s="304"/>
-      <c r="Q180" s="304"/>
-      <c r="R180" s="301"/>
-      <c r="S180" s="302"/>
-      <c r="T180" s="303"/>
+      <c r="J180" s="233"/>
+      <c r="K180" s="232"/>
+      <c r="L180" s="233"/>
+      <c r="M180" s="283"/>
+      <c r="N180" s="283"/>
+      <c r="O180" s="283"/>
+      <c r="P180" s="283"/>
+      <c r="Q180" s="283"/>
+      <c r="R180" s="232"/>
+      <c r="S180" s="241"/>
+      <c r="T180" s="233"/>
     </row>
     <row r="181" spans="2:20" ht="17.5">
-      <c r="B181" s="329" t="s">
+      <c r="B181" s="273" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="330"/>
-      <c r="D181" s="330"/>
-      <c r="E181" s="330"/>
-      <c r="F181" s="330"/>
-      <c r="G181" s="330"/>
-      <c r="H181" s="330"/>
-      <c r="I181" s="330"/>
-      <c r="J181" s="330"/>
-      <c r="K181" s="330"/>
-      <c r="L181" s="330"/>
-      <c r="M181" s="330"/>
-      <c r="N181" s="330"/>
-      <c r="O181" s="330"/>
-      <c r="P181" s="330"/>
-      <c r="Q181" s="330"/>
-      <c r="R181" s="330"/>
-      <c r="S181" s="330"/>
-      <c r="T181" s="331"/>
+      <c r="C181" s="274"/>
+      <c r="D181" s="274"/>
+      <c r="E181" s="274"/>
+      <c r="F181" s="274"/>
+      <c r="G181" s="274"/>
+      <c r="H181" s="274"/>
+      <c r="I181" s="274"/>
+      <c r="J181" s="274"/>
+      <c r="K181" s="274"/>
+      <c r="L181" s="274"/>
+      <c r="M181" s="274"/>
+      <c r="N181" s="274"/>
+      <c r="O181" s="274"/>
+      <c r="P181" s="274"/>
+      <c r="Q181" s="274"/>
+      <c r="R181" s="274"/>
+      <c r="S181" s="274"/>
+      <c r="T181" s="275"/>
     </row>
     <row r="182" spans="2:20" ht="17.5">
       <c r="B182" s="107" t="s">
@@ -7123,12 +7123,12 @@
     </row>
     <row r="184" spans="2:20" ht="20">
       <c r="B184" s="44"/>
-      <c r="C184" s="332" t="s">
+      <c r="C184" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="D184" s="332"/>
-      <c r="E184" s="332"/>
-      <c r="F184" s="332"/>
+      <c r="D184" s="276"/>
+      <c r="E184" s="276"/>
+      <c r="F184" s="276"/>
       <c r="G184" s="12"/>
       <c r="H184" s="11"/>
       <c r="I184" s="68" t="s">
@@ -7148,24 +7148,24 @@
     </row>
     <row r="185" spans="2:20" ht="26.25" customHeight="1">
       <c r="B185" s="44"/>
-      <c r="C185" s="315"/>
-      <c r="D185" s="315"/>
-      <c r="E185" s="315"/>
-      <c r="F185" s="315"/>
+      <c r="C185" s="261"/>
+      <c r="D185" s="261"/>
+      <c r="E185" s="261"/>
+      <c r="F185" s="261"/>
       <c r="G185" s="12"/>
       <c r="H185" s="11"/>
-      <c r="I185" s="315"/>
-      <c r="J185" s="315"/>
-      <c r="K185" s="315"/>
-      <c r="L185" s="315"/>
-      <c r="M185" s="315"/>
-      <c r="N185" s="333" t="s">
+      <c r="I185" s="261"/>
+      <c r="J185" s="261"/>
+      <c r="K185" s="261"/>
+      <c r="L185" s="261"/>
+      <c r="M185" s="261"/>
+      <c r="N185" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="333"/>
-      <c r="P185" s="334"/>
-      <c r="Q185" s="357"/>
-      <c r="R185" s="358"/>
+      <c r="O185" s="277"/>
+      <c r="P185" s="278"/>
+      <c r="Q185" s="212"/>
+      <c r="R185" s="213"/>
       <c r="S185" s="155" t="s">
         <v>3</v>
       </c>
@@ -7173,17 +7173,17 @@
     </row>
     <row r="186" spans="2:20" ht="28.5" customHeight="1">
       <c r="B186" s="44"/>
-      <c r="C186" s="335"/>
-      <c r="D186" s="335"/>
-      <c r="E186" s="335"/>
-      <c r="F186" s="335"/>
+      <c r="C186" s="238"/>
+      <c r="D186" s="238"/>
+      <c r="E186" s="238"/>
+      <c r="F186" s="238"/>
       <c r="G186" s="12"/>
       <c r="H186" s="11"/>
-      <c r="I186" s="335"/>
-      <c r="J186" s="335"/>
-      <c r="K186" s="335"/>
-      <c r="L186" s="335"/>
-      <c r="M186" s="335"/>
+      <c r="I186" s="238"/>
+      <c r="J186" s="238"/>
+      <c r="K186" s="238"/>
+      <c r="L186" s="238"/>
+      <c r="M186" s="238"/>
       <c r="N186" s="12"/>
       <c r="O186" s="95"/>
       <c r="P186" s="95"/>
@@ -7200,13 +7200,13 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="11"/>
-      <c r="I187" s="314" t="s">
+      <c r="I187" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="J187" s="314"/>
-      <c r="K187" s="314"/>
-      <c r="L187" s="314"/>
-      <c r="M187" s="314"/>
+      <c r="J187" s="260"/>
+      <c r="K187" s="260"/>
+      <c r="L187" s="260"/>
+      <c r="M187" s="260"/>
       <c r="N187" s="12"/>
       <c r="O187" s="95"/>
       <c r="P187" s="95"/>
@@ -7223,11 +7223,11 @@
       <c r="F188" s="12"/>
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
-      <c r="I188" s="315"/>
-      <c r="J188" s="315"/>
-      <c r="K188" s="315"/>
-      <c r="L188" s="315"/>
-      <c r="M188" s="315"/>
+      <c r="I188" s="261"/>
+      <c r="J188" s="261"/>
+      <c r="K188" s="261"/>
+      <c r="L188" s="261"/>
+      <c r="M188" s="261"/>
       <c r="N188" s="37"/>
       <c r="O188" s="37"/>
       <c r="P188" s="95"/>
@@ -7259,6 +7259,198 @@
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B75:J76"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:O118"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="B114:T114"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:I39"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M38:Q39"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="R178:T178"/>
+    <mergeCell ref="R179:T179"/>
+    <mergeCell ref="R180:T180"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="M43:R44"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="M149:R149"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B147:T147"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="B161:T161"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B173:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B172:T172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="R173:T174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="M173:Q174"/>
+    <mergeCell ref="I173:J174"/>
+    <mergeCell ref="R175:T175"/>
     <mergeCell ref="Q185:R185"/>
     <mergeCell ref="P137:Q137"/>
     <mergeCell ref="O157:P157"/>
@@ -7283,198 +7475,6 @@
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="J137:O137"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="M176:Q176"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B173:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B172:T172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="R173:T174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="M173:Q174"/>
-    <mergeCell ref="I173:J174"/>
-    <mergeCell ref="R175:T175"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="M149:R149"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B147:T147"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="B161:T161"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="R178:T178"/>
-    <mergeCell ref="R179:T179"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="M175:Q175"/>
-    <mergeCell ref="M180:Q180"/>
-    <mergeCell ref="M178:Q178"/>
-    <mergeCell ref="M177:Q177"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="M43:R44"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I109:O109"/>
-    <mergeCell ref="B114:T114"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B37:T37"/>
-    <mergeCell ref="B38:I39"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M38:Q39"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B75:J76"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:O118"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="B79:T79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
